--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.789</v>
+        <v>1.793</v>
       </c>
       <c r="C2" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="D2" t="n">
-        <v>1.789</v>
+        <v>1.793</v>
       </c>
       <c r="E2" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="F2" t="n">
-        <v>40000</v>
+        <v>49617.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8288</v>
+        <v>1.826783333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,31 +468,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.819</v>
+        <v>1.789</v>
       </c>
       <c r="C3" t="n">
-        <v>1.82</v>
+        <v>1.789</v>
       </c>
       <c r="D3" t="n">
-        <v>1.82</v>
+        <v>1.789</v>
       </c>
       <c r="E3" t="n">
-        <v>1.819</v>
+        <v>1.789</v>
       </c>
       <c r="F3" t="n">
-        <v>227465.227</v>
+        <v>40000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.831333333333333</v>
+        <v>1.8288</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.788</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,32 +507,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.801</v>
+        <v>1.819</v>
       </c>
       <c r="C4" t="n">
-        <v>1.801</v>
+        <v>1.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1.801</v>
+        <v>1.82</v>
       </c>
       <c r="E4" t="n">
-        <v>1.801</v>
+        <v>1.819</v>
       </c>
       <c r="F4" t="n">
-        <v>10217.5</v>
+        <v>227465.227</v>
       </c>
       <c r="G4" t="n">
-        <v>1.833349999999999</v>
+        <v>1.831333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -541,19 +553,19 @@
         <v>1.801</v>
       </c>
       <c r="C5" t="n">
-        <v>1.829</v>
+        <v>1.801</v>
       </c>
       <c r="D5" t="n">
-        <v>1.829</v>
+        <v>1.801</v>
       </c>
       <c r="E5" t="n">
         <v>1.801</v>
       </c>
       <c r="F5" t="n">
-        <v>56859.71</v>
+        <v>10217.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.835999999999999</v>
+        <v>1.833349999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +591,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.829</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.805</v>
       </c>
       <c r="D6" t="n">
         <v>1.829</v>
       </c>
       <c r="E6" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="F6" t="n">
-        <v>106276.04</v>
+        <v>56859.71</v>
       </c>
       <c r="G6" t="n">
-        <v>1.838083333333333</v>
+        <v>1.835999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +629,19 @@
         <v>1.829</v>
       </c>
       <c r="C7" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.829</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.879</v>
-      </c>
       <c r="E7" t="n">
-        <v>1.829</v>
+        <v>1.803</v>
       </c>
       <c r="F7" t="n">
-        <v>1703359.5322</v>
+        <v>106276.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.840233333333332</v>
+        <v>1.838083333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +664,19 @@
         <v>1.829</v>
       </c>
       <c r="C8" t="n">
-        <v>1.81</v>
+        <v>1.829</v>
       </c>
       <c r="D8" t="n">
-        <v>1.83</v>
+        <v>1.879</v>
       </c>
       <c r="E8" t="n">
-        <v>1.81</v>
+        <v>1.829</v>
       </c>
       <c r="F8" t="n">
-        <v>286713.9087</v>
+        <v>1703359.5322</v>
       </c>
       <c r="G8" t="n">
-        <v>1.841733333333333</v>
+        <v>1.840233333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +696,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.817</v>
+        <v>1.829</v>
       </c>
       <c r="C9" t="n">
-        <v>1.817</v>
+        <v>1.81</v>
       </c>
       <c r="D9" t="n">
-        <v>1.817</v>
+        <v>1.83</v>
       </c>
       <c r="E9" t="n">
-        <v>1.817</v>
+        <v>1.81</v>
       </c>
       <c r="F9" t="n">
-        <v>2415.33</v>
+        <v>286713.9087</v>
       </c>
       <c r="G9" t="n">
-        <v>1.842199999999999</v>
+        <v>1.841733333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +734,19 @@
         <v>1.817</v>
       </c>
       <c r="C10" t="n">
-        <v>1.81</v>
+        <v>1.817</v>
       </c>
       <c r="D10" t="n">
         <v>1.817</v>
       </c>
       <c r="E10" t="n">
-        <v>1.81</v>
+        <v>1.817</v>
       </c>
       <c r="F10" t="n">
-        <v>1150000</v>
+        <v>2415.33</v>
       </c>
       <c r="G10" t="n">
-        <v>1.842033333333333</v>
+        <v>1.842199999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.81</v>
+        <v>1.817</v>
       </c>
       <c r="C11" t="n">
         <v>1.81</v>
       </c>
       <c r="D11" t="n">
-        <v>1.81</v>
+        <v>1.817</v>
       </c>
       <c r="E11" t="n">
         <v>1.81</v>
       </c>
       <c r="F11" t="n">
-        <v>19970.04</v>
+        <v>1150000</v>
       </c>
       <c r="G11" t="n">
-        <v>1.841399999999999</v>
+        <v>1.842033333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +801,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="C12" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="D12" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="E12" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="F12" t="n">
-        <v>32139.0762</v>
+        <v>19970.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.840166666666666</v>
+        <v>1.841399999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +836,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.815</v>
+        <v>1.849</v>
       </c>
       <c r="C13" t="n">
         <v>1.815</v>
       </c>
       <c r="D13" t="n">
-        <v>1.816</v>
+        <v>1.849</v>
       </c>
       <c r="E13" t="n">
         <v>1.815</v>
       </c>
       <c r="F13" t="n">
-        <v>166379.4</v>
+        <v>32139.0762</v>
       </c>
       <c r="G13" t="n">
-        <v>1.837616666666666</v>
+        <v>1.840166666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.816</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.849</v>
-      </c>
       <c r="E14" t="n">
-        <v>1.816</v>
+        <v>1.815</v>
       </c>
       <c r="F14" t="n">
-        <v>86641.6976</v>
+        <v>166379.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.838733333333333</v>
+        <v>1.837616666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,7 +909,7 @@
         <v>1.816</v>
       </c>
       <c r="C15" t="n">
-        <v>1.849</v>
+        <v>1.816</v>
       </c>
       <c r="D15" t="n">
         <v>1.849</v>
@@ -900,10 +918,10 @@
         <v>1.816</v>
       </c>
       <c r="F15" t="n">
-        <v>129494.8674</v>
+        <v>86641.6976</v>
       </c>
       <c r="G15" t="n">
-        <v>1.838649999999999</v>
+        <v>1.838733333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +944,19 @@
         <v>1.816</v>
       </c>
       <c r="C16" t="n">
-        <v>1.815</v>
+        <v>1.849</v>
       </c>
       <c r="D16" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="E16" t="n">
         <v>1.816</v>
       </c>
-      <c r="E16" t="n">
-        <v>1.815</v>
-      </c>
       <c r="F16" t="n">
-        <v>40000</v>
+        <v>129494.8674</v>
       </c>
       <c r="G16" t="n">
-        <v>1.837749999999999</v>
+        <v>1.838649999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.815</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.811</v>
-      </c>
       <c r="D17" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.815</v>
       </c>
-      <c r="E17" t="n">
-        <v>1.811</v>
-      </c>
       <c r="F17" t="n">
-        <v>157841.9096</v>
+        <v>40000</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8366</v>
+        <v>1.837749999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1011,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.811</v>
+        <v>1.815</v>
       </c>
       <c r="C18" t="n">
         <v>1.811</v>
       </c>
       <c r="D18" t="n">
-        <v>1.812</v>
+        <v>1.815</v>
       </c>
       <c r="E18" t="n">
         <v>1.811</v>
       </c>
       <c r="F18" t="n">
-        <v>2973145.4419</v>
+        <v>157841.9096</v>
       </c>
       <c r="G18" t="n">
-        <v>1.83365</v>
+        <v>1.8366</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1046,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="C19" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="D19" t="n">
         <v>1.812</v>
       </c>
       <c r="E19" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="F19" t="n">
-        <v>9985.02</v>
+        <v>2973145.4419</v>
       </c>
       <c r="G19" t="n">
-        <v>1.831983333333333</v>
+        <v>1.83365</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.813</v>
+        <v>1.812</v>
       </c>
       <c r="C20" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="D20" t="n">
-        <v>1.813</v>
+        <v>1.812</v>
       </c>
       <c r="E20" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="F20" t="n">
-        <v>699354.3776</v>
+        <v>9985.02</v>
       </c>
       <c r="G20" t="n">
-        <v>1.829016666666666</v>
+        <v>1.831983333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1116,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.81</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.761</v>
-      </c>
       <c r="D21" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E21" t="n">
         <v>1.81</v>
       </c>
-      <c r="E21" t="n">
-        <v>1.761</v>
-      </c>
       <c r="F21" t="n">
-        <v>469616.4554</v>
+        <v>699354.3776</v>
       </c>
       <c r="G21" t="n">
-        <v>1.825416666666666</v>
+        <v>1.829016666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.761</v>
+        <v>1.81</v>
       </c>
       <c r="C22" t="n">
         <v>1.761</v>
       </c>
       <c r="D22" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="E22" t="n">
         <v>1.761</v>
       </c>
       <c r="F22" t="n">
-        <v>1415800.6998</v>
+        <v>469616.4554</v>
       </c>
       <c r="G22" t="n">
-        <v>1.821816666666666</v>
+        <v>1.825416666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1186,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.817</v>
+        <v>1.761</v>
       </c>
       <c r="C23" t="n">
-        <v>1.817</v>
+        <v>1.761</v>
       </c>
       <c r="D23" t="n">
-        <v>1.817</v>
+        <v>1.83</v>
       </c>
       <c r="E23" t="n">
-        <v>1.817</v>
+        <v>1.761</v>
       </c>
       <c r="F23" t="n">
-        <v>470.4199</v>
+        <v>1415800.6998</v>
       </c>
       <c r="G23" t="n">
-        <v>1.820733333333332</v>
+        <v>1.821816666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1221,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.776</v>
+        <v>1.817</v>
       </c>
       <c r="C24" t="n">
-        <v>1.78</v>
+        <v>1.817</v>
       </c>
       <c r="D24" t="n">
-        <v>1.78</v>
+        <v>1.817</v>
       </c>
       <c r="E24" t="n">
-        <v>1.775</v>
+        <v>1.817</v>
       </c>
       <c r="F24" t="n">
-        <v>447067.1531</v>
+        <v>470.4199</v>
       </c>
       <c r="G24" t="n">
-        <v>1.819233333333332</v>
+        <v>1.820733333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.774</v>
+        <v>1.776</v>
       </c>
       <c r="C25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="D25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="E25" t="n">
-        <v>1.774</v>
+        <v>1.775</v>
       </c>
       <c r="F25" t="n">
-        <v>491229.4492</v>
+        <v>447067.1531</v>
       </c>
       <c r="G25" t="n">
-        <v>1.818233333333332</v>
+        <v>1.819233333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.772</v>
+        <v>1.774</v>
       </c>
       <c r="C26" t="n">
         <v>1.79</v>
@@ -1282,13 +1300,13 @@
         <v>1.79</v>
       </c>
       <c r="E26" t="n">
-        <v>1.76</v>
+        <v>1.774</v>
       </c>
       <c r="F26" t="n">
-        <v>1202243.525</v>
+        <v>491229.4492</v>
       </c>
       <c r="G26" t="n">
-        <v>1.817266666666666</v>
+        <v>1.818233333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1326,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.806</v>
+        <v>1.772</v>
       </c>
       <c r="C27" t="n">
-        <v>1.806</v>
+        <v>1.79</v>
       </c>
       <c r="D27" t="n">
-        <v>1.806</v>
+        <v>1.79</v>
       </c>
       <c r="E27" t="n">
-        <v>1.806</v>
+        <v>1.76</v>
       </c>
       <c r="F27" t="n">
-        <v>130545.7452</v>
+        <v>1202243.525</v>
       </c>
       <c r="G27" t="n">
-        <v>1.817049999999999</v>
+        <v>1.817266666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.776</v>
+        <v>1.806</v>
       </c>
       <c r="C28" t="n">
-        <v>1.775</v>
+        <v>1.806</v>
       </c>
       <c r="D28" t="n">
-        <v>1.776</v>
+        <v>1.806</v>
       </c>
       <c r="E28" t="n">
-        <v>1.775</v>
+        <v>1.806</v>
       </c>
       <c r="F28" t="n">
-        <v>77103.0741</v>
+        <v>130545.7452</v>
       </c>
       <c r="G28" t="n">
-        <v>1.815499999999999</v>
+        <v>1.817049999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.781</v>
+        <v>1.776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.762</v>
+        <v>1.775</v>
       </c>
       <c r="D29" t="n">
-        <v>1.781</v>
+        <v>1.776</v>
       </c>
       <c r="E29" t="n">
-        <v>1.762</v>
+        <v>1.775</v>
       </c>
       <c r="F29" t="n">
-        <v>2078540.2281</v>
+        <v>77103.0741</v>
       </c>
       <c r="G29" t="n">
-        <v>1.814533333333333</v>
+        <v>1.815499999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.77</v>
+        <v>1.781</v>
       </c>
       <c r="C30" t="n">
         <v>1.762</v>
       </c>
       <c r="D30" t="n">
-        <v>1.77</v>
+        <v>1.781</v>
       </c>
       <c r="E30" t="n">
         <v>1.762</v>
       </c>
       <c r="F30" t="n">
-        <v>774111.0759000001</v>
+        <v>2078540.2281</v>
       </c>
       <c r="G30" t="n">
-        <v>1.813233333333333</v>
+        <v>1.814533333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1466,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="C31" t="n">
-        <v>1.755</v>
+        <v>1.762</v>
       </c>
       <c r="D31" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E31" t="n">
-        <v>1.73</v>
+        <v>1.762</v>
       </c>
       <c r="F31" t="n">
-        <v>1129619.088</v>
+        <v>774111.0759000001</v>
       </c>
       <c r="G31" t="n">
-        <v>1.811566666666666</v>
+        <v>1.813233333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.754</v>
+        <v>1.76</v>
       </c>
       <c r="C32" t="n">
-        <v>1.726</v>
+        <v>1.755</v>
       </c>
       <c r="D32" t="n">
-        <v>1.754</v>
+        <v>1.76</v>
       </c>
       <c r="E32" t="n">
-        <v>1.724</v>
+        <v>1.73</v>
       </c>
       <c r="F32" t="n">
-        <v>1135680.53</v>
+        <v>1129619.088</v>
       </c>
       <c r="G32" t="n">
-        <v>1.809666666666666</v>
+        <v>1.811566666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="E33" t="n">
         <v>1.724</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.705</v>
-      </c>
       <c r="F33" t="n">
-        <v>596255.6233</v>
+        <v>1135680.53</v>
       </c>
       <c r="G33" t="n">
-        <v>1.807566666666666</v>
+        <v>1.809666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.708</v>
+        <v>1.724</v>
       </c>
       <c r="C34" t="n">
-        <v>1.744</v>
+        <v>1.705</v>
       </c>
       <c r="D34" t="n">
-        <v>1.745</v>
+        <v>1.724</v>
       </c>
       <c r="E34" t="n">
-        <v>1.707</v>
+        <v>1.705</v>
       </c>
       <c r="F34" t="n">
-        <v>945040.578</v>
+        <v>596255.6233</v>
       </c>
       <c r="G34" t="n">
-        <v>1.805966666666666</v>
+        <v>1.807566666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.729</v>
+        <v>1.708</v>
       </c>
       <c r="C35" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="D35" t="n">
-        <v>1.729</v>
+        <v>1.745</v>
       </c>
       <c r="E35" t="n">
-        <v>1.729</v>
+        <v>1.707</v>
       </c>
       <c r="F35" t="n">
-        <v>60000</v>
+        <v>945040.578</v>
       </c>
       <c r="G35" t="n">
-        <v>1.803799999999999</v>
+        <v>1.805966666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.728</v>
+        <v>1.729</v>
       </c>
       <c r="C36" t="n">
-        <v>1.728</v>
+        <v>1.729</v>
       </c>
       <c r="D36" t="n">
-        <v>1.728</v>
+        <v>1.729</v>
       </c>
       <c r="E36" t="n">
-        <v>1.712</v>
+        <v>1.729</v>
       </c>
       <c r="F36" t="n">
-        <v>1431759.0652</v>
+        <v>60000</v>
       </c>
       <c r="G36" t="n">
-        <v>1.801616666666666</v>
+        <v>1.803799999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.718</v>
+        <v>1.728</v>
       </c>
       <c r="C37" t="n">
-        <v>1.738</v>
+        <v>1.728</v>
       </c>
       <c r="D37" t="n">
-        <v>1.738</v>
+        <v>1.728</v>
       </c>
       <c r="E37" t="n">
-        <v>1.717</v>
+        <v>1.712</v>
       </c>
       <c r="F37" t="n">
-        <v>929583.5542</v>
+        <v>1431759.0652</v>
       </c>
       <c r="G37" t="n">
-        <v>1.799983333333333</v>
+        <v>1.801616666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1711,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.738</v>
+        <v>1.718</v>
       </c>
       <c r="C38" t="n">
         <v>1.738</v>
@@ -1702,13 +1720,13 @@
         <v>1.738</v>
       </c>
       <c r="E38" t="n">
-        <v>1.738</v>
+        <v>1.717</v>
       </c>
       <c r="F38" t="n">
-        <v>243000</v>
+        <v>929583.5542</v>
       </c>
       <c r="G38" t="n">
-        <v>1.798349999999999</v>
+        <v>1.799983333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="C39" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="D39" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="E39" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="F39" t="n">
-        <v>63535.2572</v>
+        <v>243000</v>
       </c>
       <c r="G39" t="n">
-        <v>1.796683333333333</v>
+        <v>1.798349999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.748</v>
+        <v>1.74</v>
       </c>
       <c r="C40" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799</v>
+        <v>1.74</v>
       </c>
       <c r="E40" t="n">
-        <v>1.721</v>
+        <v>1.74</v>
       </c>
       <c r="F40" t="n">
-        <v>1011870.5006</v>
+        <v>63535.2572</v>
       </c>
       <c r="G40" t="n">
-        <v>1.794849999999999</v>
+        <v>1.796683333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,35 +1816,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.749</v>
+        <v>1.748</v>
       </c>
       <c r="C41" t="n">
-        <v>1.749</v>
+        <v>1.73</v>
       </c>
       <c r="D41" t="n">
-        <v>1.749</v>
+        <v>1.799</v>
       </c>
       <c r="E41" t="n">
-        <v>1.749</v>
+        <v>1.721</v>
       </c>
       <c r="F41" t="n">
-        <v>421288.5610215552</v>
+        <v>1011870.5006</v>
       </c>
       <c r="G41" t="n">
-        <v>1.793333333333332</v>
+        <v>1.794849999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.73</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1837,40 +1851,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.735</v>
+        <v>1.749</v>
       </c>
       <c r="C42" t="n">
-        <v>1.735</v>
+        <v>1.749</v>
       </c>
       <c r="D42" t="n">
-        <v>1.735</v>
+        <v>1.749</v>
       </c>
       <c r="E42" t="n">
-        <v>1.735</v>
+        <v>1.749</v>
       </c>
       <c r="F42" t="n">
-        <v>228284.872</v>
+        <v>421288.5610215552</v>
       </c>
       <c r="G42" t="n">
-        <v>1.791649999999999</v>
+        <v>1.793333333333332</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,40 +1886,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.73</v>
+        <v>1.735</v>
       </c>
       <c r="C43" t="n">
-        <v>1.73</v>
+        <v>1.735</v>
       </c>
       <c r="D43" t="n">
-        <v>1.73</v>
+        <v>1.735</v>
       </c>
       <c r="E43" t="n">
-        <v>1.73</v>
+        <v>1.735</v>
       </c>
       <c r="F43" t="n">
-        <v>137732.3183</v>
+        <v>228284.872</v>
       </c>
       <c r="G43" t="n">
-        <v>1.789883333333332</v>
+        <v>1.791649999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.735</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1923,35 +1921,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="C44" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="D44" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="E44" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="F44" t="n">
-        <v>60000</v>
+        <v>137732.3183</v>
       </c>
       <c r="G44" t="n">
-        <v>1.788199999999999</v>
+        <v>1.789883333333332</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.73</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1962,40 +1956,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="C45" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="D45" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="E45" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="F45" t="n">
-        <v>290</v>
+        <v>60000</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786749999999999</v>
+        <v>1.788199999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2017,28 +2003,20 @@
         <v>1.749</v>
       </c>
       <c r="F46" t="n">
-        <v>14537.28197844483</v>
+        <v>290</v>
       </c>
       <c r="G46" t="n">
-        <v>1.784899999999999</v>
+        <v>1.786749999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2048,35 +2026,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="C47" t="n">
-        <v>1.765</v>
+        <v>1.749</v>
       </c>
       <c r="D47" t="n">
-        <v>1.765</v>
+        <v>1.749</v>
       </c>
       <c r="E47" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="F47" t="n">
-        <v>112262.5732</v>
+        <v>14537.28197844483</v>
       </c>
       <c r="G47" t="n">
-        <v>1.783833333333332</v>
+        <v>1.784899999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.749</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
@@ -2087,19 +2061,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C48" t="n">
         <v>1.765</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.77</v>
-      </c>
       <c r="D48" t="n">
-        <v>1.77</v>
+        <v>1.765</v>
       </c>
       <c r="E48" t="n">
-        <v>1.765</v>
+        <v>1.75</v>
       </c>
       <c r="F48" t="n">
-        <v>166743.3792666667</v>
+        <v>112262.5732</v>
       </c>
       <c r="G48" t="n">
         <v>1.783833333333332</v>
@@ -2111,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2128,40 +2096,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C49" t="n">
         <v>1.77</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.733</v>
       </c>
       <c r="D49" t="n">
         <v>1.77</v>
       </c>
       <c r="E49" t="n">
-        <v>1.733</v>
+        <v>1.765</v>
       </c>
       <c r="F49" t="n">
-        <v>354719.8794333333</v>
+        <v>166743.3792666667</v>
       </c>
       <c r="G49" t="n">
-        <v>1.783333333333332</v>
+        <v>1.783833333333332</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2171,22 +2131,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.746</v>
+        <v>1.77</v>
       </c>
       <c r="C50" t="n">
-        <v>1.769</v>
+        <v>1.733</v>
       </c>
       <c r="D50" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E50" t="n">
-        <v>1.746</v>
+        <v>1.733</v>
       </c>
       <c r="F50" t="n">
-        <v>474665.2838</v>
+        <v>354719.8794333333</v>
       </c>
       <c r="G50" t="n">
-        <v>1.783349999999999</v>
+        <v>1.783333333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2195,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2212,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.75</v>
+        <v>1.746</v>
       </c>
       <c r="C51" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="D51" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="E51" t="n">
-        <v>1.741</v>
+        <v>1.746</v>
       </c>
       <c r="F51" t="n">
-        <v>1998999.1663</v>
+        <v>474665.2838</v>
       </c>
       <c r="G51" t="n">
-        <v>1.782683333333332</v>
+        <v>1.783349999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2236,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="C52" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="D52" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="E52" t="n">
-        <v>1.766</v>
+        <v>1.741</v>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>1998999.1663</v>
       </c>
       <c r="G52" t="n">
-        <v>1.781999999999999</v>
+        <v>1.782683333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2277,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.75</v>
+        <v>1.766</v>
       </c>
       <c r="C53" t="n">
-        <v>1.75</v>
+        <v>1.766</v>
       </c>
       <c r="D53" t="n">
-        <v>1.75</v>
+        <v>1.766</v>
       </c>
       <c r="E53" t="n">
-        <v>1.75</v>
+        <v>1.766</v>
       </c>
       <c r="F53" t="n">
-        <v>158897.9286</v>
+        <v>300</v>
       </c>
       <c r="G53" t="n">
-        <v>1.780666666666666</v>
+        <v>1.781999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2318,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2338,19 +2274,19 @@
         <v>1.75</v>
       </c>
       <c r="C54" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="D54" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="E54" t="n">
         <v>1.75</v>
       </c>
       <c r="F54" t="n">
-        <v>80316.0885</v>
+        <v>158897.9286</v>
       </c>
       <c r="G54" t="n">
-        <v>1.780266666666666</v>
+        <v>1.780666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2359,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.741</v>
+        <v>1.75</v>
       </c>
       <c r="C55" t="n">
-        <v>1.735</v>
+        <v>1.766</v>
       </c>
       <c r="D55" t="n">
-        <v>1.741</v>
+        <v>1.766</v>
       </c>
       <c r="E55" t="n">
-        <v>1.735</v>
+        <v>1.75</v>
       </c>
       <c r="F55" t="n">
-        <v>848435.1259</v>
+        <v>80316.0885</v>
       </c>
       <c r="G55" t="n">
-        <v>1.777899999999999</v>
+        <v>1.780266666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2417,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C56" t="n">
         <v>1.735</v>
       </c>
-      <c r="C56" t="n">
-        <v>1.765</v>
-      </c>
       <c r="D56" t="n">
-        <v>1.765</v>
+        <v>1.741</v>
       </c>
       <c r="E56" t="n">
         <v>1.735</v>
       </c>
       <c r="F56" t="n">
-        <v>159311.8223</v>
+        <v>848435.1259</v>
       </c>
       <c r="G56" t="n">
-        <v>1.776366666666666</v>
+        <v>1.777899999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2441,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2461,19 +2379,19 @@
         <v>1.735</v>
       </c>
       <c r="C57" t="n">
-        <v>1.733</v>
+        <v>1.765</v>
       </c>
       <c r="D57" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E57" t="n">
         <v>1.735</v>
       </c>
-      <c r="E57" t="n">
-        <v>1.733</v>
-      </c>
       <c r="F57" t="n">
-        <v>257777.3529</v>
+        <v>159311.8223</v>
       </c>
       <c r="G57" t="n">
-        <v>1.775316666666666</v>
+        <v>1.776366666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2482,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2499,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.766</v>
+        <v>1.735</v>
       </c>
       <c r="C58" t="n">
-        <v>1.766</v>
+        <v>1.733</v>
       </c>
       <c r="D58" t="n">
-        <v>1.766</v>
+        <v>1.735</v>
       </c>
       <c r="E58" t="n">
-        <v>1.766</v>
+        <v>1.733</v>
       </c>
       <c r="F58" t="n">
-        <v>301</v>
+        <v>257777.3529</v>
       </c>
       <c r="G58" t="n">
-        <v>1.774833333333333</v>
+        <v>1.775316666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2523,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.74</v>
+        <v>1.766</v>
       </c>
       <c r="C59" t="n">
-        <v>1.733</v>
+        <v>1.766</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74</v>
+        <v>1.766</v>
       </c>
       <c r="E59" t="n">
-        <v>1.733</v>
+        <v>1.766</v>
       </c>
       <c r="F59" t="n">
-        <v>938878.6756215552</v>
+        <v>301</v>
       </c>
       <c r="G59" t="n">
-        <v>1.773883333333333</v>
+        <v>1.774833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2564,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2581,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C60" t="n">
         <v>1.733</v>
       </c>
-      <c r="C60" t="n">
-        <v>1.766</v>
-      </c>
       <c r="D60" t="n">
-        <v>1.766</v>
+        <v>1.74</v>
       </c>
       <c r="E60" t="n">
         <v>1.733</v>
       </c>
       <c r="F60" t="n">
-        <v>17598</v>
+        <v>938878.6756215552</v>
       </c>
       <c r="G60" t="n">
-        <v>1.773483333333332</v>
+        <v>1.773883333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2605,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2622,7 +2516,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.766</v>
+        <v>1.733</v>
       </c>
       <c r="C61" t="n">
         <v>1.766</v>
@@ -2631,13 +2525,13 @@
         <v>1.766</v>
       </c>
       <c r="E61" t="n">
-        <v>1.766</v>
+        <v>1.733</v>
       </c>
       <c r="F61" t="n">
-        <v>1674.5339</v>
+        <v>17598</v>
       </c>
       <c r="G61" t="n">
-        <v>1.773116666666666</v>
+        <v>1.773483333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2646,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2663,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.73</v>
+        <v>1.766</v>
       </c>
       <c r="C62" t="n">
-        <v>1.73</v>
+        <v>1.766</v>
       </c>
       <c r="D62" t="n">
-        <v>1.73</v>
+        <v>1.766</v>
       </c>
       <c r="E62" t="n">
-        <v>1.73</v>
+        <v>1.766</v>
       </c>
       <c r="F62" t="n">
-        <v>678195.5741</v>
+        <v>1674.5339</v>
       </c>
       <c r="G62" t="n">
-        <v>1.772133333333333</v>
+        <v>1.773116666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2687,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2704,22 +2586,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="C63" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="D63" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="E63" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="F63" t="n">
-        <v>1167.8472</v>
+        <v>678195.5741</v>
       </c>
       <c r="G63" t="n">
-        <v>1.770666666666666</v>
+        <v>1.772133333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2728,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2757,10 +2633,10 @@
         <v>1.732</v>
       </c>
       <c r="F64" t="n">
-        <v>41582.1217</v>
+        <v>1167.8472</v>
       </c>
       <c r="G64" t="n">
-        <v>1.769516666666666</v>
+        <v>1.770666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2769,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2798,10 +2668,10 @@
         <v>1.732</v>
       </c>
       <c r="F65" t="n">
-        <v>1674.5339</v>
+        <v>41582.1217</v>
       </c>
       <c r="G65" t="n">
-        <v>1.7679</v>
+        <v>1.769516666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2810,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2827,22 +2691,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.747</v>
+        <v>1.732</v>
       </c>
       <c r="C66" t="n">
-        <v>1.747</v>
+        <v>1.732</v>
       </c>
       <c r="D66" t="n">
-        <v>1.747</v>
+        <v>1.732</v>
       </c>
       <c r="E66" t="n">
         <v>1.732</v>
       </c>
       <c r="F66" t="n">
-        <v>600877.613</v>
+        <v>1674.5339</v>
       </c>
       <c r="G66" t="n">
-        <v>1.766933333333333</v>
+        <v>1.7679</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2851,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2868,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E67" t="n">
         <v>1.732</v>
       </c>
-      <c r="C67" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.731</v>
-      </c>
       <c r="F67" t="n">
-        <v>414839.7519</v>
+        <v>600877.613</v>
       </c>
       <c r="G67" t="n">
-        <v>1.765299999999999</v>
+        <v>1.766933333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2892,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2909,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.731</v>
+        <v>1.732</v>
       </c>
       <c r="C68" t="n">
         <v>1.731</v>
       </c>
       <c r="D68" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E68" t="n">
         <v>1.731</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.729</v>
-      </c>
       <c r="F68" t="n">
-        <v>590402.1836</v>
+        <v>414839.7519</v>
       </c>
       <c r="G68" t="n">
-        <v>1.763983333333333</v>
+        <v>1.765299999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2933,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.714</v>
+        <v>1.731</v>
       </c>
       <c r="C69" t="n">
-        <v>1.714</v>
+        <v>1.731</v>
       </c>
       <c r="D69" t="n">
-        <v>1.714</v>
+        <v>1.731</v>
       </c>
       <c r="E69" t="n">
-        <v>1.714</v>
+        <v>1.729</v>
       </c>
       <c r="F69" t="n">
-        <v>296</v>
+        <v>590402.1836</v>
       </c>
       <c r="G69" t="n">
-        <v>1.762266666666666</v>
+        <v>1.763983333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2974,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2991,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.731</v>
+        <v>1.714</v>
       </c>
       <c r="C70" t="n">
-        <v>1.765</v>
+        <v>1.714</v>
       </c>
       <c r="D70" t="n">
-        <v>1.765</v>
+        <v>1.714</v>
       </c>
       <c r="E70" t="n">
-        <v>1.731</v>
+        <v>1.714</v>
       </c>
       <c r="F70" t="n">
-        <v>59598</v>
+        <v>296</v>
       </c>
       <c r="G70" t="n">
-        <v>1.761516666666666</v>
+        <v>1.762266666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3015,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3032,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="C71" t="n">
-        <v>1.802</v>
+        <v>1.765</v>
       </c>
       <c r="D71" t="n">
-        <v>1.802</v>
+        <v>1.765</v>
       </c>
       <c r="E71" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="F71" t="n">
-        <v>757252.3342589479</v>
+        <v>59598</v>
       </c>
       <c r="G71" t="n">
-        <v>1.761383333333333</v>
+        <v>1.761516666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3056,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3073,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.76</v>
+        <v>1.749</v>
       </c>
       <c r="C72" t="n">
-        <v>1.751</v>
+        <v>1.802</v>
       </c>
       <c r="D72" t="n">
-        <v>1.8</v>
+        <v>1.802</v>
       </c>
       <c r="E72" t="n">
-        <v>1.741</v>
+        <v>1.749</v>
       </c>
       <c r="F72" t="n">
-        <v>121746.57</v>
+        <v>757252.3342589479</v>
       </c>
       <c r="G72" t="n">
-        <v>1.760316666666666</v>
+        <v>1.761383333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3097,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3117,19 +2939,19 @@
         <v>1.76</v>
       </c>
       <c r="C73" t="n">
-        <v>1.742</v>
+        <v>1.751</v>
       </c>
       <c r="D73" t="n">
-        <v>1.798</v>
+        <v>1.8</v>
       </c>
       <c r="E73" t="n">
-        <v>1.742</v>
+        <v>1.741</v>
       </c>
       <c r="F73" t="n">
-        <v>340280</v>
+        <v>121746.57</v>
       </c>
       <c r="G73" t="n">
-        <v>1.7591</v>
+        <v>1.760316666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3138,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3155,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.741</v>
+        <v>1.76</v>
       </c>
       <c r="C74" t="n">
-        <v>1.741</v>
+        <v>1.742</v>
       </c>
       <c r="D74" t="n">
-        <v>1.741</v>
+        <v>1.798</v>
       </c>
       <c r="E74" t="n">
-        <v>1.741</v>
+        <v>1.742</v>
       </c>
       <c r="F74" t="n">
-        <v>33346.0045</v>
+        <v>340280</v>
       </c>
       <c r="G74" t="n">
-        <v>1.75785</v>
+        <v>1.7591</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3179,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3196,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="C75" t="n">
-        <v>1.749</v>
+        <v>1.741</v>
       </c>
       <c r="D75" t="n">
-        <v>1.749</v>
+        <v>1.741</v>
       </c>
       <c r="E75" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="F75" t="n">
-        <v>143537.4463</v>
+        <v>33346.0045</v>
       </c>
       <c r="G75" t="n">
-        <v>1.756183333333333</v>
+        <v>1.75785</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3220,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3240,19 +3044,19 @@
         <v>1.74</v>
       </c>
       <c r="C76" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="D76" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="E76" t="n">
         <v>1.74</v>
       </c>
       <c r="F76" t="n">
-        <v>290</v>
+        <v>143537.4463</v>
       </c>
       <c r="G76" t="n">
-        <v>1.754933333333333</v>
+        <v>1.756183333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3261,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="C77" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="D77" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E77" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="F77" t="n">
-        <v>406609.7779</v>
+        <v>290</v>
       </c>
       <c r="G77" t="n">
-        <v>1.753416666666666</v>
+        <v>1.754933333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3302,14 +3100,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3319,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.724</v>
+        <v>1.73</v>
       </c>
       <c r="C78" t="n">
-        <v>1.724</v>
+        <v>1.72</v>
       </c>
       <c r="D78" t="n">
-        <v>1.724</v>
+        <v>1.73</v>
       </c>
       <c r="E78" t="n">
-        <v>1.724</v>
+        <v>1.72</v>
       </c>
       <c r="F78" t="n">
-        <v>64259.0039</v>
+        <v>406609.7779</v>
       </c>
       <c r="G78" t="n">
-        <v>1.751966666666666</v>
+        <v>1.753416666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3343,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3363,19 +3149,19 @@
         <v>1.724</v>
       </c>
       <c r="C79" t="n">
-        <v>1.74</v>
+        <v>1.724</v>
       </c>
       <c r="D79" t="n">
-        <v>1.74</v>
+        <v>1.724</v>
       </c>
       <c r="E79" t="n">
         <v>1.724</v>
       </c>
       <c r="F79" t="n">
-        <v>5408</v>
+        <v>64259.0039</v>
       </c>
       <c r="G79" t="n">
-        <v>1.750766666666666</v>
+        <v>1.751966666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3384,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3404,19 +3184,19 @@
         <v>1.724</v>
       </c>
       <c r="C80" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="D80" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="E80" t="n">
         <v>1.724</v>
       </c>
       <c r="F80" t="n">
-        <v>758103.3071</v>
+        <v>5408</v>
       </c>
       <c r="G80" t="n">
-        <v>1.750099999999999</v>
+        <v>1.750766666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3425,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74</v>
+        <v>1.724</v>
       </c>
       <c r="C81" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="D81" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="E81" t="n">
-        <v>1.74</v>
+        <v>1.724</v>
       </c>
       <c r="F81" t="n">
-        <v>14027.13689655172</v>
+        <v>758103.3071</v>
       </c>
       <c r="G81" t="n">
-        <v>1.749749999999999</v>
+        <v>1.750099999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3466,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3486,19 +3254,19 @@
         <v>1.74</v>
       </c>
       <c r="C82" t="n">
-        <v>1.787</v>
+        <v>1.74</v>
       </c>
       <c r="D82" t="n">
-        <v>1.787</v>
+        <v>1.74</v>
       </c>
       <c r="E82" t="n">
         <v>1.74</v>
       </c>
       <c r="F82" t="n">
-        <v>11895.7248</v>
+        <v>14027.13689655172</v>
       </c>
       <c r="G82" t="n">
-        <v>1.750183333333333</v>
+        <v>1.749749999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3507,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3524,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.725</v>
+        <v>1.74</v>
       </c>
       <c r="C83" t="n">
-        <v>1.725</v>
+        <v>1.787</v>
       </c>
       <c r="D83" t="n">
-        <v>1.725</v>
+        <v>1.787</v>
       </c>
       <c r="E83" t="n">
-        <v>1.725</v>
+        <v>1.74</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>11895.7248</v>
       </c>
       <c r="G83" t="n">
-        <v>1.748649999999999</v>
+        <v>1.750183333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3548,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3568,35 +3324,29 @@
         <v>1.725</v>
       </c>
       <c r="C84" t="n">
-        <v>1.724</v>
+        <v>1.725</v>
       </c>
       <c r="D84" t="n">
         <v>1.725</v>
       </c>
       <c r="E84" t="n">
-        <v>1.724</v>
+        <v>1.725</v>
       </c>
       <c r="F84" t="n">
-        <v>981409.3463</v>
+        <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>1.747716666666666</v>
+        <v>1.748649999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.74</v>
+        <v>1.725</v>
       </c>
       <c r="C85" t="n">
-        <v>1.74</v>
+        <v>1.724</v>
       </c>
       <c r="D85" t="n">
-        <v>1.74</v>
+        <v>1.725</v>
       </c>
       <c r="E85" t="n">
-        <v>1.74</v>
+        <v>1.724</v>
       </c>
       <c r="F85" t="n">
-        <v>290</v>
+        <v>981409.3463</v>
       </c>
       <c r="G85" t="n">
-        <v>1.746883333333333</v>
+        <v>1.747716666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3630,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3647,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.724</v>
+        <v>1.74</v>
       </c>
       <c r="C86" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="D86" t="n">
-        <v>1.724</v>
+        <v>1.74</v>
       </c>
       <c r="E86" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="F86" t="n">
-        <v>313521.7101</v>
+        <v>290</v>
       </c>
       <c r="G86" t="n">
-        <v>1.745766666666666</v>
+        <v>1.746883333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3671,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="C87" t="n">
         <v>1.723</v>
       </c>
-      <c r="C87" t="n">
-        <v>1.722</v>
-      </c>
       <c r="D87" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="E87" t="n">
         <v>1.723</v>
       </c>
-      <c r="E87" t="n">
-        <v>1.722</v>
-      </c>
       <c r="F87" t="n">
-        <v>608607.5954</v>
+        <v>313521.7101</v>
       </c>
       <c r="G87" t="n">
-        <v>1.744366666666666</v>
+        <v>1.745766666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3712,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3729,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="C88" t="n">
         <v>1.722</v>
       </c>
-      <c r="C88" t="n">
-        <v>1.71</v>
-      </c>
       <c r="D88" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E88" t="n">
         <v>1.722</v>
       </c>
-      <c r="E88" t="n">
-        <v>1.71</v>
-      </c>
       <c r="F88" t="n">
-        <v>413453.7983</v>
+        <v>608607.5954</v>
       </c>
       <c r="G88" t="n">
-        <v>1.743283333333332</v>
+        <v>1.744366666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3753,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3770,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.723</v>
+        <v>1.722</v>
       </c>
       <c r="C89" t="n">
-        <v>1.723</v>
+        <v>1.71</v>
       </c>
       <c r="D89" t="n">
-        <v>1.723</v>
+        <v>1.722</v>
       </c>
       <c r="E89" t="n">
-        <v>1.723</v>
+        <v>1.71</v>
       </c>
       <c r="F89" t="n">
-        <v>291</v>
+        <v>413453.7983</v>
       </c>
       <c r="G89" t="n">
-        <v>1.742633333333332</v>
+        <v>1.743283333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3794,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3823,10 +3543,10 @@
         <v>1.723</v>
       </c>
       <c r="F90" t="n">
-        <v>4990.5338</v>
+        <v>291</v>
       </c>
       <c r="G90" t="n">
-        <v>1.741983333333332</v>
+        <v>1.742633333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3835,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3852,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.738</v>
+        <v>1.723</v>
       </c>
       <c r="C91" t="n">
-        <v>1.738</v>
+        <v>1.723</v>
       </c>
       <c r="D91" t="n">
-        <v>1.738</v>
+        <v>1.723</v>
       </c>
       <c r="E91" t="n">
-        <v>1.738</v>
+        <v>1.723</v>
       </c>
       <c r="F91" t="n">
-        <v>290</v>
+        <v>4990.5338</v>
       </c>
       <c r="G91" t="n">
-        <v>1.741699999999999</v>
+        <v>1.741983333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3876,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3905,10 +3613,10 @@
         <v>1.738</v>
       </c>
       <c r="F92" t="n">
-        <v>82487.24980000001</v>
+        <v>290</v>
       </c>
       <c r="G92" t="n">
-        <v>1.741899999999999</v>
+        <v>1.741699999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3917,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3946,10 +3648,10 @@
         <v>1.738</v>
       </c>
       <c r="F93" t="n">
-        <v>33862.7481</v>
+        <v>82487.24980000001</v>
       </c>
       <c r="G93" t="n">
-        <v>1.742449999999999</v>
+        <v>1.741899999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3958,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3975,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.725</v>
+        <v>1.738</v>
       </c>
       <c r="C94" t="n">
-        <v>1.725</v>
+        <v>1.738</v>
       </c>
       <c r="D94" t="n">
-        <v>1.725</v>
+        <v>1.738</v>
       </c>
       <c r="E94" t="n">
-        <v>1.725</v>
+        <v>1.738</v>
       </c>
       <c r="F94" t="n">
-        <v>512937.9657</v>
+        <v>33862.7481</v>
       </c>
       <c r="G94" t="n">
-        <v>1.742133333333332</v>
+        <v>1.742449999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3999,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.727</v>
+        <v>1.725</v>
       </c>
       <c r="C95" t="n">
-        <v>1.738</v>
+        <v>1.725</v>
       </c>
       <c r="D95" t="n">
-        <v>1.738</v>
+        <v>1.725</v>
       </c>
       <c r="E95" t="n">
-        <v>1.727</v>
+        <v>1.725</v>
       </c>
       <c r="F95" t="n">
-        <v>240480.7022</v>
+        <v>512937.9657</v>
       </c>
       <c r="G95" t="n">
-        <v>1.742283333333332</v>
+        <v>1.742133333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4040,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4057,7 +3741,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.738</v>
+        <v>1.727</v>
       </c>
       <c r="C96" t="n">
         <v>1.738</v>
@@ -4066,13 +3750,13 @@
         <v>1.738</v>
       </c>
       <c r="E96" t="n">
-        <v>1.738</v>
+        <v>1.727</v>
       </c>
       <c r="F96" t="n">
-        <v>10000</v>
+        <v>240480.7022</v>
       </c>
       <c r="G96" t="n">
-        <v>1.742449999999999</v>
+        <v>1.742283333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4081,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.727</v>
+        <v>1.738</v>
       </c>
       <c r="C97" t="n">
-        <v>1.725</v>
+        <v>1.738</v>
       </c>
       <c r="D97" t="n">
-        <v>1.727</v>
+        <v>1.738</v>
       </c>
       <c r="E97" t="n">
-        <v>1.725</v>
+        <v>1.738</v>
       </c>
       <c r="F97" t="n">
-        <v>965739.9836</v>
+        <v>10000</v>
       </c>
       <c r="G97" t="n">
-        <v>1.742233333333332</v>
+        <v>1.742449999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4122,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4139,19 +3811,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="C98" t="n">
         <v>1.725</v>
       </c>
-      <c r="C98" t="n">
-        <v>1.738</v>
-      </c>
       <c r="D98" t="n">
-        <v>1.738</v>
+        <v>1.727</v>
       </c>
       <c r="E98" t="n">
-        <v>1.713</v>
+        <v>1.725</v>
       </c>
       <c r="F98" t="n">
-        <v>997812.189</v>
+        <v>965739.9836</v>
       </c>
       <c r="G98" t="n">
         <v>1.742233333333332</v>
@@ -4163,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4180,22 +3846,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.737</v>
+        <v>1.725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.737</v>
+        <v>1.738</v>
       </c>
       <c r="D99" t="n">
-        <v>1.737</v>
+        <v>1.738</v>
       </c>
       <c r="E99" t="n">
-        <v>1.737</v>
+        <v>1.713</v>
       </c>
       <c r="F99" t="n">
-        <v>290</v>
+        <v>997812.189</v>
       </c>
       <c r="G99" t="n">
-        <v>1.742183333333332</v>
+        <v>1.742233333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4204,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4221,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.736</v>
+        <v>1.737</v>
       </c>
       <c r="C100" t="n">
-        <v>1.736</v>
+        <v>1.737</v>
       </c>
       <c r="D100" t="n">
-        <v>1.736</v>
+        <v>1.737</v>
       </c>
       <c r="E100" t="n">
-        <v>1.736</v>
+        <v>1.737</v>
       </c>
       <c r="F100" t="n">
-        <v>219258.8936</v>
+        <v>290</v>
       </c>
       <c r="G100" t="n">
-        <v>1.742283333333332</v>
+        <v>1.742183333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4245,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4274,10 +3928,10 @@
         <v>1.736</v>
       </c>
       <c r="F101" t="n">
-        <v>219512.0723</v>
+        <v>219258.8936</v>
       </c>
       <c r="G101" t="n">
-        <v>1.742066666666666</v>
+        <v>1.742283333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4286,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4303,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.72</v>
+        <v>1.736</v>
       </c>
       <c r="C102" t="n">
-        <v>1.692</v>
+        <v>1.736</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72</v>
+        <v>1.736</v>
       </c>
       <c r="E102" t="n">
-        <v>1.692</v>
+        <v>1.736</v>
       </c>
       <c r="F102" t="n">
-        <v>1999561.4453</v>
+        <v>219512.0723</v>
       </c>
       <c r="G102" t="n">
-        <v>1.741349999999999</v>
+        <v>1.742066666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4327,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4344,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.729</v>
+        <v>1.72</v>
       </c>
       <c r="C103" t="n">
-        <v>1.729</v>
+        <v>1.692</v>
       </c>
       <c r="D103" t="n">
-        <v>1.729</v>
+        <v>1.72</v>
       </c>
       <c r="E103" t="n">
-        <v>1.729</v>
+        <v>1.692</v>
       </c>
       <c r="F103" t="n">
-        <v>290</v>
+        <v>1999561.4453</v>
       </c>
       <c r="G103" t="n">
-        <v>1.741333333333332</v>
+        <v>1.741349999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4368,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4385,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.7</v>
+        <v>1.729</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7</v>
+        <v>1.729</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7</v>
+        <v>1.729</v>
       </c>
       <c r="E104" t="n">
-        <v>1.7</v>
+        <v>1.729</v>
       </c>
       <c r="F104" t="n">
-        <v>1542.4151</v>
+        <v>290</v>
       </c>
       <c r="G104" t="n">
-        <v>1.740816666666666</v>
+        <v>1.741333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4409,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4426,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="C105" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="D105" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="E105" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="F105" t="n">
-        <v>13942.8929</v>
+        <v>1542.4151</v>
       </c>
       <c r="G105" t="n">
-        <v>1.740483333333332</v>
+        <v>1.740816666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4450,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4467,38 +4091,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.708</v>
+        <v>1.729</v>
       </c>
       <c r="C106" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="D106" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="E106" t="n">
-        <v>1.708</v>
+        <v>1.729</v>
       </c>
       <c r="F106" t="n">
-        <v>48990.2</v>
+        <v>13942.8929</v>
       </c>
       <c r="G106" t="n">
-        <v>1.740166666666666</v>
+        <v>1.740483333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4508,38 +4126,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.725</v>
+        <v>1.708</v>
       </c>
       <c r="C107" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="D107" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="E107" t="n">
-        <v>1.725</v>
+        <v>1.708</v>
       </c>
       <c r="F107" t="n">
-        <v>216105.4196</v>
+        <v>48990.2</v>
       </c>
       <c r="G107" t="n">
-        <v>1.739699999999999</v>
+        <v>1.740166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4549,38 +4161,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.711</v>
+        <v>1.725</v>
       </c>
       <c r="C108" t="n">
-        <v>1.71</v>
+        <v>1.737</v>
       </c>
       <c r="D108" t="n">
-        <v>1.711</v>
+        <v>1.737</v>
       </c>
       <c r="E108" t="n">
-        <v>1.71</v>
+        <v>1.725</v>
       </c>
       <c r="F108" t="n">
-        <v>271335.641</v>
+        <v>216105.4196</v>
       </c>
       <c r="G108" t="n">
-        <v>1.738699999999999</v>
+        <v>1.739699999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4590,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.729</v>
+        <v>1.711</v>
       </c>
       <c r="C109" t="n">
-        <v>1.729</v>
+        <v>1.71</v>
       </c>
       <c r="D109" t="n">
-        <v>1.729</v>
+        <v>1.711</v>
       </c>
       <c r="E109" t="n">
-        <v>1.729</v>
+        <v>1.71</v>
       </c>
       <c r="F109" t="n">
-        <v>220454.3911</v>
+        <v>271335.641</v>
       </c>
       <c r="G109" t="n">
-        <v>1.738633333333332</v>
+        <v>1.738699999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4614,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4634,19 +4234,19 @@
         <v>1.729</v>
       </c>
       <c r="C110" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="D110" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="E110" t="n">
         <v>1.729</v>
       </c>
       <c r="F110" t="n">
-        <v>14300</v>
+        <v>220454.3911</v>
       </c>
       <c r="G110" t="n">
-        <v>1.737983333333332</v>
+        <v>1.738633333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4655,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4672,7 +4266,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="C111" t="n">
         <v>1.73</v>
@@ -4681,13 +4275,13 @@
         <v>1.73</v>
       </c>
       <c r="E111" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="F111" t="n">
-        <v>16835</v>
+        <v>14300</v>
       </c>
       <c r="G111" t="n">
-        <v>1.737649999999999</v>
+        <v>1.737983333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4696,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4713,7 +4301,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.711</v>
+        <v>1.73</v>
       </c>
       <c r="C112" t="n">
         <v>1.73</v>
@@ -4722,13 +4310,13 @@
         <v>1.73</v>
       </c>
       <c r="E112" t="n">
-        <v>1.711</v>
+        <v>1.73</v>
       </c>
       <c r="F112" t="n">
-        <v>37344.1455</v>
+        <v>16835</v>
       </c>
       <c r="G112" t="n">
-        <v>1.737049999999999</v>
+        <v>1.737649999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4737,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4754,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.737</v>
+        <v>1.711</v>
       </c>
       <c r="C113" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="D113" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="E113" t="n">
-        <v>1.737</v>
+        <v>1.711</v>
       </c>
       <c r="F113" t="n">
-        <v>290</v>
+        <v>37344.1455</v>
       </c>
       <c r="G113" t="n">
-        <v>1.736833333333332</v>
+        <v>1.737049999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4778,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4795,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.717</v>
+        <v>1.737</v>
       </c>
       <c r="C114" t="n">
-        <v>1.711</v>
+        <v>1.737</v>
       </c>
       <c r="D114" t="n">
-        <v>1.717</v>
+        <v>1.737</v>
       </c>
       <c r="E114" t="n">
-        <v>1.711</v>
+        <v>1.737</v>
       </c>
       <c r="F114" t="n">
-        <v>267042.997</v>
+        <v>290</v>
       </c>
       <c r="G114" t="n">
-        <v>1.735916666666665</v>
+        <v>1.736833333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4819,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4836,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.737</v>
+        <v>1.717</v>
       </c>
       <c r="C115" t="n">
-        <v>1.737</v>
+        <v>1.711</v>
       </c>
       <c r="D115" t="n">
-        <v>1.737</v>
+        <v>1.717</v>
       </c>
       <c r="E115" t="n">
-        <v>1.737</v>
+        <v>1.711</v>
       </c>
       <c r="F115" t="n">
-        <v>290</v>
+        <v>267042.997</v>
       </c>
       <c r="G115" t="n">
-        <v>1.735949999999999</v>
+        <v>1.735916666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4860,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4889,10 +4453,10 @@
         <v>1.737</v>
       </c>
       <c r="F116" t="n">
-        <v>41223.4981</v>
+        <v>290</v>
       </c>
       <c r="G116" t="n">
-        <v>1.735483333333332</v>
+        <v>1.735949999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4901,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4921,19 +4479,19 @@
         <v>1.737</v>
       </c>
       <c r="C117" t="n">
-        <v>1.738</v>
+        <v>1.737</v>
       </c>
       <c r="D117" t="n">
-        <v>1.738</v>
+        <v>1.737</v>
       </c>
       <c r="E117" t="n">
         <v>1.737</v>
       </c>
       <c r="F117" t="n">
-        <v>14300</v>
+        <v>41223.4981</v>
       </c>
       <c r="G117" t="n">
-        <v>1.735566666666665</v>
+        <v>1.735483333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4942,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4959,7 +4511,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.738</v>
+        <v>1.737</v>
       </c>
       <c r="C118" t="n">
         <v>1.738</v>
@@ -4968,13 +4520,13 @@
         <v>1.738</v>
       </c>
       <c r="E118" t="n">
-        <v>1.738</v>
+        <v>1.737</v>
       </c>
       <c r="F118" t="n">
-        <v>290</v>
+        <v>14300</v>
       </c>
       <c r="G118" t="n">
-        <v>1.735099999999999</v>
+        <v>1.735566666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4983,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5000,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.737</v>
+        <v>1.738</v>
       </c>
       <c r="C119" t="n">
-        <v>1.737</v>
+        <v>1.738</v>
       </c>
       <c r="D119" t="n">
-        <v>1.737</v>
+        <v>1.738</v>
       </c>
       <c r="E119" t="n">
-        <v>1.737</v>
+        <v>1.738</v>
       </c>
       <c r="F119" t="n">
-        <v>8511.4557</v>
+        <v>290</v>
       </c>
       <c r="G119" t="n">
-        <v>1.735166666666665</v>
+        <v>1.735099999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5024,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5053,10 +4593,10 @@
         <v>1.737</v>
       </c>
       <c r="F120" t="n">
-        <v>366934.4775</v>
+        <v>8511.4557</v>
       </c>
       <c r="G120" t="n">
-        <v>1.734683333333332</v>
+        <v>1.735166666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5065,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5082,7 +4616,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.714</v>
+        <v>1.737</v>
       </c>
       <c r="C121" t="n">
         <v>1.737</v>
@@ -5091,13 +4625,13 @@
         <v>1.737</v>
       </c>
       <c r="E121" t="n">
-        <v>1.714</v>
+        <v>1.737</v>
       </c>
       <c r="F121" t="n">
-        <v>187523.5109</v>
+        <v>366934.4775</v>
       </c>
       <c r="G121" t="n">
-        <v>1.734199999999998</v>
+        <v>1.734683333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5106,14 +4640,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5123,7 +4651,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.737</v>
+        <v>1.714</v>
       </c>
       <c r="C122" t="n">
         <v>1.737</v>
@@ -5132,13 +4660,13 @@
         <v>1.737</v>
       </c>
       <c r="E122" t="n">
-        <v>1.737</v>
+        <v>1.714</v>
       </c>
       <c r="F122" t="n">
-        <v>5181.3474</v>
+        <v>187523.5109</v>
       </c>
       <c r="G122" t="n">
-        <v>1.734316666666665</v>
+        <v>1.734199999999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5147,14 +4675,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5176,10 +4698,10 @@
         <v>1.737</v>
       </c>
       <c r="F123" t="n">
-        <v>5757.0524</v>
+        <v>5181.3474</v>
       </c>
       <c r="G123" t="n">
-        <v>1.734399999999998</v>
+        <v>1.734316666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5188,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5205,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.713</v>
+        <v>1.737</v>
       </c>
       <c r="C124" t="n">
-        <v>1.703</v>
+        <v>1.737</v>
       </c>
       <c r="D124" t="n">
-        <v>1.713</v>
+        <v>1.737</v>
       </c>
       <c r="E124" t="n">
-        <v>1.703</v>
+        <v>1.737</v>
       </c>
       <c r="F124" t="n">
-        <v>302630.3165</v>
+        <v>5757.0524</v>
       </c>
       <c r="G124" t="n">
-        <v>1.733916666666665</v>
+        <v>1.734399999999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5229,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5246,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C125" t="n">
         <v>1.703</v>
       </c>
-      <c r="C125" t="n">
-        <v>1.689</v>
-      </c>
       <c r="D125" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E125" t="n">
         <v>1.703</v>
       </c>
-      <c r="E125" t="n">
-        <v>1.689</v>
-      </c>
       <c r="F125" t="n">
-        <v>2270579.6282</v>
+        <v>302630.3165</v>
       </c>
       <c r="G125" t="n">
-        <v>1.733199999999998</v>
+        <v>1.733916666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5270,14 +4780,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5287,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.69</v>
+        <v>1.703</v>
       </c>
       <c r="C126" t="n">
-        <v>1.712</v>
+        <v>1.689</v>
       </c>
       <c r="D126" t="n">
-        <v>1.712</v>
+        <v>1.703</v>
       </c>
       <c r="E126" t="n">
-        <v>1.69</v>
+        <v>1.689</v>
       </c>
       <c r="F126" t="n">
-        <v>439551.6241</v>
+        <v>2270579.6282</v>
       </c>
       <c r="G126" t="n">
-        <v>1.732616666666665</v>
+        <v>1.733199999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5311,14 +4815,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5328,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.703</v>
+        <v>1.69</v>
       </c>
       <c r="C127" t="n">
-        <v>1.703</v>
+        <v>1.712</v>
       </c>
       <c r="D127" t="n">
-        <v>1.703</v>
+        <v>1.712</v>
       </c>
       <c r="E127" t="n">
-        <v>1.703</v>
+        <v>1.69</v>
       </c>
       <c r="F127" t="n">
-        <v>11743.981</v>
+        <v>439551.6241</v>
       </c>
       <c r="G127" t="n">
-        <v>1.732149999999998</v>
+        <v>1.732616666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5352,14 +4850,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5372,19 +4864,19 @@
         <v>1.703</v>
       </c>
       <c r="C128" t="n">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="D128" t="n">
-        <v>1.713</v>
+        <v>1.703</v>
       </c>
       <c r="E128" t="n">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="F128" t="n">
-        <v>132449.545</v>
+        <v>11743.981</v>
       </c>
       <c r="G128" t="n">
-        <v>1.731633333333332</v>
+        <v>1.732149999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5393,14 +4885,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5410,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.698</v>
+        <v>1.703</v>
       </c>
       <c r="C129" t="n">
-        <v>1.692</v>
+        <v>1.7</v>
       </c>
       <c r="D129" t="n">
-        <v>1.698</v>
+        <v>1.713</v>
       </c>
       <c r="E129" t="n">
-        <v>1.692</v>
+        <v>1.7</v>
       </c>
       <c r="F129" t="n">
-        <v>58219.0577</v>
+        <v>132449.545</v>
       </c>
       <c r="G129" t="n">
-        <v>1.731266666666665</v>
+        <v>1.731633333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5434,14 +4920,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5451,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.712</v>
+        <v>1.698</v>
       </c>
       <c r="C130" t="n">
-        <v>1.712</v>
+        <v>1.692</v>
       </c>
       <c r="D130" t="n">
-        <v>1.712</v>
+        <v>1.698</v>
       </c>
       <c r="E130" t="n">
-        <v>1.712</v>
+        <v>1.692</v>
       </c>
       <c r="F130" t="n">
-        <v>292.0561</v>
+        <v>58219.0577</v>
       </c>
       <c r="G130" t="n">
-        <v>1.730383333333332</v>
+        <v>1.731266666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5475,14 +4955,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5504,26 +4978,20 @@
         <v>1.712</v>
       </c>
       <c r="F131" t="n">
-        <v>584.1122</v>
+        <v>292.0561</v>
       </c>
       <c r="G131" t="n">
-        <v>1.728883333333332</v>
+        <v>1.730383333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5542,29 +5010,23 @@
         <v>1.712</v>
       </c>
       <c r="E132" t="n">
-        <v>1.711</v>
+        <v>1.712</v>
       </c>
       <c r="F132" t="n">
-        <v>1168.2244</v>
+        <v>584.1122</v>
       </c>
       <c r="G132" t="n">
-        <v>1.728233333333332</v>
+        <v>1.728883333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5574,38 +5036,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.697</v>
+        <v>1.712</v>
       </c>
       <c r="C133" t="n">
-        <v>1.696</v>
+        <v>1.712</v>
       </c>
       <c r="D133" t="n">
-        <v>1.697</v>
+        <v>1.712</v>
       </c>
       <c r="E133" t="n">
-        <v>1.696</v>
+        <v>1.711</v>
       </c>
       <c r="F133" t="n">
-        <v>1161237.3902</v>
+        <v>1168.2244</v>
       </c>
       <c r="G133" t="n">
-        <v>1.727466666666665</v>
+        <v>1.728233333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5615,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.696</v>
+        <v>1.697</v>
       </c>
       <c r="C134" t="n">
         <v>1.696</v>
       </c>
       <c r="D134" t="n">
-        <v>1.696</v>
+        <v>1.697</v>
       </c>
       <c r="E134" t="n">
         <v>1.696</v>
       </c>
       <c r="F134" t="n">
-        <v>135783.3365</v>
+        <v>1161237.3902</v>
       </c>
       <c r="G134" t="n">
-        <v>1.726716666666665</v>
+        <v>1.727466666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5639,14 +5095,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5656,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.692</v>
+        <v>1.696</v>
       </c>
       <c r="C135" t="n">
-        <v>1.692</v>
+        <v>1.696</v>
       </c>
       <c r="D135" t="n">
-        <v>1.692</v>
+        <v>1.696</v>
       </c>
       <c r="E135" t="n">
-        <v>1.692</v>
+        <v>1.696</v>
       </c>
       <c r="F135" t="n">
-        <v>4023.4278</v>
+        <v>135783.3365</v>
       </c>
       <c r="G135" t="n">
-        <v>1.725766666666665</v>
+        <v>1.726716666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5680,14 +5130,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5697,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.711</v>
+        <v>1.692</v>
       </c>
       <c r="C136" t="n">
-        <v>1.711</v>
+        <v>1.692</v>
       </c>
       <c r="D136" t="n">
-        <v>1.712</v>
+        <v>1.692</v>
       </c>
       <c r="E136" t="n">
-        <v>1.711</v>
+        <v>1.692</v>
       </c>
       <c r="F136" t="n">
-        <v>2922.1316</v>
+        <v>4023.4278</v>
       </c>
       <c r="G136" t="n">
-        <v>1.725283333333331</v>
+        <v>1.725766666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5721,14 +5165,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5741,7 +5179,7 @@
         <v>1.711</v>
       </c>
       <c r="C137" t="n">
-        <v>1.712</v>
+        <v>1.711</v>
       </c>
       <c r="D137" t="n">
         <v>1.712</v>
@@ -5750,10 +5188,10 @@
         <v>1.711</v>
       </c>
       <c r="F137" t="n">
-        <v>151104.5448</v>
+        <v>2922.1316</v>
       </c>
       <c r="G137" t="n">
-        <v>1.725149999999998</v>
+        <v>1.725283333333331</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5762,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5779,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.713</v>
+        <v>1.711</v>
       </c>
       <c r="C138" t="n">
-        <v>1.713</v>
+        <v>1.712</v>
       </c>
       <c r="D138" t="n">
-        <v>1.713</v>
+        <v>1.712</v>
       </c>
       <c r="E138" t="n">
-        <v>1.712</v>
+        <v>1.711</v>
       </c>
       <c r="F138" t="n">
-        <v>1168.2248</v>
+        <v>151104.5448</v>
       </c>
       <c r="G138" t="n">
-        <v>1.724966666666665</v>
+        <v>1.725149999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5803,14 +5235,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5820,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
       <c r="C139" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
       <c r="D139" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
       <c r="E139" t="n">
         <v>1.712</v>
       </c>
       <c r="F139" t="n">
-        <v>584.1122</v>
+        <v>1168.2248</v>
       </c>
       <c r="G139" t="n">
-        <v>1.724499999999998</v>
+        <v>1.724966666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5844,14 +5270,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5867,16 +5287,16 @@
         <v>1.712</v>
       </c>
       <c r="D140" t="n">
-        <v>1.713</v>
+        <v>1.712</v>
       </c>
       <c r="E140" t="n">
         <v>1.712</v>
       </c>
       <c r="F140" t="n">
-        <v>2628.3344</v>
+        <v>584.1122</v>
       </c>
       <c r="G140" t="n">
-        <v>1.723533333333332</v>
+        <v>1.724499999999998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5885,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5902,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.713</v>
+        <v>1.712</v>
       </c>
       <c r="C141" t="n">
-        <v>1.713</v>
+        <v>1.712</v>
       </c>
       <c r="D141" t="n">
         <v>1.713</v>
       </c>
       <c r="E141" t="n">
-        <v>1.713</v>
+        <v>1.712</v>
       </c>
       <c r="F141" t="n">
-        <v>291.8856</v>
+        <v>2628.3344</v>
       </c>
       <c r="G141" t="n">
-        <v>1.723083333333332</v>
+        <v>1.723533333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5926,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5943,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
       <c r="C142" t="n">
-        <v>1.723</v>
+        <v>1.713</v>
       </c>
       <c r="D142" t="n">
-        <v>1.723</v>
+        <v>1.713</v>
       </c>
       <c r="E142" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
       <c r="F142" t="n">
-        <v>14139.1122</v>
+        <v>291.8856</v>
       </c>
       <c r="G142" t="n">
-        <v>1.722016666666665</v>
+        <v>1.723083333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5967,14 +5375,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5984,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.722</v>
+        <v>1.712</v>
       </c>
       <c r="C143" t="n">
-        <v>1.722</v>
+        <v>1.723</v>
       </c>
       <c r="D143" t="n">
-        <v>1.722</v>
+        <v>1.723</v>
       </c>
       <c r="E143" t="n">
-        <v>1.722</v>
+        <v>1.712</v>
       </c>
       <c r="F143" t="n">
-        <v>580.7201</v>
+        <v>14139.1122</v>
       </c>
       <c r="G143" t="n">
-        <v>1.721966666666665</v>
+        <v>1.722016666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6008,14 +5410,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6028,19 +5424,19 @@
         <v>1.722</v>
       </c>
       <c r="C144" t="n">
-        <v>1.723</v>
+        <v>1.722</v>
       </c>
       <c r="D144" t="n">
-        <v>1.723</v>
+        <v>1.722</v>
       </c>
       <c r="E144" t="n">
         <v>1.722</v>
       </c>
       <c r="F144" t="n">
-        <v>1451.6318</v>
+        <v>580.7201</v>
       </c>
       <c r="G144" t="n">
-        <v>1.721949999999998</v>
+        <v>1.721966666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6049,14 +5445,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6066,22 +5456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="C145" t="n">
         <v>1.723</v>
       </c>
-      <c r="C145" t="n">
-        <v>1.729</v>
-      </c>
       <c r="D145" t="n">
-        <v>1.729</v>
+        <v>1.723</v>
       </c>
       <c r="E145" t="n">
-        <v>1.723</v>
+        <v>1.722</v>
       </c>
       <c r="F145" t="n">
-        <v>22504</v>
+        <v>1451.6318</v>
       </c>
       <c r="G145" t="n">
-        <v>1.721766666666665</v>
+        <v>1.721949999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6090,14 +5480,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6107,7 +5491,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.728</v>
+        <v>1.723</v>
       </c>
       <c r="C146" t="n">
         <v>1.729</v>
@@ -6116,13 +5500,13 @@
         <v>1.729</v>
       </c>
       <c r="E146" t="n">
-        <v>1.728</v>
+        <v>1.723</v>
       </c>
       <c r="F146" t="n">
-        <v>39118</v>
+        <v>22504</v>
       </c>
       <c r="G146" t="n">
-        <v>1.721866666666665</v>
+        <v>1.721766666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6131,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6148,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C147" t="n">
         <v>1.729</v>
       </c>
-      <c r="C147" t="n">
-        <v>1.731</v>
-      </c>
       <c r="D147" t="n">
-        <v>1.731</v>
+        <v>1.729</v>
       </c>
       <c r="E147" t="n">
-        <v>1.729</v>
+        <v>1.728</v>
       </c>
       <c r="F147" t="n">
-        <v>81119</v>
+        <v>39118</v>
       </c>
       <c r="G147" t="n">
-        <v>1.722016666666665</v>
+        <v>1.721866666666665</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6172,14 +5550,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6189,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="C148" t="n">
-        <v>1.735</v>
+        <v>1.731</v>
       </c>
       <c r="D148" t="n">
-        <v>1.735</v>
+        <v>1.731</v>
       </c>
       <c r="E148" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="F148" t="n">
-        <v>60290</v>
+        <v>81119</v>
       </c>
       <c r="G148" t="n">
-        <v>1.722433333333331</v>
+        <v>1.722016666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6213,14 +5585,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +5596,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.735</v>
+        <v>1.73</v>
       </c>
       <c r="C149" t="n">
         <v>1.735</v>
@@ -6239,13 +5605,13 @@
         <v>1.735</v>
       </c>
       <c r="E149" t="n">
-        <v>1.735</v>
+        <v>1.73</v>
       </c>
       <c r="F149" t="n">
-        <v>4790.2448</v>
+        <v>60290</v>
       </c>
       <c r="G149" t="n">
-        <v>1.722633333333331</v>
+        <v>1.722433333333331</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6254,14 +5620,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6277,16 +5637,16 @@
         <v>1.735</v>
       </c>
       <c r="D150" t="n">
-        <v>1.736</v>
+        <v>1.735</v>
       </c>
       <c r="E150" t="n">
         <v>1.735</v>
       </c>
       <c r="F150" t="n">
-        <v>20576.3689</v>
+        <v>4790.2448</v>
       </c>
       <c r="G150" t="n">
-        <v>1.722833333333331</v>
+        <v>1.722633333333331</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6295,14 +5655,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6315,7 +5669,7 @@
         <v>1.735</v>
       </c>
       <c r="C151" t="n">
-        <v>1.736</v>
+        <v>1.735</v>
       </c>
       <c r="D151" t="n">
         <v>1.736</v>
@@ -6324,10 +5678,10 @@
         <v>1.735</v>
       </c>
       <c r="F151" t="n">
-        <v>42278.1924</v>
+        <v>20576.3689</v>
       </c>
       <c r="G151" t="n">
-        <v>1.722799999999998</v>
+        <v>1.722833333333331</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6336,14 +5690,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6353,7 +5701,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.736</v>
+        <v>1.735</v>
       </c>
       <c r="C152" t="n">
         <v>1.736</v>
@@ -6362,13 +5710,13 @@
         <v>1.736</v>
       </c>
       <c r="E152" t="n">
-        <v>1.736</v>
+        <v>1.735</v>
       </c>
       <c r="F152" t="n">
-        <v>76261.8912</v>
+        <v>42278.1924</v>
       </c>
       <c r="G152" t="n">
-        <v>1.722766666666665</v>
+        <v>1.722799999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6377,14 +5725,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6394,19 +5736,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.737</v>
+        <v>1.736</v>
       </c>
       <c r="C153" t="n">
-        <v>1.738</v>
+        <v>1.736</v>
       </c>
       <c r="D153" t="n">
-        <v>1.738</v>
+        <v>1.736</v>
       </c>
       <c r="E153" t="n">
-        <v>1.737</v>
+        <v>1.736</v>
       </c>
       <c r="F153" t="n">
-        <v>865.7053</v>
+        <v>76261.8912</v>
       </c>
       <c r="G153" t="n">
         <v>1.722766666666665</v>
@@ -6415,17 +5757,11 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6435,38 +5771,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.736</v>
+        <v>1.737</v>
       </c>
       <c r="C154" t="n">
-        <v>1.736</v>
+        <v>1.738</v>
       </c>
       <c r="D154" t="n">
-        <v>1.736</v>
+        <v>1.738</v>
       </c>
       <c r="E154" t="n">
-        <v>1.736</v>
+        <v>1.737</v>
       </c>
       <c r="F154" t="n">
-        <v>127762.646</v>
+        <v>865.7053</v>
       </c>
       <c r="G154" t="n">
-        <v>1.722949999999998</v>
+        <v>1.722766666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6476,38 +5806,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.737</v>
+        <v>1.736</v>
       </c>
       <c r="C155" t="n">
-        <v>1.753</v>
+        <v>1.736</v>
       </c>
       <c r="D155" t="n">
-        <v>1.753</v>
+        <v>1.736</v>
       </c>
       <c r="E155" t="n">
-        <v>1.737</v>
+        <v>1.736</v>
       </c>
       <c r="F155" t="n">
-        <v>244042.5863</v>
+        <v>127762.646</v>
       </c>
       <c r="G155" t="n">
-        <v>1.723199999999999</v>
+        <v>1.722949999999998</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6517,38 +5841,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.746</v>
+        <v>1.737</v>
       </c>
       <c r="C156" t="n">
-        <v>1.746</v>
+        <v>1.753</v>
       </c>
       <c r="D156" t="n">
-        <v>1.746</v>
+        <v>1.753</v>
       </c>
       <c r="E156" t="n">
-        <v>1.746</v>
+        <v>1.737</v>
       </c>
       <c r="F156" t="n">
-        <v>155312.2095</v>
+        <v>244042.5863</v>
       </c>
       <c r="G156" t="n">
-        <v>1.723333333333332</v>
+        <v>1.723199999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6558,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.753</v>
+        <v>1.746</v>
       </c>
       <c r="C157" t="n">
-        <v>1.753</v>
+        <v>1.746</v>
       </c>
       <c r="D157" t="n">
-        <v>1.753</v>
+        <v>1.746</v>
       </c>
       <c r="E157" t="n">
-        <v>1.753</v>
+        <v>1.746</v>
       </c>
       <c r="F157" t="n">
-        <v>1140.9014</v>
+        <v>155312.2095</v>
       </c>
       <c r="G157" t="n">
-        <v>1.723799999999998</v>
+        <v>1.723333333333332</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6582,14 +5900,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6599,38 +5911,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.754</v>
+        <v>1.753</v>
       </c>
       <c r="C158" t="n">
-        <v>1.771</v>
+        <v>1.753</v>
       </c>
       <c r="D158" t="n">
-        <v>1.773</v>
+        <v>1.753</v>
       </c>
       <c r="E158" t="n">
         <v>1.753</v>
       </c>
       <c r="F158" t="n">
-        <v>244995.3142</v>
+        <v>1140.9014</v>
       </c>
       <c r="G158" t="n">
-        <v>1.724349999999998</v>
+        <v>1.723799999999998</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6640,38 +5946,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="C159" t="n">
-        <v>1.752</v>
+        <v>1.771</v>
       </c>
       <c r="D159" t="n">
-        <v>1.752</v>
+        <v>1.773</v>
       </c>
       <c r="E159" t="n">
-        <v>1.752</v>
+        <v>1.753</v>
       </c>
       <c r="F159" t="n">
-        <v>232968.314</v>
+        <v>244995.3142</v>
       </c>
       <c r="G159" t="n">
-        <v>1.724599999999999</v>
+        <v>1.724349999999998</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6684,35 +5984,29 @@
         <v>1.752</v>
       </c>
       <c r="C160" t="n">
-        <v>1.72</v>
+        <v>1.752</v>
       </c>
       <c r="D160" t="n">
         <v>1.752</v>
       </c>
       <c r="E160" t="n">
-        <v>1.72</v>
+        <v>1.752</v>
       </c>
       <c r="F160" t="n">
-        <v>1351544.7646</v>
+        <v>232968.314</v>
       </c>
       <c r="G160" t="n">
-        <v>1.724333333333332</v>
+        <v>1.724599999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6722,38 +6016,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C161" t="n">
         <v>1.72</v>
       </c>
-      <c r="C161" t="n">
-        <v>1.77</v>
-      </c>
       <c r="D161" t="n">
-        <v>1.77</v>
+        <v>1.752</v>
       </c>
       <c r="E161" t="n">
         <v>1.72</v>
       </c>
       <c r="F161" t="n">
-        <v>269247</v>
+        <v>1351544.7646</v>
       </c>
       <c r="G161" t="n">
-        <v>1.724899999999998</v>
+        <v>1.724333333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6763,38 +6051,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="C162" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="D162" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="E162" t="n">
-        <v>1.721</v>
+        <v>1.72</v>
       </c>
       <c r="F162" t="n">
-        <v>297296.44</v>
+        <v>269247</v>
       </c>
       <c r="G162" t="n">
-        <v>1.725533333333332</v>
+        <v>1.724899999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6804,38 +6086,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.767</v>
+        <v>1.75</v>
       </c>
       <c r="C163" t="n">
-        <v>1.707</v>
+        <v>1.73</v>
       </c>
       <c r="D163" t="n">
-        <v>1.767</v>
+        <v>1.75</v>
       </c>
       <c r="E163" t="n">
-        <v>1.706</v>
+        <v>1.721</v>
       </c>
       <c r="F163" t="n">
-        <v>970990.9748</v>
+        <v>297296.44</v>
       </c>
       <c r="G163" t="n">
-        <v>1.725166666666665</v>
+        <v>1.725533333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6845,38 +6121,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C164" t="n">
         <v>1.707</v>
       </c>
-      <c r="C164" t="n">
-        <v>1.72</v>
-      </c>
       <c r="D164" t="n">
-        <v>1.72</v>
+        <v>1.767</v>
       </c>
       <c r="E164" t="n">
-        <v>1.707</v>
+        <v>1.706</v>
       </c>
       <c r="F164" t="n">
-        <v>60115.66</v>
+        <v>970990.9748</v>
       </c>
       <c r="G164" t="n">
-        <v>1.725499999999998</v>
+        <v>1.725166666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6886,38 +6156,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.75</v>
+        <v>1.707</v>
       </c>
       <c r="C165" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="D165" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="E165" t="n">
-        <v>1.75</v>
+        <v>1.707</v>
       </c>
       <c r="F165" t="n">
-        <v>285</v>
+        <v>60115.66</v>
       </c>
       <c r="G165" t="n">
-        <v>1.725849999999998</v>
+        <v>1.725499999999998</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6927,40 +6191,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="C166" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="D166" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="E166" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="F166" t="n">
-        <v>927094.5363</v>
+        <v>285</v>
       </c>
       <c r="G166" t="n">
-        <v>1.725983333333332</v>
+        <v>1.725849999999998</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>0.9887106918238993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -6968,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="C167" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="D167" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="E167" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="F167" t="n">
-        <v>310493.7382</v>
+        <v>927094.5363</v>
       </c>
       <c r="G167" t="n">
-        <v>1.725866666666665</v>
+        <v>1.725983333333332</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7006,19 +6264,19 @@
         <v>1.73</v>
       </c>
       <c r="C168" t="n">
-        <v>1.736</v>
+        <v>1.73</v>
       </c>
       <c r="D168" t="n">
-        <v>1.736</v>
+        <v>1.73</v>
       </c>
       <c r="E168" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F168" t="n">
-        <v>1226.5541</v>
+        <v>310493.7382</v>
       </c>
       <c r="G168" t="n">
-        <v>1.726299999999999</v>
+        <v>1.725866666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7038,28 +6296,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="C169" t="n">
-        <v>1.712</v>
+        <v>1.736</v>
       </c>
       <c r="D169" t="n">
-        <v>1.72</v>
+        <v>1.736</v>
       </c>
       <c r="E169" t="n">
-        <v>1.712</v>
+        <v>1.73</v>
       </c>
       <c r="F169" t="n">
-        <v>553891.6364</v>
+        <v>1226.5541</v>
       </c>
       <c r="G169" t="n">
-        <v>1.726016666666665</v>
+        <v>1.726299999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -7073,28 +6331,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.729</v>
+        <v>1.72</v>
       </c>
       <c r="C170" t="n">
-        <v>1.729</v>
+        <v>1.712</v>
       </c>
       <c r="D170" t="n">
-        <v>1.729</v>
+        <v>1.72</v>
       </c>
       <c r="E170" t="n">
-        <v>1.729</v>
+        <v>1.712</v>
       </c>
       <c r="F170" t="n">
-        <v>578.369</v>
+        <v>553891.6364</v>
       </c>
       <c r="G170" t="n">
-        <v>1.725999999999999</v>
+        <v>1.726016666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -7108,19 +6366,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="C171" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="D171" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="E171" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="F171" t="n">
-        <v>65796.1195</v>
+        <v>578.369</v>
       </c>
       <c r="G171" t="n">
         <v>1.725999999999999</v>
@@ -7155,7 +6413,7 @@
         <v>1.73</v>
       </c>
       <c r="F172" t="n">
-        <v>94817.7071</v>
+        <v>65796.1195</v>
       </c>
       <c r="G172" t="n">
         <v>1.725999999999999</v>
@@ -7164,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -7190,10 +6448,10 @@
         <v>1.73</v>
       </c>
       <c r="F173" t="n">
-        <v>18723.5499</v>
+        <v>94817.7071</v>
       </c>
       <c r="G173" t="n">
-        <v>1.725883333333332</v>
+        <v>1.725999999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7213,7 +6471,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="C174" t="n">
         <v>1.73</v>
@@ -7222,13 +6480,13 @@
         <v>1.73</v>
       </c>
       <c r="E174" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="F174" t="n">
-        <v>160648</v>
+        <v>18723.5499</v>
       </c>
       <c r="G174" t="n">
-        <v>1.726199999999999</v>
+        <v>1.725883333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7248,22 +6506,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.715</v>
+        <v>1.729</v>
       </c>
       <c r="C175" t="n">
-        <v>1.715</v>
+        <v>1.73</v>
       </c>
       <c r="D175" t="n">
-        <v>1.715</v>
+        <v>1.73</v>
       </c>
       <c r="E175" t="n">
-        <v>1.715</v>
+        <v>1.729</v>
       </c>
       <c r="F175" t="n">
-        <v>105246.8623</v>
+        <v>160648</v>
       </c>
       <c r="G175" t="n">
-        <v>1.725833333333332</v>
+        <v>1.726199999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7286,19 +6544,19 @@
         <v>1.715</v>
       </c>
       <c r="C176" t="n">
-        <v>1.73</v>
+        <v>1.715</v>
       </c>
       <c r="D176" t="n">
-        <v>1.73</v>
+        <v>1.715</v>
       </c>
       <c r="E176" t="n">
-        <v>1.713</v>
+        <v>1.715</v>
       </c>
       <c r="F176" t="n">
-        <v>686438.1424</v>
+        <v>105246.8623</v>
       </c>
       <c r="G176" t="n">
-        <v>1.725716666666666</v>
+        <v>1.725833333333332</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7318,7 +6576,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.73</v>
+        <v>1.715</v>
       </c>
       <c r="C177" t="n">
         <v>1.73</v>
@@ -7327,13 +6585,13 @@
         <v>1.73</v>
       </c>
       <c r="E177" t="n">
-        <v>1.73</v>
+        <v>1.713</v>
       </c>
       <c r="F177" t="n">
-        <v>1161</v>
+        <v>686438.1424</v>
       </c>
       <c r="G177" t="n">
-        <v>1.725583333333333</v>
+        <v>1.725716666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7353,7 +6611,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="C178" t="n">
         <v>1.73</v>
@@ -7362,13 +6620,13 @@
         <v>1.73</v>
       </c>
       <c r="E178" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="F178" t="n">
-        <v>30000</v>
+        <v>1161</v>
       </c>
       <c r="G178" t="n">
-        <v>1.725449999999999</v>
+        <v>1.725583333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7388,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C179" t="n">
         <v>1.73</v>
       </c>
-      <c r="C179" t="n">
-        <v>1.736</v>
-      </c>
       <c r="D179" t="n">
-        <v>1.736</v>
+        <v>1.73</v>
       </c>
       <c r="E179" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="F179" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="G179" t="n">
-        <v>1.725433333333333</v>
+        <v>1.725449999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7423,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="C180" t="n">
-        <v>1.72</v>
+        <v>1.736</v>
       </c>
       <c r="D180" t="n">
-        <v>1.72</v>
+        <v>1.736</v>
       </c>
       <c r="E180" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F180" t="n">
-        <v>45212.4255</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="n">
-        <v>1.72515</v>
+        <v>1.725433333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7458,22 +6716,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.729</v>
+        <v>1.72</v>
       </c>
       <c r="C181" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="D181" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="E181" t="n">
-        <v>1.729</v>
+        <v>1.72</v>
       </c>
       <c r="F181" t="n">
-        <v>20000</v>
+        <v>45212.4255</v>
       </c>
       <c r="G181" t="n">
-        <v>1.725033333333333</v>
+        <v>1.72515</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7493,22 +6751,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.712</v>
+        <v>1.729</v>
       </c>
       <c r="C182" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="D182" t="n">
-        <v>1.712</v>
+        <v>1.73</v>
       </c>
       <c r="E182" t="n">
-        <v>1.71</v>
+        <v>1.729</v>
       </c>
       <c r="F182" t="n">
-        <v>1413451.7739</v>
+        <v>20000</v>
       </c>
       <c r="G182" t="n">
-        <v>1.724583333333333</v>
+        <v>1.725033333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7528,22 +6786,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.701</v>
+        <v>1.712</v>
       </c>
       <c r="C183" t="n">
-        <v>1.695</v>
+        <v>1.71</v>
       </c>
       <c r="D183" t="n">
-        <v>1.701</v>
+        <v>1.712</v>
       </c>
       <c r="E183" t="n">
-        <v>1.695</v>
+        <v>1.71</v>
       </c>
       <c r="F183" t="n">
-        <v>122657.9594</v>
+        <v>1413451.7739</v>
       </c>
       <c r="G183" t="n">
-        <v>1.723883333333333</v>
+        <v>1.724583333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7563,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.709</v>
+        <v>1.701</v>
       </c>
       <c r="C184" t="n">
-        <v>1.71</v>
+        <v>1.695</v>
       </c>
       <c r="D184" t="n">
-        <v>1.71</v>
+        <v>1.701</v>
       </c>
       <c r="E184" t="n">
-        <v>1.709</v>
+        <v>1.695</v>
       </c>
       <c r="F184" t="n">
-        <v>892443.0502000001</v>
+        <v>122657.9594</v>
       </c>
       <c r="G184" t="n">
-        <v>1.724</v>
+        <v>1.723883333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7598,7 +6856,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C185" t="n">
         <v>1.71</v>
@@ -7607,13 +6865,13 @@
         <v>1.71</v>
       </c>
       <c r="E185" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F185" t="n">
-        <v>2225.8855</v>
+        <v>892443.0502000001</v>
       </c>
       <c r="G185" t="n">
-        <v>1.724349999999999</v>
+        <v>1.724</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7628,6 +6886,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2225.8855</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.724349999999999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>49617.53</v>
       </c>
       <c r="G2" t="n">
+        <v>1.802666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.826783333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>40000</v>
       </c>
       <c r="G3" t="n">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.8288</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +529,21 @@
         <v>227465.227</v>
       </c>
       <c r="G4" t="n">
+        <v>1.803333333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.831333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,24 +567,21 @@
         <v>10217.5</v>
       </c>
       <c r="G5" t="n">
+        <v>1.805866666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.833349999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,18 +605,21 @@
         <v>56859.71</v>
       </c>
       <c r="G6" t="n">
+        <v>1.809933333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.835999999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -641,18 +643,21 @@
         <v>106276.04</v>
       </c>
       <c r="G7" t="n">
+        <v>1.810933333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.838083333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -676,18 +681,21 @@
         <v>1703359.5322</v>
       </c>
       <c r="G8" t="n">
+        <v>1.812400000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.840233333333332</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,18 +719,21 @@
         <v>286713.9087</v>
       </c>
       <c r="G9" t="n">
+        <v>1.811066666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.841733333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,18 +757,21 @@
         <v>2415.33</v>
       </c>
       <c r="G10" t="n">
+        <v>1.812866666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.842199999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,18 +795,21 @@
         <v>1150000</v>
       </c>
       <c r="G11" t="n">
+        <v>1.808400000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.842033333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,18 +833,21 @@
         <v>19970.04</v>
       </c>
       <c r="G12" t="n">
+        <v>1.805266666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.841399999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,18 +871,21 @@
         <v>32139.0762</v>
       </c>
       <c r="G13" t="n">
+        <v>1.806533333333335</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.840166666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,18 +909,21 @@
         <v>166379.4</v>
       </c>
       <c r="G14" t="n">
+        <v>1.807866666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.837616666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,18 +947,21 @@
         <v>86641.6976</v>
       </c>
       <c r="G15" t="n">
+        <v>1.809600000000002</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.838733333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +985,21 @@
         <v>129494.8674</v>
       </c>
       <c r="G16" t="n">
+        <v>1.813533333333335</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.838649999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1023,21 @@
         <v>40000</v>
       </c>
       <c r="G17" t="n">
+        <v>1.815333333333335</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.837749999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1061,21 @@
         <v>157841.9096</v>
       </c>
       <c r="G18" t="n">
+        <v>1.816800000000002</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.8366</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1099,21 @@
         <v>2973145.4419</v>
       </c>
       <c r="G19" t="n">
+        <v>1.816200000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.83365</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1137,21 @@
         <v>9985.02</v>
       </c>
       <c r="G20" t="n">
+        <v>1.816933333333335</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.831983333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1175,21 @@
         <v>699354.3776</v>
       </c>
       <c r="G21" t="n">
+        <v>1.815666666666668</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.829016666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1213,21 @@
         <v>469616.4554</v>
       </c>
       <c r="G22" t="n">
+        <v>1.812733333333335</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.825416666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1251,21 @@
         <v>1415800.6998</v>
       </c>
       <c r="G23" t="n">
+        <v>1.808200000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.821816666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1289,21 @@
         <v>470.4199</v>
       </c>
       <c r="G24" t="n">
+        <v>1.808666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.820733333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1327,21 @@
         <v>447067.1531</v>
       </c>
       <c r="G25" t="n">
+        <v>1.806200000000002</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.819233333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1365,21 @@
         <v>491229.4492</v>
       </c>
       <c r="G26" t="n">
+        <v>1.804866666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.818233333333332</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1403,21 @@
         <v>1202243.525</v>
       </c>
       <c r="G27" t="n">
+        <v>1.803533333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.817266666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1441,21 @@
         <v>130545.7452</v>
       </c>
       <c r="G28" t="n">
+        <v>1.802933333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.817049999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1479,21 @@
         <v>77103.0741</v>
       </c>
       <c r="G29" t="n">
+        <v>1.800266666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.815499999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1517,21 @@
         <v>2078540.2281</v>
       </c>
       <c r="G30" t="n">
+        <v>1.796666666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.814533333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1555,21 @@
         <v>774111.0759000001</v>
       </c>
       <c r="G31" t="n">
+        <v>1.790866666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.813233333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1593,21 @@
         <v>1129619.088</v>
       </c>
       <c r="G32" t="n">
+        <v>1.786866666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.811566666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1631,21 @@
         <v>1135680.53</v>
       </c>
       <c r="G33" t="n">
+        <v>1.781200000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.809666666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1669,21 @@
         <v>596255.6233</v>
       </c>
       <c r="G34" t="n">
+        <v>1.774133333333335</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.807566666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1707,21 @@
         <v>945040.578</v>
       </c>
       <c r="G35" t="n">
+        <v>1.769600000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.805966666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1745,21 @@
         <v>60000</v>
       </c>
       <c r="G36" t="n">
+        <v>1.764200000000002</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.803799999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1783,21 @@
         <v>1431759.0652</v>
       </c>
       <c r="G37" t="n">
+        <v>1.762000000000002</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.801616666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1821,21 @@
         <v>929583.5542</v>
       </c>
       <c r="G38" t="n">
+        <v>1.760466666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.799983333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1859,21 @@
         <v>243000</v>
       </c>
       <c r="G39" t="n">
+        <v>1.755200000000002</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.798349999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1897,21 @@
         <v>63535.2572</v>
       </c>
       <c r="G40" t="n">
+        <v>1.752533333333335</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.796683333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1935,21 @@
         <v>1011870.5006</v>
       </c>
       <c r="G41" t="n">
+        <v>1.748533333333335</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.794849999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +1973,21 @@
         <v>421288.5610215552</v>
       </c>
       <c r="G42" t="n">
+        <v>1.745800000000002</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.793333333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2011,21 @@
         <v>228284.872</v>
       </c>
       <c r="G43" t="n">
+        <v>1.741066666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.791649999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2049,21 @@
         <v>137732.3183</v>
       </c>
       <c r="G44" t="n">
+        <v>1.738066666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.789883333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2087,21 @@
         <v>60000</v>
       </c>
       <c r="G45" t="n">
+        <v>1.736000000000002</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.788199999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2125,21 @@
         <v>290</v>
       </c>
       <c r="G46" t="n">
+        <v>1.735133333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.786749999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2163,21 @@
         <v>14537.28197844483</v>
       </c>
       <c r="G47" t="n">
+        <v>1.734733333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.784899999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2201,21 @@
         <v>112262.5732</v>
       </c>
       <c r="G48" t="n">
+        <v>1.737333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.783833333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2239,21 @@
         <v>166743.3792666667</v>
       </c>
       <c r="G49" t="n">
+        <v>1.741666666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.783833333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2277,21 @@
         <v>354719.8794333333</v>
       </c>
       <c r="G50" t="n">
+        <v>1.740933333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.783333333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2315,21 @@
         <v>474665.2838</v>
       </c>
       <c r="G51" t="n">
+        <v>1.743600000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.783349999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2353,21 @@
         <v>1998999.1663</v>
       </c>
       <c r="G52" t="n">
+        <v>1.745066666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.782683333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2391,21 @@
         <v>300</v>
       </c>
       <c r="G53" t="n">
+        <v>1.746933333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.781999999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2429,21 @@
         <v>158897.9286</v>
       </c>
       <c r="G54" t="n">
+        <v>1.747733333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.780666666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2467,21 @@
         <v>80316.0885</v>
       </c>
       <c r="G55" t="n">
+        <v>1.749466666666668</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.780266666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2505,21 @@
         <v>848435.1259</v>
       </c>
       <c r="G56" t="n">
+        <v>1.749800000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.777899999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2543,21 @@
         <v>159311.8223</v>
       </c>
       <c r="G57" t="n">
+        <v>1.750866666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.776366666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2581,21 @@
         <v>257777.3529</v>
       </c>
       <c r="G58" t="n">
+        <v>1.750733333333335</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.775316666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2619,21 @@
         <v>301</v>
       </c>
       <c r="G59" t="n">
+        <v>1.753133333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.774833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2657,21 @@
         <v>938878.6756215552</v>
       </c>
       <c r="G60" t="n">
+        <v>1.753266666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.773883333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2695,21 @@
         <v>17598</v>
       </c>
       <c r="G61" t="n">
+        <v>1.754400000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.773483333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2733,21 @@
         <v>1674.5339</v>
       </c>
       <c r="G62" t="n">
+        <v>1.755533333333335</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.773116666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2771,21 @@
         <v>678195.5741</v>
       </c>
       <c r="G63" t="n">
+        <v>1.753200000000002</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.772133333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2809,21 @@
         <v>1167.8472</v>
       </c>
       <c r="G64" t="n">
+        <v>1.750666666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.770666666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2847,21 @@
         <v>41582.1217</v>
       </c>
       <c r="G65" t="n">
+        <v>1.750600000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.769516666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +2885,21 @@
         <v>1674.5339</v>
       </c>
       <c r="G66" t="n">
+        <v>1.748133333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.7679</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +2923,21 @@
         <v>600877.613</v>
       </c>
       <c r="G67" t="n">
+        <v>1.747933333333335</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.766933333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +2961,21 @@
         <v>414839.7519</v>
       </c>
       <c r="G68" t="n">
+        <v>1.745600000000002</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.765299999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +2999,21 @@
         <v>590402.1836</v>
       </c>
       <c r="G69" t="n">
+        <v>1.744333333333335</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.763983333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3037,21 @@
         <v>296</v>
       </c>
       <c r="G70" t="n">
+        <v>1.740866666666669</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.762266666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3075,21 @@
         <v>59598</v>
       </c>
       <c r="G71" t="n">
+        <v>1.742866666666669</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.761516666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3113,21 @@
         <v>757252.3342589479</v>
       </c>
       <c r="G72" t="n">
+        <v>1.745333333333335</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.761383333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3151,21 @@
         <v>121746.57</v>
       </c>
       <c r="G73" t="n">
+        <v>1.746533333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.760316666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3189,21 @@
         <v>340280</v>
       </c>
       <c r="G74" t="n">
+        <v>1.744933333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.7591</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3227,21 @@
         <v>33346.0045</v>
       </c>
       <c r="G75" t="n">
+        <v>1.745466666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.75785</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3265,21 @@
         <v>143537.4463</v>
       </c>
       <c r="G76" t="n">
+        <v>1.744333333333335</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.756183333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3303,21 @@
         <v>290</v>
       </c>
       <c r="G77" t="n">
+        <v>1.742600000000002</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.754933333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3341,21 @@
         <v>406609.7779</v>
       </c>
       <c r="G78" t="n">
+        <v>1.741933333333335</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.753416666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3379,21 @@
         <v>64259.0039</v>
       </c>
       <c r="G79" t="n">
+        <v>1.741400000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.751966666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3417,21 @@
         <v>5408</v>
       </c>
       <c r="G80" t="n">
+        <v>1.741933333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.750766666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3455,21 @@
         <v>758103.3071</v>
       </c>
       <c r="G81" t="n">
+        <v>1.744466666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.750099999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3493,21 @@
         <v>14027.13689655172</v>
       </c>
       <c r="G82" t="n">
+        <v>1.744000000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.749749999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3531,21 @@
         <v>11895.7248</v>
       </c>
       <c r="G83" t="n">
+        <v>1.747733333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.750183333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3569,21 @@
         <v>500</v>
       </c>
       <c r="G84" t="n">
+        <v>1.747333333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.748649999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3607,21 @@
         <v>981409.3463</v>
       </c>
       <c r="G85" t="n">
+        <v>1.748000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.747716666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3645,21 @@
         <v>290</v>
       </c>
       <c r="G86" t="n">
+        <v>1.746333333333335</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.746883333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3683,21 @@
         <v>313521.7101</v>
       </c>
       <c r="G87" t="n">
+        <v>1.741066666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.745766666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3721,21 @@
         <v>608607.5954</v>
       </c>
       <c r="G88" t="n">
+        <v>1.739133333333335</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.744366666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3759,21 @@
         <v>413453.7983</v>
       </c>
       <c r="G89" t="n">
+        <v>1.737000000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.743283333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +3797,21 @@
         <v>291</v>
       </c>
       <c r="G90" t="n">
+        <v>1.735800000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.742633333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +3835,21 @@
         <v>4990.5338</v>
       </c>
       <c r="G91" t="n">
+        <v>1.734066666666668</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.741983333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +3873,21 @@
         <v>290</v>
       </c>
       <c r="G92" t="n">
+        <v>1.733933333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.741699999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +3911,21 @@
         <v>82487.24980000001</v>
       </c>
       <c r="G93" t="n">
+        <v>1.735133333333335</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.741899999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +3949,21 @@
         <v>33862.7481</v>
       </c>
       <c r="G94" t="n">
+        <v>1.736066666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.742449999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +3987,21 @@
         <v>512937.9657</v>
       </c>
       <c r="G95" t="n">
+        <v>1.735066666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.742133333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4025,21 @@
         <v>240480.7022</v>
       </c>
       <c r="G96" t="n">
+        <v>1.732933333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.742283333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4063,21 @@
         <v>10000</v>
       </c>
       <c r="G97" t="n">
+        <v>1.732800000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.742449999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4101,21 @@
         <v>965739.9836</v>
       </c>
       <c r="G98" t="n">
+        <v>1.728666666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.742233333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4139,21 @@
         <v>997812.189</v>
       </c>
       <c r="G99" t="n">
+        <v>1.729533333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.742233333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4177,21 @@
         <v>290</v>
       </c>
       <c r="G100" t="n">
+        <v>1.730400000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.742183333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4215,21 @@
         <v>219258.8936</v>
       </c>
       <c r="G101" t="n">
+        <v>1.730133333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.742283333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4253,21 @@
         <v>219512.0723</v>
       </c>
       <c r="G102" t="n">
+        <v>1.731000000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.742066666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4291,21 @@
         <v>1999561.4453</v>
       </c>
       <c r="G103" t="n">
+        <v>1.729000000000002</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.741349999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4329,21 @@
         <v>290</v>
       </c>
       <c r="G104" t="n">
+        <v>1.730266666666668</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.741333333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4367,21 @@
         <v>1542.4151</v>
       </c>
       <c r="G105" t="n">
+        <v>1.728733333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.740816666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4405,21 @@
         <v>13942.8929</v>
       </c>
       <c r="G106" t="n">
+        <v>1.729133333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.740483333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4443,21 @@
         <v>48990.2</v>
       </c>
       <c r="G107" t="n">
+        <v>1.728600000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.740166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4481,21 @@
         <v>216105.4196</v>
       </c>
       <c r="G108" t="n">
+        <v>1.728533333333335</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.739699999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4519,21 @@
         <v>271335.641</v>
       </c>
       <c r="G109" t="n">
+        <v>1.726666666666669</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.738699999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4557,21 @@
         <v>220454.3911</v>
       </c>
       <c r="G110" t="n">
+        <v>1.726933333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.738633333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4595,21 @@
         <v>14300</v>
       </c>
       <c r="G111" t="n">
+        <v>1.726400000000002</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.737983333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4633,21 @@
         <v>16835</v>
       </c>
       <c r="G112" t="n">
+        <v>1.725866666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.737649999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4671,21 @@
         <v>37344.1455</v>
       </c>
       <c r="G113" t="n">
+        <v>1.726200000000002</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.737049999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4709,21 @@
         <v>290</v>
       </c>
       <c r="G114" t="n">
+        <v>1.726133333333335</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.736833333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4747,21 @@
         <v>267042.997</v>
       </c>
       <c r="G115" t="n">
+        <v>1.724400000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.735916666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4785,21 @@
         <v>290</v>
       </c>
       <c r="G116" t="n">
+        <v>1.724466666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.735949999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +4823,21 @@
         <v>41223.4981</v>
       </c>
       <c r="G117" t="n">
+        <v>1.724533333333335</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.735483333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +4861,21 @@
         <v>14300</v>
       </c>
       <c r="G118" t="n">
+        <v>1.727600000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.735566666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +4899,21 @@
         <v>290</v>
       </c>
       <c r="G119" t="n">
+        <v>1.728200000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.735099999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +4937,21 @@
         <v>8511.4557</v>
       </c>
       <c r="G120" t="n">
+        <v>1.730666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.735166666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +4975,21 @@
         <v>366934.4775</v>
       </c>
       <c r="G121" t="n">
+        <v>1.731200000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.734683333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5013,21 @@
         <v>187523.5109</v>
       </c>
       <c r="G122" t="n">
+        <v>1.731666666666668</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.734199999999998</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5051,21 @@
         <v>5181.3474</v>
       </c>
       <c r="G123" t="n">
+        <v>1.731666666666668</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.734316666666665</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5089,21 @@
         <v>5757.0524</v>
       </c>
       <c r="G124" t="n">
+        <v>1.733466666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.734399999999998</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5127,21 @@
         <v>302630.3165</v>
       </c>
       <c r="G125" t="n">
+        <v>1.731733333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.733916666666665</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5165,21 @@
         <v>2270579.6282</v>
       </c>
       <c r="G126" t="n">
+        <v>1.729000000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.733199999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5203,21 @@
         <v>439551.6241</v>
       </c>
       <c r="G127" t="n">
+        <v>1.727800000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.732616666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5241,21 @@
         <v>11743.981</v>
       </c>
       <c r="G128" t="n">
+        <v>1.726000000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.732149999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5279,27 @@
         <v>132449.545</v>
       </c>
       <c r="G129" t="n">
+        <v>1.723533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.731633333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.703</v>
+      </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5323,27 @@
         <v>58219.0577</v>
       </c>
       <c r="G130" t="n">
+        <v>1.722266666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.731266666666665</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.7</v>
+      </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5367,27 @@
         <v>292.0561</v>
       </c>
       <c r="G131" t="n">
+        <v>1.720600000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.730383333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>1</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.692</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5411,27 @@
         <v>584.1122</v>
       </c>
       <c r="G132" t="n">
+        <v>1.718933333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.728883333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.712</v>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5455,27 @@
         <v>1168.2244</v>
       </c>
       <c r="G133" t="n">
+        <v>1.717200000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.728233333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1.712</v>
+      </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5499,25 @@
         <v>1161237.3902</v>
       </c>
       <c r="G134" t="n">
+        <v>1.714400000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.727466666666665</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5541,27 @@
         <v>135783.3365</v>
       </c>
       <c r="G135" t="n">
+        <v>1.711666666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.726716666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1.696</v>
+      </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5585,27 @@
         <v>4023.4278</v>
       </c>
       <c r="G136" t="n">
+        <v>1.708666666666668</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.725766666666665</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.696</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5629,27 @@
         <v>2922.1316</v>
       </c>
       <c r="G137" t="n">
+        <v>1.706933333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.725283333333331</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.692</v>
+      </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5673,27 @@
         <v>151104.5448</v>
       </c>
       <c r="G138" t="n">
+        <v>1.705266666666668</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.725149999999998</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.711</v>
+      </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5717,27 @@
         <v>1168.2248</v>
       </c>
       <c r="G139" t="n">
+        <v>1.703666666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.724966666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.712</v>
+      </c>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5761,27 @@
         <v>584.1122</v>
       </c>
       <c r="G140" t="n">
+        <v>1.704266666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.724499999999998</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1.713</v>
+      </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5805,27 @@
         <v>2628.3344</v>
       </c>
       <c r="G141" t="n">
+        <v>1.705800000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.723533333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1.712</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5849,27 @@
         <v>291.8856</v>
       </c>
       <c r="G142" t="n">
+        <v>1.705866666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.723083333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1.712</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +5893,27 @@
         <v>14139.1122</v>
       </c>
       <c r="G143" t="n">
+        <v>1.707200000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.722016666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1.713</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +5937,27 @@
         <v>580.7201</v>
       </c>
       <c r="G144" t="n">
+        <v>1.708666666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.721966666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1.723</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +5981,27 @@
         <v>1451.6318</v>
       </c>
       <c r="G145" t="n">
+        <v>1.710733333333335</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.721949999999998</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1.722</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6025,27 @@
         <v>22504</v>
       </c>
       <c r="G146" t="n">
+        <v>1.711866666666668</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.721766666666665</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1.723</v>
+      </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6069,27 @@
         <v>39118</v>
       </c>
       <c r="G147" t="n">
+        <v>1.713000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.721866666666665</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1.729</v>
+      </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6113,27 @@
         <v>81119</v>
       </c>
       <c r="G148" t="n">
+        <v>1.714266666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.722016666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1.729</v>
+      </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6157,27 @@
         <v>60290</v>
       </c>
       <c r="G149" t="n">
+        <v>1.716866666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.722433333333331</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.731</v>
+      </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6201,27 @@
         <v>4790.2448</v>
       </c>
       <c r="G150" t="n">
+        <v>1.719466666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.722633333333331</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1.735</v>
+      </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6245,27 @@
         <v>20576.3689</v>
       </c>
       <c r="G151" t="n">
+        <v>1.722333333333335</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.722833333333331</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.735</v>
+      </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6289,27 @@
         <v>42278.1924</v>
       </c>
       <c r="G152" t="n">
+        <v>1.724000000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.722799999999998</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.735</v>
+      </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6333,27 @@
         <v>76261.8912</v>
       </c>
       <c r="G153" t="n">
+        <v>1.725600000000001</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.722766666666665</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.736</v>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6377,27 @@
         <v>865.7053</v>
       </c>
       <c r="G154" t="n">
+        <v>1.727266666666668</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.722766666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>1</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1.736</v>
+      </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6421,27 @@
         <v>127762.646</v>
       </c>
       <c r="G155" t="n">
+        <v>1.728866666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.722949999999998</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.738</v>
+      </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6465,27 @@
         <v>244042.5863</v>
       </c>
       <c r="G156" t="n">
+        <v>1.731600000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.723199999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1.736</v>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6509,27 @@
         <v>155312.2095</v>
       </c>
       <c r="G157" t="n">
+        <v>1.733800000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.723333333333332</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1.753</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6553,27 @@
         <v>1140.9014</v>
       </c>
       <c r="G158" t="n">
+        <v>1.735800000000001</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.723799999999998</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1.746</v>
+      </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6597,27 @@
         <v>244995.3142</v>
       </c>
       <c r="G159" t="n">
+        <v>1.739066666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.724349999999998</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>1</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.753</v>
+      </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6641,27 @@
         <v>232968.314</v>
       </c>
       <c r="G160" t="n">
+        <v>1.741000000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.724599999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>1</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1.771</v>
+      </c>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6685,27 @@
         <v>1351544.7646</v>
       </c>
       <c r="G161" t="n">
+        <v>1.740400000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.724333333333332</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>1</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.752</v>
+      </c>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6729,27 @@
         <v>269247</v>
       </c>
       <c r="G162" t="n">
+        <v>1.743133333333335</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.724899999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>1</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.72</v>
+      </c>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6773,27 @@
         <v>297296.44</v>
       </c>
       <c r="G163" t="n">
+        <v>1.743066666666668</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.725533333333332</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6817,25 @@
         <v>970990.9748</v>
       </c>
       <c r="G164" t="n">
+        <v>1.741200000000001</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.725166666666665</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6859,25 @@
         <v>60115.66</v>
       </c>
       <c r="G165" t="n">
+        <v>1.740200000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.725499999999998</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6901,25 @@
         <v>285</v>
       </c>
       <c r="G166" t="n">
+        <v>1.741200000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.725849999999998</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +6943,25 @@
         <v>927094.5363</v>
       </c>
       <c r="G167" t="n">
+        <v>1.741333333333335</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.725983333333332</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +6985,25 @@
         <v>310493.7382</v>
       </c>
       <c r="G168" t="n">
+        <v>1.740933333333335</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.725866666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7027,25 @@
         <v>1226.5541</v>
       </c>
       <c r="G169" t="n">
+        <v>1.740800000000001</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.726299999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7069,27 @@
         <v>553891.6364</v>
       </c>
       <c r="G170" t="n">
+        <v>1.739200000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.726016666666665</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1.736</v>
+      </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7113,27 @@
         <v>578.369</v>
       </c>
       <c r="G171" t="n">
+        <v>1.737600000000001</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.725999999999999</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1.712</v>
+      </c>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7157,27 @@
         <v>65796.1195</v>
       </c>
       <c r="G172" t="n">
+        <v>1.736533333333335</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.725999999999999</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1.729</v>
+      </c>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7201,27 @@
         <v>94817.7071</v>
       </c>
       <c r="G173" t="n">
+        <v>1.735000000000001</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.725999999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7245,27 @@
         <v>18723.5499</v>
       </c>
       <c r="G174" t="n">
+        <v>1.732266666666668</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.725883333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7289,27 @@
         <v>160648</v>
       </c>
       <c r="G175" t="n">
+        <v>1.730800000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.726199999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7333,27 @@
         <v>105246.8623</v>
       </c>
       <c r="G176" t="n">
+        <v>1.730466666666668</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.725833333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7377,27 @@
         <v>686438.1424</v>
       </c>
       <c r="G177" t="n">
+        <v>1.727800000000002</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.725716666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1.715</v>
+      </c>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7421,27 @@
         <v>1161</v>
       </c>
       <c r="G178" t="n">
+        <v>1.727800000000002</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.725583333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7465,27 @@
         <v>30000</v>
       </c>
       <c r="G179" t="n">
+        <v>1.729333333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.725449999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7509,27 @@
         <v>2000</v>
       </c>
       <c r="G180" t="n">
+        <v>1.730400000000002</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.725433333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7553,27 @@
         <v>45212.4255</v>
       </c>
       <c r="G181" t="n">
+        <v>1.728400000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.72515</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1.736</v>
+      </c>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7597,27 @@
         <v>20000</v>
       </c>
       <c r="G182" t="n">
+        <v>1.727866666666668</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.725033333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1.72</v>
+      </c>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7641,27 @@
         <v>1413451.7739</v>
       </c>
       <c r="G183" t="n">
+        <v>1.726533333333335</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.724583333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1.73</v>
+      </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7685,27 @@
         <v>122657.9594</v>
       </c>
       <c r="G184" t="n">
+        <v>1.723800000000002</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.723883333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1.71</v>
+      </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7729,27 @@
         <v>892443.0502000001</v>
       </c>
       <c r="G185" t="n">
+        <v>1.723666666666668</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.724</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1.695</v>
+      </c>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7773,467 @@
         <v>2225.8855</v>
       </c>
       <c r="G186" t="n">
+        <v>1.722400000000002</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.724349999999999</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1.71</v>
+      </c>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F187" t="n">
+        <v>251095.1376</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.721066666666669</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.724316666666666</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F188" t="n">
+        <v>383006.6</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.721000000000002</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.724749999999999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7834.293</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.720866666666669</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.725216666666666</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F190" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.719533333333335</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.725516666666665</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="F191" t="n">
+        <v>30848.4998</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.718466666666669</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.725299999999999</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="F192" t="n">
+        <v>254177</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.717666666666669</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.725399999999999</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>498671.5932</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.717666666666669</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.725699999999999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7798.5932</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.715666666666668</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.725766666666666</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F195" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.713933333333335</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.725999999999999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F196" t="n">
+        <v>141071.5599999422</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.714600000000002</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.726633333333332</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.816</v>
+        <v>1.668</v>
       </c>
       <c r="C2" t="n">
-        <v>1.816</v>
+        <v>1.668</v>
       </c>
       <c r="D2" t="n">
-        <v>1.849</v>
+        <v>1.668</v>
       </c>
       <c r="E2" t="n">
-        <v>1.816</v>
+        <v>1.668</v>
       </c>
       <c r="F2" t="n">
-        <v>86641.6976</v>
+        <v>40000</v>
       </c>
       <c r="G2" t="n">
-        <v>-1917977.889171908</v>
+        <v>-24931375.6256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.816</v>
+        <v>1.687</v>
       </c>
       <c r="C3" t="n">
-        <v>1.849</v>
+        <v>1.68</v>
       </c>
       <c r="D3" t="n">
-        <v>1.849</v>
+        <v>1.689</v>
       </c>
       <c r="E3" t="n">
-        <v>1.816</v>
+        <v>1.664</v>
       </c>
       <c r="F3" t="n">
-        <v>129494.8674</v>
+        <v>1759577.3436</v>
       </c>
       <c r="G3" t="n">
-        <v>-1788483.021771908</v>
+        <v>-23171798.282</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.816</v>
+        <v>1.68</v>
       </c>
       <c r="C4" t="n">
-        <v>1.815</v>
+        <v>1.67</v>
       </c>
       <c r="D4" t="n">
-        <v>1.816</v>
+        <v>1.689</v>
       </c>
       <c r="E4" t="n">
-        <v>1.815</v>
+        <v>1.663</v>
       </c>
       <c r="F4" t="n">
-        <v>40000</v>
+        <v>746243.252</v>
       </c>
       <c r="G4" t="n">
-        <v>-1828483.021771908</v>
+        <v>-23918041.534</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.815</v>
+        <v>1.68</v>
       </c>
       <c r="C5" t="n">
-        <v>1.811</v>
+        <v>1.68</v>
       </c>
       <c r="D5" t="n">
-        <v>1.815</v>
+        <v>1.681</v>
       </c>
       <c r="E5" t="n">
-        <v>1.811</v>
+        <v>1.68</v>
       </c>
       <c r="F5" t="n">
-        <v>157841.9096</v>
+        <v>233245.85</v>
       </c>
       <c r="G5" t="n">
-        <v>-1986324.931371908</v>
+        <v>-23684795.684</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,31 +582,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.811</v>
+        <v>1.686</v>
       </c>
       <c r="C6" t="n">
-        <v>1.811</v>
+        <v>1.7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.812</v>
+        <v>1.7</v>
       </c>
       <c r="E6" t="n">
-        <v>1.811</v>
+        <v>1.686</v>
       </c>
       <c r="F6" t="n">
-        <v>2973145.4419</v>
+        <v>329224.1746</v>
       </c>
       <c r="G6" t="n">
-        <v>-1986324.931371908</v>
+        <v>-23355571.5094</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.68</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +622,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.812</v>
+        <v>1.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.812</v>
+        <v>1.72</v>
       </c>
       <c r="D7" t="n">
-        <v>1.812</v>
+        <v>1.72</v>
       </c>
       <c r="E7" t="n">
-        <v>1.812</v>
+        <v>1.7</v>
       </c>
       <c r="F7" t="n">
-        <v>9985.02</v>
+        <v>493997.1432</v>
       </c>
       <c r="G7" t="n">
-        <v>-1976339.911371908</v>
+        <v>-22861574.3662</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +666,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.813</v>
+        <v>1.731</v>
       </c>
       <c r="C8" t="n">
-        <v>1.81</v>
+        <v>1.789</v>
       </c>
       <c r="D8" t="n">
-        <v>1.813</v>
+        <v>1.789</v>
       </c>
       <c r="E8" t="n">
-        <v>1.81</v>
+        <v>1.731</v>
       </c>
       <c r="F8" t="n">
-        <v>699354.3776</v>
+        <v>541975.7206999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-2675694.288971907</v>
+        <v>-22319598.6455</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -693,28 +713,32 @@
         <v>1.81</v>
       </c>
       <c r="C9" t="n">
-        <v>1.761</v>
+        <v>1.82</v>
       </c>
       <c r="D9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.81</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.761</v>
-      </c>
       <c r="F9" t="n">
-        <v>469616.4554</v>
+        <v>1472454.375424176</v>
       </c>
       <c r="G9" t="n">
-        <v>-3145310.744371907</v>
+        <v>-20847144.27007582</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.789</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,22 +750,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.761</v>
+        <v>1.82</v>
       </c>
       <c r="C10" t="n">
-        <v>1.761</v>
+        <v>1.848</v>
       </c>
       <c r="D10" t="n">
-        <v>1.83</v>
+        <v>1.848</v>
       </c>
       <c r="E10" t="n">
-        <v>1.761</v>
+        <v>1.82</v>
       </c>
       <c r="F10" t="n">
-        <v>1415800.6998</v>
+        <v>964785.1847758242</v>
       </c>
       <c r="G10" t="n">
-        <v>-3145310.744371907</v>
+        <v>-19882359.08529999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +774,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +792,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.817</v>
+        <v>1.848</v>
       </c>
       <c r="C11" t="n">
-        <v>1.817</v>
+        <v>1.889</v>
       </c>
       <c r="D11" t="n">
-        <v>1.817</v>
+        <v>1.889</v>
       </c>
       <c r="E11" t="n">
-        <v>1.817</v>
+        <v>1.848</v>
       </c>
       <c r="F11" t="n">
-        <v>470.4199</v>
+        <v>3938005.8215</v>
       </c>
       <c r="G11" t="n">
-        <v>-3144840.324471907</v>
+        <v>-15944353.2638</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +816,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,28 +834,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.776</v>
+        <v>1.899</v>
       </c>
       <c r="C12" t="n">
-        <v>1.78</v>
+        <v>1.968</v>
       </c>
       <c r="D12" t="n">
-        <v>1.78</v>
+        <v>1.968</v>
       </c>
       <c r="E12" t="n">
-        <v>1.775</v>
+        <v>1.899</v>
       </c>
       <c r="F12" t="n">
-        <v>447067.1531</v>
+        <v>6925690.653325668</v>
       </c>
       <c r="G12" t="n">
-        <v>-3591907.477571907</v>
+        <v>-9018662.610474328</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +870,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.774</v>
+        <v>1.968</v>
       </c>
       <c r="C13" t="n">
-        <v>1.79</v>
+        <v>1.749</v>
       </c>
       <c r="D13" t="n">
-        <v>1.79</v>
+        <v>1.968</v>
       </c>
       <c r="E13" t="n">
-        <v>1.774</v>
+        <v>1.748</v>
       </c>
       <c r="F13" t="n">
-        <v>491229.4492</v>
+        <v>2534740.661042329</v>
       </c>
       <c r="G13" t="n">
-        <v>-3100678.028371907</v>
+        <v>-11553403.27151666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +906,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.772</v>
+        <v>1.855</v>
       </c>
       <c r="C14" t="n">
-        <v>1.79</v>
+        <v>1.854</v>
       </c>
       <c r="D14" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="E14" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="F14" t="n">
-        <v>1202243.525</v>
+        <v>2811633.6059</v>
       </c>
       <c r="G14" t="n">
-        <v>-3100678.028371907</v>
+        <v>-8741769.665616658</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +942,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.806</v>
+        <v>1.854</v>
       </c>
       <c r="C15" t="n">
-        <v>1.806</v>
+        <v>1.869</v>
       </c>
       <c r="D15" t="n">
-        <v>1.806</v>
+        <v>1.92</v>
       </c>
       <c r="E15" t="n">
-        <v>1.806</v>
+        <v>1.854</v>
       </c>
       <c r="F15" t="n">
-        <v>130545.7452</v>
+        <v>3494186.5859</v>
       </c>
       <c r="G15" t="n">
-        <v>-2970132.283171907</v>
+        <v>-5247583.079716658</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +978,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.776</v>
+        <v>1.87</v>
       </c>
       <c r="C16" t="n">
-        <v>1.775</v>
+        <v>1.88</v>
       </c>
       <c r="D16" t="n">
-        <v>1.776</v>
+        <v>1.975</v>
       </c>
       <c r="E16" t="n">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="F16" t="n">
-        <v>77103.0741</v>
+        <v>4196119.090248821</v>
       </c>
       <c r="G16" t="n">
-        <v>-3047235.357271907</v>
+        <v>-1051463.989467837</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +1014,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.781</v>
+        <v>1.89</v>
       </c>
       <c r="C17" t="n">
-        <v>1.762</v>
+        <v>1.988</v>
       </c>
       <c r="D17" t="n">
-        <v>1.781</v>
+        <v>1.988</v>
       </c>
       <c r="E17" t="n">
-        <v>1.762</v>
+        <v>1.811</v>
       </c>
       <c r="F17" t="n">
-        <v>2078540.2281</v>
+        <v>5614552.322482125</v>
       </c>
       <c r="G17" t="n">
-        <v>-5125775.585371907</v>
+        <v>4563088.333014288</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1050,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.77</v>
+        <v>1.982</v>
       </c>
       <c r="C18" t="n">
-        <v>1.762</v>
+        <v>1.912</v>
       </c>
       <c r="D18" t="n">
-        <v>1.77</v>
+        <v>1.987</v>
       </c>
       <c r="E18" t="n">
-        <v>1.762</v>
+        <v>1.86</v>
       </c>
       <c r="F18" t="n">
-        <v>774111.0759000001</v>
+        <v>1090810.724257322</v>
       </c>
       <c r="G18" t="n">
-        <v>-5125775.585371907</v>
+        <v>3472277.608756966</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1086,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="C19" t="n">
-        <v>1.755</v>
+        <v>1.988</v>
       </c>
       <c r="D19" t="n">
-        <v>1.76</v>
+        <v>1.988</v>
       </c>
       <c r="E19" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="F19" t="n">
-        <v>1129619.088</v>
+        <v>1464738.015171127</v>
       </c>
       <c r="G19" t="n">
-        <v>-6255394.673371907</v>
+        <v>4937015.623928092</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1122,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.754</v>
+        <v>1.983</v>
       </c>
       <c r="C20" t="n">
-        <v>1.726</v>
+        <v>1.977</v>
       </c>
       <c r="D20" t="n">
-        <v>1.754</v>
+        <v>1.983</v>
       </c>
       <c r="E20" t="n">
-        <v>1.724</v>
+        <v>1.93</v>
       </c>
       <c r="F20" t="n">
-        <v>1135680.53</v>
+        <v>2231161.1752</v>
       </c>
       <c r="G20" t="n">
-        <v>-7391075.203371908</v>
+        <v>2705854.448728092</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1158,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.724</v>
+        <v>1.977</v>
       </c>
       <c r="C21" t="n">
-        <v>1.705</v>
+        <v>1.977</v>
       </c>
       <c r="D21" t="n">
-        <v>1.724</v>
+        <v>1.988</v>
       </c>
       <c r="E21" t="n">
-        <v>1.705</v>
+        <v>1.97</v>
       </c>
       <c r="F21" t="n">
-        <v>596255.6233</v>
+        <v>2920150.5805</v>
       </c>
       <c r="G21" t="n">
-        <v>-7987330.826671908</v>
+        <v>2705854.448728092</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1194,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.708</v>
+        <v>1.97</v>
       </c>
       <c r="C22" t="n">
-        <v>1.744</v>
+        <v>1.882</v>
       </c>
       <c r="D22" t="n">
-        <v>1.745</v>
+        <v>1.97</v>
       </c>
       <c r="E22" t="n">
-        <v>1.707</v>
+        <v>1.88</v>
       </c>
       <c r="F22" t="n">
-        <v>945040.578</v>
+        <v>3233283.7065</v>
       </c>
       <c r="G22" t="n">
-        <v>-7042290.248671908</v>
+        <v>-527429.2577719074</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1230,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.729</v>
+        <v>1.881</v>
       </c>
       <c r="C23" t="n">
-        <v>1.729</v>
+        <v>1.87</v>
       </c>
       <c r="D23" t="n">
-        <v>1.729</v>
+        <v>1.93</v>
       </c>
       <c r="E23" t="n">
-        <v>1.729</v>
+        <v>1.85</v>
       </c>
       <c r="F23" t="n">
-        <v>60000</v>
+        <v>4476510.31</v>
       </c>
       <c r="G23" t="n">
-        <v>-7102290.248671908</v>
+        <v>-5003939.567771907</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1266,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.728</v>
+        <v>1.87</v>
       </c>
       <c r="C24" t="n">
-        <v>1.728</v>
+        <v>1.85</v>
       </c>
       <c r="D24" t="n">
-        <v>1.728</v>
+        <v>1.88</v>
       </c>
       <c r="E24" t="n">
-        <v>1.712</v>
+        <v>1.85</v>
       </c>
       <c r="F24" t="n">
-        <v>1431759.0652</v>
+        <v>1623805.8632</v>
       </c>
       <c r="G24" t="n">
-        <v>-8534049.313871909</v>
+        <v>-6627745.430971907</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1302,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.718</v>
+        <v>1.848</v>
       </c>
       <c r="C25" t="n">
-        <v>1.738</v>
+        <v>1.848</v>
       </c>
       <c r="D25" t="n">
-        <v>1.738</v>
+        <v>1.848</v>
       </c>
       <c r="E25" t="n">
-        <v>1.717</v>
+        <v>1.848</v>
       </c>
       <c r="F25" t="n">
-        <v>929583.5542</v>
+        <v>369749.2702</v>
       </c>
       <c r="G25" t="n">
-        <v>-7604465.759671909</v>
+        <v>-6997494.701171908</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1338,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.738</v>
+        <v>1.847</v>
       </c>
       <c r="C26" t="n">
-        <v>1.738</v>
+        <v>1.819</v>
       </c>
       <c r="D26" t="n">
-        <v>1.738</v>
+        <v>1.91</v>
       </c>
       <c r="E26" t="n">
-        <v>1.738</v>
+        <v>1.817</v>
       </c>
       <c r="F26" t="n">
-        <v>243000</v>
+        <v>1435003.1123</v>
       </c>
       <c r="G26" t="n">
-        <v>-7604465.759671909</v>
+        <v>-8432497.813471908</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1374,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="C27" t="n">
-        <v>1.74</v>
+        <v>1.868</v>
       </c>
       <c r="D27" t="n">
-        <v>1.74</v>
+        <v>1.869</v>
       </c>
       <c r="E27" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="F27" t="n">
-        <v>63535.2572</v>
+        <v>1480916.7698</v>
       </c>
       <c r="G27" t="n">
-        <v>-7540930.502471909</v>
+        <v>-6951581.043671908</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1410,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.748</v>
+        <v>1.821</v>
       </c>
       <c r="C28" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799</v>
+        <v>1.821</v>
       </c>
       <c r="E28" t="n">
-        <v>1.721</v>
+        <v>1.82</v>
       </c>
       <c r="F28" t="n">
-        <v>1011870.5006</v>
+        <v>215889.4822</v>
       </c>
       <c r="G28" t="n">
-        <v>-8552801.00307191</v>
+        <v>-7167470.525871908</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1446,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.749</v>
+        <v>1.82</v>
       </c>
       <c r="C29" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="D29" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="E29" t="n">
-        <v>1.749</v>
+        <v>1.82</v>
       </c>
       <c r="F29" t="n">
-        <v>421288.5610215552</v>
+        <v>545369.2161</v>
       </c>
       <c r="G29" t="n">
-        <v>-8131512.442050355</v>
+        <v>-6622101.309771908</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1482,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.735</v>
+        <v>1.84</v>
       </c>
       <c r="C30" t="n">
-        <v>1.735</v>
+        <v>1.855</v>
       </c>
       <c r="D30" t="n">
-        <v>1.735</v>
+        <v>1.855</v>
       </c>
       <c r="E30" t="n">
-        <v>1.735</v>
+        <v>1.84</v>
       </c>
       <c r="F30" t="n">
-        <v>228284.872</v>
+        <v>958320.4049</v>
       </c>
       <c r="G30" t="n">
-        <v>-8359797.314050355</v>
+        <v>-5663780.904871909</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1518,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.73</v>
+        <v>1.855</v>
       </c>
       <c r="C31" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="D31" t="n">
-        <v>1.73</v>
+        <v>1.859</v>
       </c>
       <c r="E31" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="F31" t="n">
-        <v>137732.3183</v>
+        <v>176911.061</v>
       </c>
       <c r="G31" t="n">
-        <v>-8497529.632350355</v>
+        <v>-5840691.965871909</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,28 +1554,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.731</v>
+        <v>1.84</v>
       </c>
       <c r="C32" t="n">
-        <v>1.731</v>
+        <v>1.831</v>
       </c>
       <c r="D32" t="n">
-        <v>1.731</v>
+        <v>1.86</v>
       </c>
       <c r="E32" t="n">
-        <v>1.731</v>
+        <v>1.83</v>
       </c>
       <c r="F32" t="n">
-        <v>60000</v>
+        <v>455612.7059</v>
       </c>
       <c r="G32" t="n">
-        <v>-8437529.632350355</v>
+        <v>-6296304.671771909</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1590,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="C33" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="D33" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="E33" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="F33" t="n">
-        <v>290</v>
+        <v>30498.1426</v>
       </c>
       <c r="G33" t="n">
-        <v>-8437239.632350355</v>
+        <v>-6265806.529171909</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1626,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="C34" t="n">
-        <v>1.749</v>
+        <v>1.859</v>
       </c>
       <c r="D34" t="n">
-        <v>1.749</v>
+        <v>1.859</v>
       </c>
       <c r="E34" t="n">
-        <v>1.749</v>
+        <v>1.84</v>
       </c>
       <c r="F34" t="n">
-        <v>14537.28197844483</v>
+        <v>78702.7395</v>
       </c>
       <c r="G34" t="n">
-        <v>-8437239.632350355</v>
+        <v>-6187103.789671909</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1662,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="C35" t="n">
-        <v>1.765</v>
+        <v>1.859</v>
       </c>
       <c r="D35" t="n">
-        <v>1.765</v>
+        <v>1.869</v>
       </c>
       <c r="E35" t="n">
-        <v>1.75</v>
+        <v>1.859</v>
       </c>
       <c r="F35" t="n">
-        <v>112262.5732</v>
+        <v>353981.7281</v>
       </c>
       <c r="G35" t="n">
-        <v>-8324977.059150355</v>
+        <v>-6187103.789671909</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1698,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.765</v>
+        <v>1.859</v>
       </c>
       <c r="C36" t="n">
-        <v>1.77</v>
+        <v>1.836</v>
       </c>
       <c r="D36" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="E36" t="n">
-        <v>1.765</v>
+        <v>1.836</v>
       </c>
       <c r="F36" t="n">
-        <v>166743.3792666667</v>
+        <v>1120038.3444</v>
       </c>
       <c r="G36" t="n">
-        <v>-8158233.679883689</v>
+        <v>-7307142.134071909</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1734,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="C37" t="n">
-        <v>1.733</v>
+        <v>1.836</v>
       </c>
       <c r="D37" t="n">
-        <v>1.77</v>
+        <v>1.869</v>
       </c>
       <c r="E37" t="n">
-        <v>1.733</v>
+        <v>1.836</v>
       </c>
       <c r="F37" t="n">
-        <v>354719.8794333333</v>
+        <v>415123.1943</v>
       </c>
       <c r="G37" t="n">
-        <v>-8512953.559317023</v>
+        <v>-7307142.134071909</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1770,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.746</v>
+        <v>1.84</v>
       </c>
       <c r="C38" t="n">
-        <v>1.769</v>
+        <v>1.84</v>
       </c>
       <c r="D38" t="n">
-        <v>1.769</v>
+        <v>1.84</v>
       </c>
       <c r="E38" t="n">
-        <v>1.746</v>
+        <v>1.836</v>
       </c>
       <c r="F38" t="n">
-        <v>474665.2838</v>
+        <v>277458.9648</v>
       </c>
       <c r="G38" t="n">
-        <v>-8038288.275517022</v>
+        <v>-7029683.169271909</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1806,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="C39" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="D39" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="E39" t="n">
-        <v>1.741</v>
+        <v>1.84</v>
       </c>
       <c r="F39" t="n">
-        <v>1998999.1663</v>
+        <v>275502.602</v>
       </c>
       <c r="G39" t="n">
-        <v>-10037287.44181702</v>
+        <v>-7029683.169271909</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1842,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.766</v>
+        <v>1.84</v>
       </c>
       <c r="C40" t="n">
-        <v>1.766</v>
+        <v>1.84</v>
       </c>
       <c r="D40" t="n">
-        <v>1.766</v>
+        <v>1.84</v>
       </c>
       <c r="E40" t="n">
-        <v>1.766</v>
+        <v>1.84</v>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>211058.8419</v>
       </c>
       <c r="G40" t="n">
-        <v>-10036987.44181702</v>
+        <v>-7029683.169271909</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1878,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="C41" t="n">
-        <v>1.75</v>
+        <v>1.836</v>
       </c>
       <c r="D41" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="E41" t="n">
-        <v>1.75</v>
+        <v>1.836</v>
       </c>
       <c r="F41" t="n">
-        <v>158897.9286</v>
+        <v>552314.9107</v>
       </c>
       <c r="G41" t="n">
-        <v>-10195885.37041702</v>
+        <v>-7581998.079971909</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1914,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.75</v>
+        <v>1.836</v>
       </c>
       <c r="C42" t="n">
-        <v>1.766</v>
+        <v>1.836</v>
       </c>
       <c r="D42" t="n">
-        <v>1.766</v>
+        <v>1.836</v>
       </c>
       <c r="E42" t="n">
-        <v>1.75</v>
+        <v>1.836</v>
       </c>
       <c r="F42" t="n">
-        <v>80316.0885</v>
+        <v>89000</v>
       </c>
       <c r="G42" t="n">
-        <v>-10115569.28191702</v>
+        <v>-7581998.079971909</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1950,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.741</v>
+        <v>1.836</v>
       </c>
       <c r="C43" t="n">
-        <v>1.735</v>
+        <v>1.832</v>
       </c>
       <c r="D43" t="n">
-        <v>1.741</v>
+        <v>1.836</v>
       </c>
       <c r="E43" t="n">
-        <v>1.735</v>
+        <v>1.832</v>
       </c>
       <c r="F43" t="n">
-        <v>848435.1259</v>
+        <v>145000</v>
       </c>
       <c r="G43" t="n">
-        <v>-10964004.40781702</v>
+        <v>-7726998.079971909</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1986,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.735</v>
+        <v>1.838</v>
       </c>
       <c r="C44" t="n">
-        <v>1.765</v>
+        <v>1.836</v>
       </c>
       <c r="D44" t="n">
-        <v>1.765</v>
+        <v>1.84</v>
       </c>
       <c r="E44" t="n">
-        <v>1.735</v>
+        <v>1.801</v>
       </c>
       <c r="F44" t="n">
-        <v>159311.8223</v>
+        <v>2566345.133</v>
       </c>
       <c r="G44" t="n">
-        <v>-10804692.58551702</v>
+        <v>-5160652.946971908</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +2022,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.735</v>
+        <v>1.802</v>
       </c>
       <c r="C45" t="n">
-        <v>1.733</v>
+        <v>1.86</v>
       </c>
       <c r="D45" t="n">
-        <v>1.735</v>
+        <v>1.86</v>
       </c>
       <c r="E45" t="n">
-        <v>1.733</v>
+        <v>1.76</v>
       </c>
       <c r="F45" t="n">
-        <v>257777.3529</v>
+        <v>4492017.2618</v>
       </c>
       <c r="G45" t="n">
-        <v>-11062469.93841702</v>
+        <v>-668635.6851719078</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2058,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.766</v>
+        <v>1.829</v>
       </c>
       <c r="C46" t="n">
-        <v>1.766</v>
+        <v>1.829</v>
       </c>
       <c r="D46" t="n">
-        <v>1.766</v>
+        <v>1.829</v>
       </c>
       <c r="E46" t="n">
-        <v>1.766</v>
+        <v>1.829</v>
       </c>
       <c r="F46" t="n">
-        <v>301</v>
+        <v>292547.1742</v>
       </c>
       <c r="G46" t="n">
-        <v>-11062168.93841702</v>
+        <v>-961182.8593719078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2094,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
       <c r="C47" t="n">
-        <v>1.733</v>
+        <v>1.77</v>
       </c>
       <c r="D47" t="n">
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
       <c r="E47" t="n">
-        <v>1.733</v>
+        <v>1.77</v>
       </c>
       <c r="F47" t="n">
-        <v>938878.6756215552</v>
+        <v>345393</v>
       </c>
       <c r="G47" t="n">
-        <v>-12001047.61403858</v>
+        <v>-1306575.859371908</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2130,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.733</v>
+        <v>1.775</v>
       </c>
       <c r="C48" t="n">
-        <v>1.766</v>
+        <v>1.763</v>
       </c>
       <c r="D48" t="n">
-        <v>1.766</v>
+        <v>1.775</v>
       </c>
       <c r="E48" t="n">
-        <v>1.733</v>
+        <v>1.763</v>
       </c>
       <c r="F48" t="n">
-        <v>17598</v>
+        <v>1157190.1558</v>
       </c>
       <c r="G48" t="n">
-        <v>-11983449.61403858</v>
+        <v>-2463766.015171908</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,22 +2166,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.766</v>
+        <v>1.817</v>
       </c>
       <c r="C49" t="n">
-        <v>1.766</v>
+        <v>1.768</v>
       </c>
       <c r="D49" t="n">
-        <v>1.766</v>
+        <v>1.817</v>
       </c>
       <c r="E49" t="n">
-        <v>1.766</v>
+        <v>1.768</v>
       </c>
       <c r="F49" t="n">
-        <v>1674.5339</v>
+        <v>600</v>
       </c>
       <c r="G49" t="n">
-        <v>-11983449.61403858</v>
+        <v>-2463166.015171908</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,28 +2202,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.73</v>
+        <v>1.773</v>
       </c>
       <c r="C50" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="D50" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="E50" t="n">
-        <v>1.73</v>
+        <v>1.773</v>
       </c>
       <c r="F50" t="n">
-        <v>678195.5741</v>
+        <v>364921.3172</v>
       </c>
       <c r="G50" t="n">
-        <v>-12661645.18813858</v>
+        <v>-2098244.697971908</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,22 +2238,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.732</v>
+        <v>1.779</v>
       </c>
       <c r="C51" t="n">
-        <v>1.732</v>
+        <v>1.807</v>
       </c>
       <c r="D51" t="n">
-        <v>1.732</v>
+        <v>1.807</v>
       </c>
       <c r="E51" t="n">
-        <v>1.732</v>
+        <v>1.77</v>
       </c>
       <c r="F51" t="n">
-        <v>1167.8472</v>
+        <v>524267.0958</v>
       </c>
       <c r="G51" t="n">
-        <v>-12660477.34093858</v>
+        <v>-1573977.602171908</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.732</v>
+        <v>1.83</v>
       </c>
       <c r="C52" t="n">
-        <v>1.732</v>
+        <v>1.83</v>
       </c>
       <c r="D52" t="n">
-        <v>1.732</v>
+        <v>1.83</v>
       </c>
       <c r="E52" t="n">
-        <v>1.732</v>
+        <v>1.83</v>
       </c>
       <c r="F52" t="n">
-        <v>41582.1217</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>-12660477.34093858</v>
+        <v>-1572977.602171908</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.732</v>
+        <v>1.819</v>
       </c>
       <c r="C53" t="n">
-        <v>1.732</v>
+        <v>1.79</v>
       </c>
       <c r="D53" t="n">
-        <v>1.732</v>
+        <v>1.88</v>
       </c>
       <c r="E53" t="n">
-        <v>1.732</v>
+        <v>1.79</v>
       </c>
       <c r="F53" t="n">
-        <v>1674.5339</v>
+        <v>1220045.2333</v>
       </c>
       <c r="G53" t="n">
-        <v>-12660477.34093858</v>
+        <v>-2793022.835471908</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,28 +2346,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.747</v>
+        <v>1.79</v>
       </c>
       <c r="C54" t="n">
-        <v>1.747</v>
+        <v>1.877</v>
       </c>
       <c r="D54" t="n">
-        <v>1.747</v>
+        <v>1.877</v>
       </c>
       <c r="E54" t="n">
-        <v>1.732</v>
+        <v>1.78</v>
       </c>
       <c r="F54" t="n">
-        <v>600877.613</v>
+        <v>656209.3571</v>
       </c>
       <c r="G54" t="n">
-        <v>-12059599.72793858</v>
+        <v>-2136813.478371907</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2382,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.732</v>
+        <v>1.86</v>
       </c>
       <c r="C55" t="n">
-        <v>1.731</v>
+        <v>1.857</v>
       </c>
       <c r="D55" t="n">
-        <v>1.732</v>
+        <v>1.86</v>
       </c>
       <c r="E55" t="n">
-        <v>1.731</v>
+        <v>1.822</v>
       </c>
       <c r="F55" t="n">
-        <v>414839.7519</v>
+        <v>213240.9651</v>
       </c>
       <c r="G55" t="n">
-        <v>-12474439.47983858</v>
+        <v>-2350054.443471908</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2418,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.731</v>
+        <v>1.796</v>
       </c>
       <c r="C56" t="n">
-        <v>1.731</v>
+        <v>1.796</v>
       </c>
       <c r="D56" t="n">
-        <v>1.731</v>
+        <v>1.796</v>
       </c>
       <c r="E56" t="n">
-        <v>1.729</v>
+        <v>1.796</v>
       </c>
       <c r="F56" t="n">
-        <v>590402.1836</v>
+        <v>60000</v>
       </c>
       <c r="G56" t="n">
-        <v>-12474439.47983858</v>
+        <v>-2410054.443471908</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2454,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.714</v>
+        <v>1.795</v>
       </c>
       <c r="C57" t="n">
-        <v>1.714</v>
+        <v>1.795</v>
       </c>
       <c r="D57" t="n">
-        <v>1.714</v>
+        <v>1.795</v>
       </c>
       <c r="E57" t="n">
-        <v>1.714</v>
+        <v>1.795</v>
       </c>
       <c r="F57" t="n">
-        <v>296</v>
+        <v>6989.52</v>
       </c>
       <c r="G57" t="n">
-        <v>-12474735.47983858</v>
+        <v>-2417043.963471908</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2490,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.731</v>
+        <v>1.825</v>
       </c>
       <c r="C58" t="n">
-        <v>1.765</v>
+        <v>1.79</v>
       </c>
       <c r="D58" t="n">
-        <v>1.765</v>
+        <v>1.825</v>
       </c>
       <c r="E58" t="n">
-        <v>1.731</v>
+        <v>1.79</v>
       </c>
       <c r="F58" t="n">
-        <v>59598</v>
+        <v>46989.52</v>
       </c>
       <c r="G58" t="n">
-        <v>-12415137.47983858</v>
+        <v>-2464033.483471908</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2526,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.749</v>
+        <v>1.79</v>
       </c>
       <c r="C59" t="n">
-        <v>1.802</v>
+        <v>1.79</v>
       </c>
       <c r="D59" t="n">
-        <v>1.802</v>
+        <v>1.79</v>
       </c>
       <c r="E59" t="n">
-        <v>1.749</v>
+        <v>1.788</v>
       </c>
       <c r="F59" t="n">
-        <v>757252.3342589479</v>
+        <v>35599.12</v>
       </c>
       <c r="G59" t="n">
-        <v>-11657885.14557963</v>
+        <v>-2464033.483471908</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2562,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.76</v>
+        <v>1.793</v>
       </c>
       <c r="C60" t="n">
-        <v>1.751</v>
+        <v>1.788</v>
       </c>
       <c r="D60" t="n">
-        <v>1.8</v>
+        <v>1.793</v>
       </c>
       <c r="E60" t="n">
-        <v>1.741</v>
+        <v>1.788</v>
       </c>
       <c r="F60" t="n">
-        <v>121746.57</v>
+        <v>49617.53</v>
       </c>
       <c r="G60" t="n">
-        <v>-11779631.71557963</v>
+        <v>-2513651.013471907</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2598,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.76</v>
+        <v>1.789</v>
       </c>
       <c r="C61" t="n">
-        <v>1.742</v>
+        <v>1.789</v>
       </c>
       <c r="D61" t="n">
-        <v>1.798</v>
+        <v>1.789</v>
       </c>
       <c r="E61" t="n">
-        <v>1.742</v>
+        <v>1.789</v>
       </c>
       <c r="F61" t="n">
-        <v>340280</v>
+        <v>40000</v>
       </c>
       <c r="G61" t="n">
-        <v>-12119911.71557963</v>
+        <v>-2473651.013471907</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2634,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.741</v>
+        <v>1.819</v>
       </c>
       <c r="C62" t="n">
-        <v>1.741</v>
+        <v>1.82</v>
       </c>
       <c r="D62" t="n">
-        <v>1.741</v>
+        <v>1.82</v>
       </c>
       <c r="E62" t="n">
-        <v>1.741</v>
+        <v>1.819</v>
       </c>
       <c r="F62" t="n">
-        <v>33346.0045</v>
+        <v>227465.227</v>
       </c>
       <c r="G62" t="n">
-        <v>-12153257.72007963</v>
+        <v>-2246185.786471908</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2670,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.74</v>
+        <v>1.801</v>
       </c>
       <c r="C63" t="n">
-        <v>1.749</v>
+        <v>1.801</v>
       </c>
       <c r="D63" t="n">
-        <v>1.749</v>
+        <v>1.801</v>
       </c>
       <c r="E63" t="n">
-        <v>1.74</v>
+        <v>1.801</v>
       </c>
       <c r="F63" t="n">
-        <v>143537.4463</v>
+        <v>10217.5</v>
       </c>
       <c r="G63" t="n">
-        <v>-12009720.27377963</v>
+        <v>-2256403.286471908</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2706,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.74</v>
+        <v>1.801</v>
       </c>
       <c r="C64" t="n">
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
       <c r="D64" t="n">
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
       <c r="E64" t="n">
-        <v>1.74</v>
+        <v>1.801</v>
       </c>
       <c r="F64" t="n">
-        <v>290</v>
+        <v>56859.71</v>
       </c>
       <c r="G64" t="n">
-        <v>-12010010.27377963</v>
+        <v>-2199543.576471908</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2742,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.73</v>
+        <v>1.829</v>
       </c>
       <c r="C65" t="n">
-        <v>1.72</v>
+        <v>1.805</v>
       </c>
       <c r="D65" t="n">
-        <v>1.73</v>
+        <v>1.829</v>
       </c>
       <c r="E65" t="n">
-        <v>1.72</v>
+        <v>1.803</v>
       </c>
       <c r="F65" t="n">
-        <v>406609.7779</v>
+        <v>106276.04</v>
       </c>
       <c r="G65" t="n">
-        <v>-12416620.05167963</v>
+        <v>-2305819.616471908</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2778,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.724</v>
+        <v>1.829</v>
       </c>
       <c r="C66" t="n">
-        <v>1.724</v>
+        <v>1.829</v>
       </c>
       <c r="D66" t="n">
-        <v>1.724</v>
+        <v>1.879</v>
       </c>
       <c r="E66" t="n">
-        <v>1.724</v>
+        <v>1.829</v>
       </c>
       <c r="F66" t="n">
-        <v>64259.0039</v>
+        <v>1703359.5322</v>
       </c>
       <c r="G66" t="n">
-        <v>-12352361.04777963</v>
+        <v>-602460.0842719076</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2814,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.724</v>
+        <v>1.829</v>
       </c>
       <c r="C67" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="D67" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="E67" t="n">
-        <v>1.724</v>
+        <v>1.81</v>
       </c>
       <c r="F67" t="n">
-        <v>5408</v>
+        <v>286713.9087</v>
       </c>
       <c r="G67" t="n">
-        <v>-12346953.04777963</v>
+        <v>-889173.9929719076</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2850,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.724</v>
+        <v>1.817</v>
       </c>
       <c r="C68" t="n">
-        <v>1.77</v>
+        <v>1.817</v>
       </c>
       <c r="D68" t="n">
-        <v>1.78</v>
+        <v>1.817</v>
       </c>
       <c r="E68" t="n">
-        <v>1.724</v>
+        <v>1.817</v>
       </c>
       <c r="F68" t="n">
-        <v>758103.3071</v>
+        <v>2415.33</v>
       </c>
       <c r="G68" t="n">
-        <v>-11588849.74067963</v>
+        <v>-886758.6629719076</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2886,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.74</v>
+        <v>1.817</v>
       </c>
       <c r="C69" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="D69" t="n">
-        <v>1.74</v>
+        <v>1.817</v>
       </c>
       <c r="E69" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="F69" t="n">
-        <v>14027.13689655172</v>
+        <v>1150000</v>
       </c>
       <c r="G69" t="n">
-        <v>-11602876.87757618</v>
+        <v>-2036758.662971908</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2922,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="C70" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="D70" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="E70" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="F70" t="n">
-        <v>11895.7248</v>
+        <v>19970.04</v>
       </c>
       <c r="G70" t="n">
-        <v>-11590981.15277618</v>
+        <v>-2036758.662971908</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2958,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.725</v>
+        <v>1.849</v>
       </c>
       <c r="C71" t="n">
-        <v>1.725</v>
+        <v>1.815</v>
       </c>
       <c r="D71" t="n">
-        <v>1.725</v>
+        <v>1.849</v>
       </c>
       <c r="E71" t="n">
-        <v>1.725</v>
+        <v>1.815</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>32139.0762</v>
       </c>
       <c r="G71" t="n">
-        <v>-11591481.15277618</v>
+        <v>-2004619.586771908</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,28 +2994,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.725</v>
+        <v>1.815</v>
       </c>
       <c r="C72" t="n">
-        <v>1.724</v>
+        <v>1.815</v>
       </c>
       <c r="D72" t="n">
-        <v>1.725</v>
+        <v>1.816</v>
       </c>
       <c r="E72" t="n">
-        <v>1.724</v>
+        <v>1.815</v>
       </c>
       <c r="F72" t="n">
-        <v>981409.3463</v>
+        <v>166379.4</v>
       </c>
       <c r="G72" t="n">
-        <v>-12572890.49907618</v>
+        <v>-2004619.586771908</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +3030,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.74</v>
+        <v>1.816</v>
       </c>
       <c r="C73" t="n">
-        <v>1.74</v>
+        <v>1.816</v>
       </c>
       <c r="D73" t="n">
-        <v>1.74</v>
+        <v>1.849</v>
       </c>
       <c r="E73" t="n">
-        <v>1.74</v>
+        <v>1.816</v>
       </c>
       <c r="F73" t="n">
-        <v>290</v>
+        <v>86641.6976</v>
       </c>
       <c r="G73" t="n">
-        <v>-12572600.49907618</v>
+        <v>-1917977.889171908</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3066,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.724</v>
+        <v>1.816</v>
       </c>
       <c r="C74" t="n">
-        <v>1.723</v>
+        <v>1.849</v>
       </c>
       <c r="D74" t="n">
-        <v>1.724</v>
+        <v>1.849</v>
       </c>
       <c r="E74" t="n">
-        <v>1.723</v>
+        <v>1.816</v>
       </c>
       <c r="F74" t="n">
-        <v>313521.7101</v>
+        <v>129494.8674</v>
       </c>
       <c r="G74" t="n">
-        <v>-12886122.20917618</v>
+        <v>-1788483.021771908</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3102,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.723</v>
+        <v>1.816</v>
       </c>
       <c r="C75" t="n">
-        <v>1.722</v>
+        <v>1.815</v>
       </c>
       <c r="D75" t="n">
-        <v>1.723</v>
+        <v>1.816</v>
       </c>
       <c r="E75" t="n">
-        <v>1.722</v>
+        <v>1.815</v>
       </c>
       <c r="F75" t="n">
-        <v>608607.5954</v>
+        <v>40000</v>
       </c>
       <c r="G75" t="n">
-        <v>-13494729.80457618</v>
+        <v>-1828483.021771908</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,28 +3138,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.722</v>
+        <v>1.815</v>
       </c>
       <c r="C76" t="n">
-        <v>1.71</v>
+        <v>1.811</v>
       </c>
       <c r="D76" t="n">
-        <v>1.722</v>
+        <v>1.815</v>
       </c>
       <c r="E76" t="n">
-        <v>1.71</v>
+        <v>1.811</v>
       </c>
       <c r="F76" t="n">
-        <v>413453.7983</v>
+        <v>157841.9096</v>
       </c>
       <c r="G76" t="n">
-        <v>-13908183.60287618</v>
+        <v>-1986324.931371908</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3174,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.723</v>
+        <v>1.811</v>
       </c>
       <c r="C77" t="n">
-        <v>1.723</v>
+        <v>1.811</v>
       </c>
       <c r="D77" t="n">
-        <v>1.723</v>
+        <v>1.812</v>
       </c>
       <c r="E77" t="n">
-        <v>1.723</v>
+        <v>1.811</v>
       </c>
       <c r="F77" t="n">
-        <v>291</v>
+        <v>2973145.4419</v>
       </c>
       <c r="G77" t="n">
-        <v>-13907892.60287618</v>
+        <v>-1986324.931371908</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3210,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.723</v>
+        <v>1.812</v>
       </c>
       <c r="C78" t="n">
-        <v>1.723</v>
+        <v>1.812</v>
       </c>
       <c r="D78" t="n">
-        <v>1.723</v>
+        <v>1.812</v>
       </c>
       <c r="E78" t="n">
-        <v>1.723</v>
+        <v>1.812</v>
       </c>
       <c r="F78" t="n">
-        <v>4990.5338</v>
+        <v>9985.02</v>
       </c>
       <c r="G78" t="n">
-        <v>-13907892.60287618</v>
+        <v>-1976339.911371908</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3246,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.738</v>
+        <v>1.813</v>
       </c>
       <c r="C79" t="n">
-        <v>1.738</v>
+        <v>1.81</v>
       </c>
       <c r="D79" t="n">
-        <v>1.738</v>
+        <v>1.813</v>
       </c>
       <c r="E79" t="n">
-        <v>1.738</v>
+        <v>1.81</v>
       </c>
       <c r="F79" t="n">
-        <v>290</v>
+        <v>699354.3776</v>
       </c>
       <c r="G79" t="n">
-        <v>-13907602.60287618</v>
+        <v>-2675694.288971907</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3282,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.738</v>
+        <v>1.81</v>
       </c>
       <c r="C80" t="n">
-        <v>1.738</v>
+        <v>1.761</v>
       </c>
       <c r="D80" t="n">
-        <v>1.738</v>
+        <v>1.81</v>
       </c>
       <c r="E80" t="n">
-        <v>1.738</v>
+        <v>1.761</v>
       </c>
       <c r="F80" t="n">
-        <v>82487.24980000001</v>
+        <v>469616.4554</v>
       </c>
       <c r="G80" t="n">
-        <v>-13907602.60287618</v>
+        <v>-3145310.744371907</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3318,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.738</v>
+        <v>1.761</v>
       </c>
       <c r="C81" t="n">
-        <v>1.738</v>
+        <v>1.761</v>
       </c>
       <c r="D81" t="n">
-        <v>1.738</v>
+        <v>1.83</v>
       </c>
       <c r="E81" t="n">
-        <v>1.738</v>
+        <v>1.761</v>
       </c>
       <c r="F81" t="n">
-        <v>33862.7481</v>
+        <v>1415800.6998</v>
       </c>
       <c r="G81" t="n">
-        <v>-13907602.60287618</v>
+        <v>-3145310.744371907</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3354,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.725</v>
+        <v>1.817</v>
       </c>
       <c r="C82" t="n">
-        <v>1.725</v>
+        <v>1.817</v>
       </c>
       <c r="D82" t="n">
-        <v>1.725</v>
+        <v>1.817</v>
       </c>
       <c r="E82" t="n">
-        <v>1.725</v>
+        <v>1.817</v>
       </c>
       <c r="F82" t="n">
-        <v>512937.9657</v>
+        <v>470.4199</v>
       </c>
       <c r="G82" t="n">
-        <v>-14420540.56857619</v>
+        <v>-3144840.324471907</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3390,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.727</v>
+        <v>1.776</v>
       </c>
       <c r="C83" t="n">
-        <v>1.738</v>
+        <v>1.78</v>
       </c>
       <c r="D83" t="n">
-        <v>1.738</v>
+        <v>1.78</v>
       </c>
       <c r="E83" t="n">
-        <v>1.727</v>
+        <v>1.775</v>
       </c>
       <c r="F83" t="n">
-        <v>240480.7022</v>
+        <v>447067.1531</v>
       </c>
       <c r="G83" t="n">
-        <v>-14180059.86637619</v>
+        <v>-3591907.477571907</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3426,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.738</v>
+        <v>1.774</v>
       </c>
       <c r="C84" t="n">
-        <v>1.738</v>
+        <v>1.79</v>
       </c>
       <c r="D84" t="n">
-        <v>1.738</v>
+        <v>1.79</v>
       </c>
       <c r="E84" t="n">
-        <v>1.738</v>
+        <v>1.774</v>
       </c>
       <c r="F84" t="n">
-        <v>10000</v>
+        <v>491229.4492</v>
       </c>
       <c r="G84" t="n">
-        <v>-14180059.86637619</v>
+        <v>-3100678.028371907</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3462,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.727</v>
+        <v>1.772</v>
       </c>
       <c r="C85" t="n">
-        <v>1.725</v>
+        <v>1.79</v>
       </c>
       <c r="D85" t="n">
-        <v>1.727</v>
+        <v>1.79</v>
       </c>
       <c r="E85" t="n">
-        <v>1.725</v>
+        <v>1.76</v>
       </c>
       <c r="F85" t="n">
-        <v>965739.9836</v>
+        <v>1202243.525</v>
       </c>
       <c r="G85" t="n">
-        <v>-15145799.84997619</v>
+        <v>-3100678.028371907</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3498,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.725</v>
+        <v>1.806</v>
       </c>
       <c r="C86" t="n">
-        <v>1.738</v>
+        <v>1.806</v>
       </c>
       <c r="D86" t="n">
-        <v>1.738</v>
+        <v>1.806</v>
       </c>
       <c r="E86" t="n">
-        <v>1.713</v>
+        <v>1.806</v>
       </c>
       <c r="F86" t="n">
-        <v>997812.189</v>
+        <v>130545.7452</v>
       </c>
       <c r="G86" t="n">
-        <v>-14147987.66097619</v>
+        <v>-2970132.283171907</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3534,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.737</v>
+        <v>1.776</v>
       </c>
       <c r="C87" t="n">
-        <v>1.737</v>
+        <v>1.775</v>
       </c>
       <c r="D87" t="n">
-        <v>1.737</v>
+        <v>1.776</v>
       </c>
       <c r="E87" t="n">
-        <v>1.737</v>
+        <v>1.775</v>
       </c>
       <c r="F87" t="n">
-        <v>290</v>
+        <v>77103.0741</v>
       </c>
       <c r="G87" t="n">
-        <v>-14148277.66097619</v>
+        <v>-3047235.357271907</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,22 +3570,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.736</v>
+        <v>1.781</v>
       </c>
       <c r="C88" t="n">
-        <v>1.736</v>
+        <v>1.762</v>
       </c>
       <c r="D88" t="n">
-        <v>1.736</v>
+        <v>1.781</v>
       </c>
       <c r="E88" t="n">
-        <v>1.736</v>
+        <v>1.762</v>
       </c>
       <c r="F88" t="n">
-        <v>219258.8936</v>
+        <v>2078540.2281</v>
       </c>
       <c r="G88" t="n">
-        <v>-14367536.55457619</v>
+        <v>-5125775.585371907</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3606,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.736</v>
+        <v>1.77</v>
       </c>
       <c r="C89" t="n">
-        <v>1.736</v>
+        <v>1.762</v>
       </c>
       <c r="D89" t="n">
-        <v>1.736</v>
+        <v>1.77</v>
       </c>
       <c r="E89" t="n">
-        <v>1.736</v>
+        <v>1.762</v>
       </c>
       <c r="F89" t="n">
-        <v>219512.0723</v>
+        <v>774111.0759000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-14367536.55457619</v>
+        <v>-5125775.585371907</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3642,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="C90" t="n">
-        <v>1.692</v>
+        <v>1.755</v>
       </c>
       <c r="D90" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="E90" t="n">
-        <v>1.692</v>
+        <v>1.73</v>
       </c>
       <c r="F90" t="n">
-        <v>1999561.4453</v>
+        <v>1129619.088</v>
       </c>
       <c r="G90" t="n">
-        <v>-16367097.99987619</v>
+        <v>-6255394.673371907</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3678,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.729</v>
+        <v>1.754</v>
       </c>
       <c r="C91" t="n">
-        <v>1.729</v>
+        <v>1.726</v>
       </c>
       <c r="D91" t="n">
-        <v>1.729</v>
+        <v>1.754</v>
       </c>
       <c r="E91" t="n">
-        <v>1.729</v>
+        <v>1.724</v>
       </c>
       <c r="F91" t="n">
-        <v>290</v>
+        <v>1135680.53</v>
       </c>
       <c r="G91" t="n">
-        <v>-16366807.99987619</v>
+        <v>-7391075.203371908</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3714,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.7</v>
+        <v>1.724</v>
       </c>
       <c r="C92" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7</v>
+        <v>1.724</v>
       </c>
       <c r="E92" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="F92" t="n">
-        <v>1542.4151</v>
+        <v>596255.6233</v>
       </c>
       <c r="G92" t="n">
-        <v>-16368350.41497619</v>
+        <v>-7987330.826671908</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3750,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.729</v>
+        <v>1.708</v>
       </c>
       <c r="C93" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="D93" t="n">
-        <v>1.729</v>
+        <v>1.745</v>
       </c>
       <c r="E93" t="n">
-        <v>1.729</v>
+        <v>1.707</v>
       </c>
       <c r="F93" t="n">
-        <v>13942.8929</v>
+        <v>945040.578</v>
       </c>
       <c r="G93" t="n">
-        <v>-16354407.52207619</v>
+        <v>-7042290.248671908</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3786,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.708</v>
+        <v>1.729</v>
       </c>
       <c r="C94" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="E94" t="n">
-        <v>1.708</v>
+        <v>1.729</v>
       </c>
       <c r="F94" t="n">
-        <v>48990.2</v>
+        <v>60000</v>
       </c>
       <c r="G94" t="n">
-        <v>-16305417.32207619</v>
+        <v>-7102290.248671908</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3822,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.725</v>
+        <v>1.728</v>
       </c>
       <c r="C95" t="n">
-        <v>1.737</v>
+        <v>1.728</v>
       </c>
       <c r="D95" t="n">
-        <v>1.737</v>
+        <v>1.728</v>
       </c>
       <c r="E95" t="n">
-        <v>1.725</v>
+        <v>1.712</v>
       </c>
       <c r="F95" t="n">
-        <v>216105.4196</v>
+        <v>1431759.0652</v>
       </c>
       <c r="G95" t="n">
-        <v>-16089311.90247619</v>
+        <v>-8534049.313871909</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3858,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.711</v>
+        <v>1.718</v>
       </c>
       <c r="C96" t="n">
-        <v>1.71</v>
+        <v>1.738</v>
       </c>
       <c r="D96" t="n">
-        <v>1.711</v>
+        <v>1.738</v>
       </c>
       <c r="E96" t="n">
-        <v>1.71</v>
+        <v>1.717</v>
       </c>
       <c r="F96" t="n">
-        <v>271335.641</v>
+        <v>929583.5542</v>
       </c>
       <c r="G96" t="n">
-        <v>-16360647.54347619</v>
+        <v>-7604465.759671909</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3894,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.729</v>
+        <v>1.738</v>
       </c>
       <c r="C97" t="n">
-        <v>1.729</v>
+        <v>1.738</v>
       </c>
       <c r="D97" t="n">
-        <v>1.729</v>
+        <v>1.738</v>
       </c>
       <c r="E97" t="n">
-        <v>1.729</v>
+        <v>1.738</v>
       </c>
       <c r="F97" t="n">
-        <v>220454.3911</v>
+        <v>243000</v>
       </c>
       <c r="G97" t="n">
-        <v>-16140193.15237619</v>
+        <v>-7604465.759671909</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3930,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.729</v>
+        <v>1.74</v>
       </c>
       <c r="C98" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="D98" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E98" t="n">
-        <v>1.729</v>
+        <v>1.74</v>
       </c>
       <c r="F98" t="n">
-        <v>14300</v>
+        <v>63535.2572</v>
       </c>
       <c r="G98" t="n">
-        <v>-16125893.15237619</v>
+        <v>-7540930.502471909</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3966,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.73</v>
+        <v>1.748</v>
       </c>
       <c r="C99" t="n">
         <v>1.73</v>
       </c>
       <c r="D99" t="n">
-        <v>1.73</v>
+        <v>1.799</v>
       </c>
       <c r="E99" t="n">
-        <v>1.73</v>
+        <v>1.721</v>
       </c>
       <c r="F99" t="n">
-        <v>16835</v>
+        <v>1011870.5006</v>
       </c>
       <c r="G99" t="n">
-        <v>-16125893.15237619</v>
+        <v>-8552801.00307191</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4002,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.711</v>
+        <v>1.749</v>
       </c>
       <c r="C100" t="n">
-        <v>1.73</v>
+        <v>1.749</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73</v>
+        <v>1.749</v>
       </c>
       <c r="E100" t="n">
-        <v>1.711</v>
+        <v>1.749</v>
       </c>
       <c r="F100" t="n">
-        <v>37344.1455</v>
+        <v>421288.5610215552</v>
       </c>
       <c r="G100" t="n">
-        <v>-16125893.15237619</v>
+        <v>-8131512.442050355</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4038,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.737</v>
+        <v>1.735</v>
       </c>
       <c r="C101" t="n">
-        <v>1.737</v>
+        <v>1.735</v>
       </c>
       <c r="D101" t="n">
-        <v>1.737</v>
+        <v>1.735</v>
       </c>
       <c r="E101" t="n">
-        <v>1.737</v>
+        <v>1.735</v>
       </c>
       <c r="F101" t="n">
-        <v>290</v>
+        <v>228284.872</v>
       </c>
       <c r="G101" t="n">
-        <v>-16125603.15237619</v>
+        <v>-8359797.314050355</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4074,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.717</v>
+        <v>1.73</v>
       </c>
       <c r="C102" t="n">
-        <v>1.711</v>
+        <v>1.73</v>
       </c>
       <c r="D102" t="n">
-        <v>1.717</v>
+        <v>1.73</v>
       </c>
       <c r="E102" t="n">
-        <v>1.711</v>
+        <v>1.73</v>
       </c>
       <c r="F102" t="n">
-        <v>267042.997</v>
+        <v>137732.3183</v>
       </c>
       <c r="G102" t="n">
-        <v>-16392646.14937619</v>
+        <v>-8497529.632350355</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4110,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.737</v>
+        <v>1.731</v>
       </c>
       <c r="C103" t="n">
-        <v>1.737</v>
+        <v>1.731</v>
       </c>
       <c r="D103" t="n">
-        <v>1.737</v>
+        <v>1.731</v>
       </c>
       <c r="E103" t="n">
-        <v>1.737</v>
+        <v>1.731</v>
       </c>
       <c r="F103" t="n">
-        <v>290</v>
+        <v>60000</v>
       </c>
       <c r="G103" t="n">
-        <v>-16392356.14937619</v>
+        <v>-8437529.632350355</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4146,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.737</v>
+        <v>1.749</v>
       </c>
       <c r="C104" t="n">
-        <v>1.737</v>
+        <v>1.749</v>
       </c>
       <c r="D104" t="n">
-        <v>1.737</v>
+        <v>1.749</v>
       </c>
       <c r="E104" t="n">
-        <v>1.737</v>
+        <v>1.749</v>
       </c>
       <c r="F104" t="n">
-        <v>41223.4981</v>
+        <v>290</v>
       </c>
       <c r="G104" t="n">
-        <v>-16392356.14937619</v>
+        <v>-8437239.632350355</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4182,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.737</v>
+        <v>1.749</v>
       </c>
       <c r="C105" t="n">
-        <v>1.738</v>
+        <v>1.749</v>
       </c>
       <c r="D105" t="n">
-        <v>1.738</v>
+        <v>1.749</v>
       </c>
       <c r="E105" t="n">
-        <v>1.737</v>
+        <v>1.749</v>
       </c>
       <c r="F105" t="n">
-        <v>14300</v>
+        <v>14537.28197844483</v>
       </c>
       <c r="G105" t="n">
-        <v>-16378056.14937619</v>
+        <v>-8437239.632350355</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4218,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="C106" t="n">
-        <v>1.738</v>
+        <v>1.765</v>
       </c>
       <c r="D106" t="n">
-        <v>1.738</v>
+        <v>1.765</v>
       </c>
       <c r="E106" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="F106" t="n">
-        <v>290</v>
+        <v>112262.5732</v>
       </c>
       <c r="G106" t="n">
-        <v>-16378056.14937619</v>
+        <v>-8324977.059150355</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4254,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.737</v>
+        <v>1.765</v>
       </c>
       <c r="C107" t="n">
-        <v>1.737</v>
+        <v>1.77</v>
       </c>
       <c r="D107" t="n">
-        <v>1.737</v>
+        <v>1.77</v>
       </c>
       <c r="E107" t="n">
-        <v>1.737</v>
+        <v>1.765</v>
       </c>
       <c r="F107" t="n">
-        <v>8511.4557</v>
+        <v>166743.3792666667</v>
       </c>
       <c r="G107" t="n">
-        <v>-16386567.60507619</v>
+        <v>-8158233.679883689</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4290,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.737</v>
+        <v>1.77</v>
       </c>
       <c r="C108" t="n">
-        <v>1.737</v>
+        <v>1.733</v>
       </c>
       <c r="D108" t="n">
-        <v>1.737</v>
+        <v>1.77</v>
       </c>
       <c r="E108" t="n">
-        <v>1.737</v>
+        <v>1.733</v>
       </c>
       <c r="F108" t="n">
-        <v>366934.4775</v>
+        <v>354719.8794333333</v>
       </c>
       <c r="G108" t="n">
-        <v>-16386567.60507619</v>
+        <v>-8512953.559317023</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4326,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.714</v>
+        <v>1.746</v>
       </c>
       <c r="C109" t="n">
-        <v>1.737</v>
+        <v>1.769</v>
       </c>
       <c r="D109" t="n">
-        <v>1.737</v>
+        <v>1.769</v>
       </c>
       <c r="E109" t="n">
-        <v>1.714</v>
+        <v>1.746</v>
       </c>
       <c r="F109" t="n">
-        <v>187523.5109</v>
+        <v>474665.2838</v>
       </c>
       <c r="G109" t="n">
-        <v>-16386567.60507619</v>
+        <v>-8038288.275517022</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4362,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.737</v>
+        <v>1.75</v>
       </c>
       <c r="C110" t="n">
-        <v>1.737</v>
+        <v>1.75</v>
       </c>
       <c r="D110" t="n">
-        <v>1.737</v>
+        <v>1.75</v>
       </c>
       <c r="E110" t="n">
-        <v>1.737</v>
+        <v>1.741</v>
       </c>
       <c r="F110" t="n">
-        <v>5181.3474</v>
+        <v>1998999.1663</v>
       </c>
       <c r="G110" t="n">
-        <v>-16386567.60507619</v>
+        <v>-10037287.44181702</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4398,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.737</v>
+        <v>1.766</v>
       </c>
       <c r="C111" t="n">
-        <v>1.737</v>
+        <v>1.766</v>
       </c>
       <c r="D111" t="n">
-        <v>1.737</v>
+        <v>1.766</v>
       </c>
       <c r="E111" t="n">
-        <v>1.737</v>
+        <v>1.766</v>
       </c>
       <c r="F111" t="n">
-        <v>5757.0524</v>
+        <v>300</v>
       </c>
       <c r="G111" t="n">
-        <v>-16386567.60507619</v>
+        <v>-10036987.44181702</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4434,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.713</v>
+        <v>1.75</v>
       </c>
       <c r="C112" t="n">
-        <v>1.703</v>
+        <v>1.75</v>
       </c>
       <c r="D112" t="n">
-        <v>1.713</v>
+        <v>1.75</v>
       </c>
       <c r="E112" t="n">
-        <v>1.703</v>
+        <v>1.75</v>
       </c>
       <c r="F112" t="n">
-        <v>302630.3165</v>
+        <v>158897.9286</v>
       </c>
       <c r="G112" t="n">
-        <v>-16689197.92157619</v>
+        <v>-10195885.37041702</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4470,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.703</v>
+        <v>1.75</v>
       </c>
       <c r="C113" t="n">
-        <v>1.689</v>
+        <v>1.766</v>
       </c>
       <c r="D113" t="n">
-        <v>1.703</v>
+        <v>1.766</v>
       </c>
       <c r="E113" t="n">
-        <v>1.689</v>
+        <v>1.75</v>
       </c>
       <c r="F113" t="n">
-        <v>2270579.6282</v>
+        <v>80316.0885</v>
       </c>
       <c r="G113" t="n">
-        <v>-18959777.54977619</v>
+        <v>-10115569.28191702</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4506,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.69</v>
+        <v>1.741</v>
       </c>
       <c r="C114" t="n">
-        <v>1.712</v>
+        <v>1.735</v>
       </c>
       <c r="D114" t="n">
-        <v>1.712</v>
+        <v>1.741</v>
       </c>
       <c r="E114" t="n">
-        <v>1.69</v>
+        <v>1.735</v>
       </c>
       <c r="F114" t="n">
-        <v>439551.6241</v>
+        <v>848435.1259</v>
       </c>
       <c r="G114" t="n">
-        <v>-18520225.92567619</v>
+        <v>-10964004.40781702</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4542,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.703</v>
+        <v>1.735</v>
       </c>
       <c r="C115" t="n">
-        <v>1.703</v>
+        <v>1.765</v>
       </c>
       <c r="D115" t="n">
-        <v>1.703</v>
+        <v>1.765</v>
       </c>
       <c r="E115" t="n">
-        <v>1.703</v>
+        <v>1.735</v>
       </c>
       <c r="F115" t="n">
-        <v>11743.981</v>
+        <v>159311.8223</v>
       </c>
       <c r="G115" t="n">
-        <v>-18531969.90667619</v>
+        <v>-10804692.58551702</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4578,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.703</v>
+        <v>1.735</v>
       </c>
       <c r="C116" t="n">
-        <v>1.7</v>
+        <v>1.733</v>
       </c>
       <c r="D116" t="n">
-        <v>1.713</v>
+        <v>1.735</v>
       </c>
       <c r="E116" t="n">
-        <v>1.7</v>
+        <v>1.733</v>
       </c>
       <c r="F116" t="n">
-        <v>132449.545</v>
+        <v>257777.3529</v>
       </c>
       <c r="G116" t="n">
-        <v>-18664419.45167619</v>
+        <v>-11062469.93841702</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4614,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.698</v>
+        <v>1.766</v>
       </c>
       <c r="C117" t="n">
-        <v>1.692</v>
+        <v>1.766</v>
       </c>
       <c r="D117" t="n">
-        <v>1.698</v>
+        <v>1.766</v>
       </c>
       <c r="E117" t="n">
-        <v>1.692</v>
+        <v>1.766</v>
       </c>
       <c r="F117" t="n">
-        <v>58219.0577</v>
+        <v>301</v>
       </c>
       <c r="G117" t="n">
-        <v>-18722638.50937619</v>
+        <v>-11062168.93841702</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4650,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.712</v>
+        <v>1.74</v>
       </c>
       <c r="C118" t="n">
-        <v>1.712</v>
+        <v>1.733</v>
       </c>
       <c r="D118" t="n">
-        <v>1.712</v>
+        <v>1.74</v>
       </c>
       <c r="E118" t="n">
-        <v>1.712</v>
+        <v>1.733</v>
       </c>
       <c r="F118" t="n">
-        <v>292.0561</v>
+        <v>938878.6756215552</v>
       </c>
       <c r="G118" t="n">
-        <v>-18722346.45327619</v>
+        <v>-12001047.61403858</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4686,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.712</v>
+        <v>1.733</v>
       </c>
       <c r="C119" t="n">
-        <v>1.712</v>
+        <v>1.766</v>
       </c>
       <c r="D119" t="n">
-        <v>1.712</v>
+        <v>1.766</v>
       </c>
       <c r="E119" t="n">
-        <v>1.712</v>
+        <v>1.733</v>
       </c>
       <c r="F119" t="n">
-        <v>584.1122</v>
+        <v>17598</v>
       </c>
       <c r="G119" t="n">
-        <v>-18722346.45327619</v>
+        <v>-11983449.61403858</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4722,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.712</v>
+        <v>1.766</v>
       </c>
       <c r="C120" t="n">
-        <v>1.712</v>
+        <v>1.766</v>
       </c>
       <c r="D120" t="n">
-        <v>1.712</v>
+        <v>1.766</v>
       </c>
       <c r="E120" t="n">
-        <v>1.711</v>
+        <v>1.766</v>
       </c>
       <c r="F120" t="n">
-        <v>1168.2244</v>
+        <v>1674.5339</v>
       </c>
       <c r="G120" t="n">
-        <v>-18722346.45327619</v>
+        <v>-11983449.61403858</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4758,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.697</v>
+        <v>1.73</v>
       </c>
       <c r="C121" t="n">
-        <v>1.696</v>
+        <v>1.73</v>
       </c>
       <c r="D121" t="n">
-        <v>1.697</v>
+        <v>1.73</v>
       </c>
       <c r="E121" t="n">
-        <v>1.696</v>
+        <v>1.73</v>
       </c>
       <c r="F121" t="n">
-        <v>1161237.3902</v>
+        <v>678195.5741</v>
       </c>
       <c r="G121" t="n">
-        <v>-19883583.84347619</v>
+        <v>-12661645.18813858</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4794,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.696</v>
+        <v>1.732</v>
       </c>
       <c r="C122" t="n">
-        <v>1.696</v>
+        <v>1.732</v>
       </c>
       <c r="D122" t="n">
-        <v>1.696</v>
+        <v>1.732</v>
       </c>
       <c r="E122" t="n">
-        <v>1.696</v>
+        <v>1.732</v>
       </c>
       <c r="F122" t="n">
-        <v>135783.3365</v>
+        <v>1167.8472</v>
       </c>
       <c r="G122" t="n">
-        <v>-19883583.84347619</v>
+        <v>-12660477.34093858</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4830,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.692</v>
+        <v>1.732</v>
       </c>
       <c r="C123" t="n">
-        <v>1.692</v>
+        <v>1.732</v>
       </c>
       <c r="D123" t="n">
-        <v>1.692</v>
+        <v>1.732</v>
       </c>
       <c r="E123" t="n">
-        <v>1.692</v>
+        <v>1.732</v>
       </c>
       <c r="F123" t="n">
-        <v>4023.4278</v>
+        <v>41582.1217</v>
       </c>
       <c r="G123" t="n">
-        <v>-19887607.27127619</v>
+        <v>-12660477.34093858</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,35 +4866,31 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.711</v>
+        <v>1.732</v>
       </c>
       <c r="C124" t="n">
-        <v>1.711</v>
+        <v>1.732</v>
       </c>
       <c r="D124" t="n">
-        <v>1.712</v>
+        <v>1.732</v>
       </c>
       <c r="E124" t="n">
-        <v>1.711</v>
+        <v>1.732</v>
       </c>
       <c r="F124" t="n">
-        <v>2922.1316</v>
+        <v>1674.5339</v>
       </c>
       <c r="G124" t="n">
-        <v>-19884685.13967619</v>
+        <v>-12660477.34093858</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.692</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4870,40 +4902,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.711</v>
+        <v>1.747</v>
       </c>
       <c r="C125" t="n">
-        <v>1.712</v>
+        <v>1.747</v>
       </c>
       <c r="D125" t="n">
-        <v>1.712</v>
+        <v>1.747</v>
       </c>
       <c r="E125" t="n">
-        <v>1.711</v>
+        <v>1.732</v>
       </c>
       <c r="F125" t="n">
-        <v>151104.5448</v>
+        <v>600877.613</v>
       </c>
       <c r="G125" t="n">
-        <v>-19733580.59487619</v>
+        <v>-12059599.72793858</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1.711</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4914,40 +4938,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.713</v>
+        <v>1.732</v>
       </c>
       <c r="C126" t="n">
-        <v>1.713</v>
+        <v>1.731</v>
       </c>
       <c r="D126" t="n">
-        <v>1.713</v>
+        <v>1.732</v>
       </c>
       <c r="E126" t="n">
-        <v>1.712</v>
+        <v>1.731</v>
       </c>
       <c r="F126" t="n">
-        <v>1168.2248</v>
+        <v>414839.7519</v>
       </c>
       <c r="G126" t="n">
-        <v>-19732412.37007619</v>
+        <v>-12474439.47983858</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1.712</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4958,22 +4974,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.712</v>
+        <v>1.731</v>
       </c>
       <c r="C127" t="n">
-        <v>1.712</v>
+        <v>1.731</v>
       </c>
       <c r="D127" t="n">
-        <v>1.712</v>
+        <v>1.731</v>
       </c>
       <c r="E127" t="n">
-        <v>1.712</v>
+        <v>1.729</v>
       </c>
       <c r="F127" t="n">
-        <v>584.1122</v>
+        <v>590402.1836</v>
       </c>
       <c r="G127" t="n">
-        <v>-19732996.48227619</v>
+        <v>-12474439.47983858</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4994,22 +5010,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.712</v>
+        <v>1.714</v>
       </c>
       <c r="C128" t="n">
-        <v>1.712</v>
+        <v>1.714</v>
       </c>
       <c r="D128" t="n">
-        <v>1.713</v>
+        <v>1.714</v>
       </c>
       <c r="E128" t="n">
-        <v>1.712</v>
+        <v>1.714</v>
       </c>
       <c r="F128" t="n">
-        <v>2628.3344</v>
+        <v>296</v>
       </c>
       <c r="G128" t="n">
-        <v>-19732996.48227619</v>
+        <v>-12474735.47983858</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5030,22 +5046,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.713</v>
+        <v>1.731</v>
       </c>
       <c r="C129" t="n">
-        <v>1.713</v>
+        <v>1.765</v>
       </c>
       <c r="D129" t="n">
-        <v>1.713</v>
+        <v>1.765</v>
       </c>
       <c r="E129" t="n">
-        <v>1.713</v>
+        <v>1.731</v>
       </c>
       <c r="F129" t="n">
-        <v>291.8856</v>
+        <v>59598</v>
       </c>
       <c r="G129" t="n">
-        <v>-19732704.59667619</v>
+        <v>-12415137.47983858</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5066,22 +5082,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.712</v>
+        <v>1.749</v>
       </c>
       <c r="C130" t="n">
-        <v>1.723</v>
+        <v>1.802</v>
       </c>
       <c r="D130" t="n">
-        <v>1.723</v>
+        <v>1.802</v>
       </c>
       <c r="E130" t="n">
-        <v>1.712</v>
+        <v>1.749</v>
       </c>
       <c r="F130" t="n">
-        <v>14139.1122</v>
+        <v>757252.3342589479</v>
       </c>
       <c r="G130" t="n">
-        <v>-19718565.48447619</v>
+        <v>-11657885.14557963</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5102,22 +5118,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.722</v>
+        <v>1.76</v>
       </c>
       <c r="C131" t="n">
-        <v>1.722</v>
+        <v>1.751</v>
       </c>
       <c r="D131" t="n">
-        <v>1.722</v>
+        <v>1.8</v>
       </c>
       <c r="E131" t="n">
-        <v>1.722</v>
+        <v>1.741</v>
       </c>
       <c r="F131" t="n">
-        <v>580.7201</v>
+        <v>121746.57</v>
       </c>
       <c r="G131" t="n">
-        <v>-19719146.20457619</v>
+        <v>-11779631.71557963</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5138,22 +5154,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.722</v>
+        <v>1.76</v>
       </c>
       <c r="C132" t="n">
-        <v>1.723</v>
+        <v>1.742</v>
       </c>
       <c r="D132" t="n">
-        <v>1.723</v>
+        <v>1.798</v>
       </c>
       <c r="E132" t="n">
-        <v>1.722</v>
+        <v>1.742</v>
       </c>
       <c r="F132" t="n">
-        <v>1451.6318</v>
+        <v>340280</v>
       </c>
       <c r="G132" t="n">
-        <v>-19717694.57277619</v>
+        <v>-12119911.71557963</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5174,22 +5190,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.723</v>
+        <v>1.741</v>
       </c>
       <c r="C133" t="n">
-        <v>1.729</v>
+        <v>1.741</v>
       </c>
       <c r="D133" t="n">
-        <v>1.729</v>
+        <v>1.741</v>
       </c>
       <c r="E133" t="n">
-        <v>1.723</v>
+        <v>1.741</v>
       </c>
       <c r="F133" t="n">
-        <v>22504</v>
+        <v>33346.0045</v>
       </c>
       <c r="G133" t="n">
-        <v>-19695190.57277619</v>
+        <v>-12153257.72007963</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5210,22 +5226,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.728</v>
+        <v>1.74</v>
       </c>
       <c r="C134" t="n">
-        <v>1.729</v>
+        <v>1.749</v>
       </c>
       <c r="D134" t="n">
-        <v>1.729</v>
+        <v>1.749</v>
       </c>
       <c r="E134" t="n">
-        <v>1.728</v>
+        <v>1.74</v>
       </c>
       <c r="F134" t="n">
-        <v>39118</v>
+        <v>143537.4463</v>
       </c>
       <c r="G134" t="n">
-        <v>-19695190.57277619</v>
+        <v>-12009720.27377963</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5246,22 +5262,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.729</v>
+        <v>1.74</v>
       </c>
       <c r="C135" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="D135" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="E135" t="n">
-        <v>1.729</v>
+        <v>1.74</v>
       </c>
       <c r="F135" t="n">
-        <v>81119</v>
+        <v>290</v>
       </c>
       <c r="G135" t="n">
-        <v>-19614071.57277619</v>
+        <v>-12010010.27377963</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5285,19 +5301,19 @@
         <v>1.73</v>
       </c>
       <c r="C136" t="n">
-        <v>1.735</v>
+        <v>1.72</v>
       </c>
       <c r="D136" t="n">
-        <v>1.735</v>
+        <v>1.73</v>
       </c>
       <c r="E136" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F136" t="n">
-        <v>60290</v>
+        <v>406609.7779</v>
       </c>
       <c r="G136" t="n">
-        <v>-19553781.57277619</v>
+        <v>-12416620.05167963</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5318,22 +5334,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="C137" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="D137" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="E137" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="F137" t="n">
-        <v>4790.2448</v>
+        <v>64259.0039</v>
       </c>
       <c r="G137" t="n">
-        <v>-19553781.57277619</v>
+        <v>-12352361.04777963</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5354,22 +5370,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="C138" t="n">
-        <v>1.735</v>
+        <v>1.74</v>
       </c>
       <c r="D138" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="E138" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="F138" t="n">
-        <v>20576.3689</v>
+        <v>5408</v>
       </c>
       <c r="G138" t="n">
-        <v>-19553781.57277619</v>
+        <v>-12346953.04777963</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5390,22 +5406,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="C139" t="n">
-        <v>1.736</v>
+        <v>1.77</v>
       </c>
       <c r="D139" t="n">
-        <v>1.736</v>
+        <v>1.78</v>
       </c>
       <c r="E139" t="n">
-        <v>1.735</v>
+        <v>1.724</v>
       </c>
       <c r="F139" t="n">
-        <v>42278.1924</v>
+        <v>758103.3071</v>
       </c>
       <c r="G139" t="n">
-        <v>-19511503.38037619</v>
+        <v>-11588849.74067963</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5426,22 +5442,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="C140" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="D140" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="E140" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="F140" t="n">
-        <v>76261.8912</v>
+        <v>14027.13689655172</v>
       </c>
       <c r="G140" t="n">
-        <v>-19511503.38037619</v>
+        <v>-11602876.87757618</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5462,22 +5478,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.737</v>
+        <v>1.74</v>
       </c>
       <c r="C141" t="n">
-        <v>1.738</v>
+        <v>1.787</v>
       </c>
       <c r="D141" t="n">
-        <v>1.738</v>
+        <v>1.787</v>
       </c>
       <c r="E141" t="n">
-        <v>1.737</v>
+        <v>1.74</v>
       </c>
       <c r="F141" t="n">
-        <v>865.7053</v>
+        <v>11895.7248</v>
       </c>
       <c r="G141" t="n">
-        <v>-19510637.67507619</v>
+        <v>-11590981.15277618</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5498,22 +5514,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.736</v>
+        <v>1.725</v>
       </c>
       <c r="C142" t="n">
-        <v>1.736</v>
+        <v>1.725</v>
       </c>
       <c r="D142" t="n">
-        <v>1.736</v>
+        <v>1.725</v>
       </c>
       <c r="E142" t="n">
-        <v>1.736</v>
+        <v>1.725</v>
       </c>
       <c r="F142" t="n">
-        <v>127762.646</v>
+        <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>-19638400.32107619</v>
+        <v>-11591481.15277618</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5534,22 +5550,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.737</v>
+        <v>1.725</v>
       </c>
       <c r="C143" t="n">
-        <v>1.753</v>
+        <v>1.724</v>
       </c>
       <c r="D143" t="n">
-        <v>1.753</v>
+        <v>1.725</v>
       </c>
       <c r="E143" t="n">
-        <v>1.737</v>
+        <v>1.724</v>
       </c>
       <c r="F143" t="n">
-        <v>244042.5863</v>
+        <v>981409.3463</v>
       </c>
       <c r="G143" t="n">
-        <v>-19394357.73477619</v>
+        <v>-12572890.49907618</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5570,22 +5586,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.746</v>
+        <v>1.74</v>
       </c>
       <c r="C144" t="n">
-        <v>1.746</v>
+        <v>1.74</v>
       </c>
       <c r="D144" t="n">
-        <v>1.746</v>
+        <v>1.74</v>
       </c>
       <c r="E144" t="n">
-        <v>1.746</v>
+        <v>1.74</v>
       </c>
       <c r="F144" t="n">
-        <v>155312.2095</v>
+        <v>290</v>
       </c>
       <c r="G144" t="n">
-        <v>-19549669.94427619</v>
+        <v>-12572600.49907618</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5606,22 +5622,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.753</v>
+        <v>1.724</v>
       </c>
       <c r="C145" t="n">
-        <v>1.753</v>
+        <v>1.723</v>
       </c>
       <c r="D145" t="n">
-        <v>1.753</v>
+        <v>1.724</v>
       </c>
       <c r="E145" t="n">
-        <v>1.753</v>
+        <v>1.723</v>
       </c>
       <c r="F145" t="n">
-        <v>1140.9014</v>
+        <v>313521.7101</v>
       </c>
       <c r="G145" t="n">
-        <v>-19548529.04287619</v>
+        <v>-12886122.20917618</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5642,22 +5658,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.754</v>
+        <v>1.723</v>
       </c>
       <c r="C146" t="n">
-        <v>1.771</v>
+        <v>1.722</v>
       </c>
       <c r="D146" t="n">
-        <v>1.773</v>
+        <v>1.723</v>
       </c>
       <c r="E146" t="n">
-        <v>1.753</v>
+        <v>1.722</v>
       </c>
       <c r="F146" t="n">
-        <v>244995.3142</v>
+        <v>608607.5954</v>
       </c>
       <c r="G146" t="n">
-        <v>-19303533.72867619</v>
+        <v>-13494729.80457618</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5678,22 +5694,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.752</v>
+        <v>1.722</v>
       </c>
       <c r="C147" t="n">
-        <v>1.752</v>
+        <v>1.71</v>
       </c>
       <c r="D147" t="n">
-        <v>1.752</v>
+        <v>1.722</v>
       </c>
       <c r="E147" t="n">
-        <v>1.752</v>
+        <v>1.71</v>
       </c>
       <c r="F147" t="n">
-        <v>232968.314</v>
+        <v>413453.7983</v>
       </c>
       <c r="G147" t="n">
-        <v>-19536502.04267619</v>
+        <v>-13908183.60287618</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5714,22 +5730,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.752</v>
+        <v>1.723</v>
       </c>
       <c r="C148" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="D148" t="n">
-        <v>1.752</v>
+        <v>1.723</v>
       </c>
       <c r="E148" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="F148" t="n">
-        <v>1351544.7646</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
-        <v>-20888046.80727619</v>
+        <v>-13907892.60287618</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5750,22 +5766,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="C149" t="n">
-        <v>1.77</v>
+        <v>1.723</v>
       </c>
       <c r="D149" t="n">
-        <v>1.77</v>
+        <v>1.723</v>
       </c>
       <c r="E149" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="F149" t="n">
-        <v>269247</v>
+        <v>4990.5338</v>
       </c>
       <c r="G149" t="n">
-        <v>-20618799.80727619</v>
+        <v>-13907892.60287618</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5786,22 +5802,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.75</v>
+        <v>1.738</v>
       </c>
       <c r="C150" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="D150" t="n">
-        <v>1.75</v>
+        <v>1.738</v>
       </c>
       <c r="E150" t="n">
-        <v>1.721</v>
+        <v>1.738</v>
       </c>
       <c r="F150" t="n">
-        <v>297296.44</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
-        <v>-20916096.24727619</v>
+        <v>-13907602.60287618</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5822,22 +5838,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.767</v>
+        <v>1.738</v>
       </c>
       <c r="C151" t="n">
-        <v>1.707</v>
+        <v>1.738</v>
       </c>
       <c r="D151" t="n">
-        <v>1.767</v>
+        <v>1.738</v>
       </c>
       <c r="E151" t="n">
-        <v>1.706</v>
+        <v>1.738</v>
       </c>
       <c r="F151" t="n">
-        <v>970990.9748</v>
+        <v>82487.24980000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-21887087.22207619</v>
+        <v>-13907602.60287618</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5858,22 +5874,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.707</v>
+        <v>1.738</v>
       </c>
       <c r="C152" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="D152" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="E152" t="n">
-        <v>1.707</v>
+        <v>1.738</v>
       </c>
       <c r="F152" t="n">
-        <v>60115.66</v>
+        <v>33862.7481</v>
       </c>
       <c r="G152" t="n">
-        <v>-21826971.56207619</v>
+        <v>-13907602.60287618</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5894,22 +5910,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="C153" t="n">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="D153" t="n">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="E153" t="n">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="F153" t="n">
-        <v>285</v>
+        <v>512937.9657</v>
       </c>
       <c r="G153" t="n">
-        <v>-21826686.56207619</v>
+        <v>-14420540.56857619</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5930,7 +5946,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.738</v>
+        <v>1.727</v>
       </c>
       <c r="C154" t="n">
         <v>1.738</v>
@@ -5939,13 +5955,13 @@
         <v>1.738</v>
       </c>
       <c r="E154" t="n">
-        <v>1.738</v>
+        <v>1.727</v>
       </c>
       <c r="F154" t="n">
-        <v>927094.5363</v>
+        <v>240480.7022</v>
       </c>
       <c r="G154" t="n">
-        <v>-22753781.09837619</v>
+        <v>-14180059.86637619</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5966,22 +5982,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="C155" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="D155" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="E155" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="F155" t="n">
-        <v>310493.7382</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="n">
-        <v>-23064274.83657619</v>
+        <v>-14180059.86637619</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6002,22 +6018,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.73</v>
+        <v>1.727</v>
       </c>
       <c r="C156" t="n">
-        <v>1.736</v>
+        <v>1.725</v>
       </c>
       <c r="D156" t="n">
-        <v>1.736</v>
+        <v>1.727</v>
       </c>
       <c r="E156" t="n">
-        <v>1.73</v>
+        <v>1.725</v>
       </c>
       <c r="F156" t="n">
-        <v>1226.5541</v>
+        <v>965739.9836</v>
       </c>
       <c r="G156" t="n">
-        <v>-23063048.28247619</v>
+        <v>-15145799.84997619</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6038,1128 +6054,3800 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="F157" t="n">
+        <v>997812.189</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-14147987.66097619</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F158" t="n">
+        <v>290</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-14148277.66097619</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F159" t="n">
+        <v>219258.8936</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-14367536.55457619</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F160" t="n">
+        <v>219512.0723</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-14367536.55457619</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>1.72</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C161" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1999561.4453</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-16367097.99987619</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F162" t="n">
+        <v>290</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-16366807.99987619</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1542.4151</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-16368350.41497619</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13942.8929</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-16354407.52207619</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F165" t="n">
+        <v>48990.2</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-16305417.32207619</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="F166" t="n">
+        <v>216105.4196</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-16089311.90247619</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F167" t="n">
+        <v>271335.641</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-16360647.54347619</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F168" t="n">
+        <v>220454.3911</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-16140193.15237619</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14300</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-16125893.15237619</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F170" t="n">
+        <v>16835</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-16125893.15237619</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F171" t="n">
+        <v>37344.1455</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-16125893.15237619</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F172" t="n">
+        <v>290</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-16125603.15237619</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F173" t="n">
+        <v>267042.997</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-16392646.14937619</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F174" t="n">
+        <v>290</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-16392356.14937619</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F175" t="n">
+        <v>41223.4981</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-16392356.14937619</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F176" t="n">
+        <v>14300</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-16378056.14937619</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="F177" t="n">
+        <v>290</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-16378056.14937619</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8511.4557</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-16386567.60507619</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F179" t="n">
+        <v>366934.4775</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-16386567.60507619</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F180" t="n">
+        <v>187523.5109</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-16386567.60507619</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5181.3474</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-16386567.60507619</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5757.0524</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-16386567.60507619</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F183" t="n">
+        <v>302630.3165</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-16689197.92157619</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2270579.6282</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-18959777.54977619</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C185" t="n">
         <v>1.712</v>
       </c>
-      <c r="D157" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E157" t="n">
+      <c r="D185" t="n">
         <v>1.712</v>
       </c>
-      <c r="F157" t="n">
-        <v>553891.6364</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-23616939.91887619</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="E185" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F185" t="n">
+        <v>439551.6241</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-18520225.92567619</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F186" t="n">
+        <v>11743.981</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-18531969.90667619</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>132449.545</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-18664419.45167619</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F188" t="n">
+        <v>58219.0577</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-18722638.50937619</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F189" t="n">
+        <v>292.0561</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-18722346.45327619</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F190" t="n">
+        <v>584.1122</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-18722346.45327619</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1168.2244</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-18722346.45327619</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1161237.3902</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-19883583.84347619</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="F193" t="n">
+        <v>135783.3365</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-19883583.84347619</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4023.4278</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-19887607.27127619</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2922.1316</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-19884685.13967619</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F196" t="n">
+        <v>151104.5448</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-19733580.59487619</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1168.2248</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-19732412.37007619</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F198" t="n">
+        <v>584.1122</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-19732996.48227619</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2628.3344</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-19732996.48227619</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="F158" t="n">
-        <v>578.369</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-23616361.54987619</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="F200" t="n">
+        <v>291.8856</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-19732704.59667619</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
         <v>1.712</v>
       </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F159" t="n">
-        <v>65796.1195</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F201" t="n">
+        <v>14139.1122</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-19718565.48447619</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F160" t="n">
-        <v>94817.7071</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="F202" t="n">
+        <v>580.7201</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-19719146.20457619</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F161" t="n">
-        <v>18723.5499</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1451.6318</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-19717694.57277619</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="C204" t="n">
         <v>1.729</v>
       </c>
-      <c r="C162" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E162" t="n">
+      <c r="D204" t="n">
         <v>1.729</v>
       </c>
-      <c r="F162" t="n">
-        <v>160648</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="E204" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="F204" t="n">
+        <v>22504</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-19695190.57277619</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="F163" t="n">
-        <v>105246.8623</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-23655812.2926762</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F205" t="n">
+        <v>39118</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-19695190.57277619</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="F164" t="n">
-        <v>686438.1424</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-22969374.1502762</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F206" t="n">
+        <v>81119</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-19614071.57277619</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>1.73</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C207" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="E207" t="n">
         <v>1.73</v>
       </c>
-      <c r="D165" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1161</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-22969374.1502762</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="F207" t="n">
+        <v>60290</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-19553781.57277619</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="F166" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-22969374.1502762</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4790.2448</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-19553781.57277619</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C167" t="n">
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="D209" t="n">
         <v>1.736</v>
       </c>
-      <c r="D167" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-22967374.1502762</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="E209" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="F209" t="n">
+        <v>20576.3689</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-19553781.57277619</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F168" t="n">
-        <v>45212.4255</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-23012586.5757762</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="C210" t="n">
         <v>1.736</v>
       </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="D210" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="F210" t="n">
+        <v>42278.1924</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-19511503.38037619</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="F169" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-22992586.5757762</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F211" t="n">
+        <v>76261.8912</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-19511503.38037619</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.712</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.712</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1413451.7739</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-24406038.3496762</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F212" t="n">
+        <v>865.7053</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-19510637.67507619</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="F171" t="n">
-        <v>122657.9594</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-24528696.30907619</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F213" t="n">
+        <v>127762.646</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-19638400.32107619</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F172" t="n">
-        <v>892443.0502000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-23636253.25887619</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F214" t="n">
+        <v>244042.5863</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-19394357.73477619</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2225.8855</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-23636253.25887619</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="F215" t="n">
+        <v>155312.2095</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-19549669.94427619</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F174" t="n">
-        <v>251095.1376</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-23636253.25887619</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1140.9014</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-19548529.04287619</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F175" t="n">
-        <v>383006.6</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-23253246.65887619</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F217" t="n">
+        <v>244995.3142</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-19303533.72867619</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F176" t="n">
-        <v>7834.293</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-23261080.95187619</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F218" t="n">
+        <v>232968.314</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-19536502.04267619</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F177" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-23461080.95187619</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1351544.7646</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-20888046.80727619</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="F178" t="n">
-        <v>30848.4998</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-23491929.45167619</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F220" t="n">
+        <v>269247</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-20618799.80727619</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.718</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.718</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="F179" t="n">
-        <v>254177</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-23237752.45167619</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="F221" t="n">
+        <v>297296.44</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-20916096.24727619</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>498671.5932</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-22739080.85847619</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1.718</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F222" t="n">
+        <v>970990.9748</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-21887087.22207619</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>7798.5932</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-22746879.45167619</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F223" t="n">
+        <v>60115.66</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-21826971.56207619</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F182" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-22666879.45167619</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F224" t="n">
+        <v>285</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-21826686.56207619</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F183" t="n">
-        <v>141071.5599999422</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-22525807.89167625</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="F225" t="n">
+        <v>927094.5363</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-22753781.09837619</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F226" t="n">
+        <v>310493.7382</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-23064274.83657619</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1226.5541</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-23063048.28247619</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F228" t="n">
+        <v>553891.6364</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-23616939.91887619</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F229" t="n">
+        <v>578.369</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-23616361.54987619</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F230" t="n">
+        <v>65796.1195</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-23550565.43037619</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F231" t="n">
+        <v>94817.7071</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-23550565.43037619</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F232" t="n">
+        <v>18723.5499</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-23550565.43037619</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F233" t="n">
+        <v>160648</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-23550565.43037619</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F234" t="n">
+        <v>105246.8623</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-23655812.2926762</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="F235" t="n">
+        <v>686438.1424</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-22969374.1502762</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1161</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-22969374.1502762</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F237" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-22969374.1502762</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-22967374.1502762</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F239" t="n">
+        <v>45212.4255</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-23012586.5757762</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F240" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-22992586.5757762</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1413451.7739</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-24406038.3496762</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F242" t="n">
+        <v>122657.9594</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-24528696.30907619</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F243" t="n">
+        <v>892443.0502000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-23636253.25887619</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2225.8855</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-23636253.25887619</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F245" t="n">
+        <v>251095.1376</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-23636253.25887619</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F246" t="n">
+        <v>383006.6</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-23253246.65887619</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F247" t="n">
+        <v>7834.293</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-23261080.95187619</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F248" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-23461080.95187619</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="F249" t="n">
+        <v>30848.4998</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-23491929.45167619</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="F250" t="n">
+        <v>254177</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-23237752.45167619</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F251" t="n">
+        <v>498671.5932</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-22739080.85847619</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F252" t="n">
+        <v>7798.5932</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-22746879.45167619</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F253" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-22666879.45167619</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F254" t="n">
+        <v>141071.5599999422</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-22525807.89167625</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N254"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>-23171798.282</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.668</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>-23918041.534</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,21 @@
         <v>-23684795.684</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +601,21 @@
         <v>-23355571.5094</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>1.68</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -640,26 +640,21 @@
         <v>-22861574.3662</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>1.7</v>
       </c>
-      <c r="K7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -684,26 +679,21 @@
         <v>-22319598.6455</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>1.72</v>
       </c>
-      <c r="K8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,22 +718,21 @@
         <v>-20847144.27007582</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>1.789</v>
       </c>
-      <c r="K9" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,24 +757,21 @@
         <v>-19882359.08529999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -812,22 +798,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,16 +835,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -890,16 +872,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -926,16 +909,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -962,16 +946,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,16 +983,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1034,16 +1020,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,16 +1057,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1106,16 +1094,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,16 +1131,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1178,16 +1168,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1214,16 +1205,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1250,16 +1242,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,16 +1279,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1322,16 +1316,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,16 +1353,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,16 +1390,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,16 +1427,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1466,16 +1464,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,16 +1501,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1536,18 +1536,17 @@
         <v>-5840691.965871909</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1574,16 +1573,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1610,16 +1606,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,18 +1637,15 @@
         <v>-6187103.789671909</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1680,18 +1670,15 @@
         <v>-6187103.789671909</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,18 +1703,15 @@
         <v>-7307142.134071909</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1754,16 +1738,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1790,16 +1771,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1826,16 +1804,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,16 +1837,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1898,16 +1870,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,16 +1903,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1970,16 +1936,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,16 +1969,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2042,16 +2002,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,16 +2035,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2114,16 +2068,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2150,16 +2101,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2186,16 +2134,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2222,16 +2167,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2258,16 +2200,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2294,16 +2233,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2330,16 +2266,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2366,16 +2299,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2402,16 +2332,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2436,18 +2363,15 @@
         <v>-2410054.443471908</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2474,16 +2398,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2510,16 +2431,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2546,16 +2464,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2580,18 +2495,15 @@
         <v>-2513651.013471907</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2618,16 +2530,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2654,16 +2563,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2690,16 +2596,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2726,16 +2629,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2762,16 +2662,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,18 +2693,15 @@
         <v>-602460.0842719076</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2834,16 +2728,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2870,16 +2761,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2906,16 +2794,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2942,16 +2827,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2978,16 +2860,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,16 +2893,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3050,16 +2926,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3086,16 +2959,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3122,16 +2992,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3158,16 +3025,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3194,16 +3058,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3230,16 +3091,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3264,18 +3122,15 @@
         <v>-2675694.288971907</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3302,16 +3157,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3338,16 +3190,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3374,16 +3223,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3410,16 +3256,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3446,16 +3289,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3482,16 +3322,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,16 +3355,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3554,16 +3388,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3590,16 +3421,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3626,16 +3454,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3662,16 +3487,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3698,16 +3520,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3734,16 +3553,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3770,16 +3586,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3806,16 +3619,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3842,16 +3652,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3878,16 +3685,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3914,16 +3718,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3950,16 +3751,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3986,16 +3784,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4022,16 +3817,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4058,16 +3850,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4094,16 +3883,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4130,16 +3916,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4166,16 +3949,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4202,16 +3982,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4238,16 +4015,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4274,16 +4048,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4310,16 +4081,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4346,16 +4114,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4382,16 +4147,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4418,16 +4180,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4454,16 +4213,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4490,16 +4246,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4526,16 +4279,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4562,16 +4312,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4598,16 +4345,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4634,16 +4378,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4670,16 +4411,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4706,16 +4444,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4742,16 +4477,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4778,16 +4510,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4814,16 +4543,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4850,16 +4576,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4886,16 +4609,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4922,16 +4642,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4958,16 +4675,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4994,16 +4708,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5030,16 +4741,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5066,16 +4774,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5102,16 +4807,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5138,16 +4840,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5174,16 +4873,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5210,16 +4906,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5246,16 +4939,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5282,16 +4972,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5318,16 +5005,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5354,16 +5038,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5390,16 +5071,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5426,16 +5104,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5462,16 +5137,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5498,16 +5170,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5534,16 +5203,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5570,16 +5236,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5606,16 +5269,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5642,16 +5302,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5678,16 +5335,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5714,16 +5368,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5750,16 +5401,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5786,16 +5434,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5822,16 +5467,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5858,16 +5500,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5894,16 +5533,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5930,16 +5566,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5966,16 +5599,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6002,16 +5632,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6038,16 +5665,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6074,16 +5698,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6110,16 +5731,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6146,16 +5764,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6182,16 +5797,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6218,16 +5830,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6254,16 +5863,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6290,16 +5896,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6326,16 +5929,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6362,16 +5962,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6398,16 +5995,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6434,16 +6028,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6470,16 +6061,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6506,16 +6094,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6542,16 +6127,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6578,16 +6160,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6614,16 +6193,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6650,16 +6226,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6686,16 +6259,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6722,16 +6292,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6758,16 +6325,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6794,16 +6358,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6830,16 +6391,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6866,16 +6424,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6902,16 +6457,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6938,16 +6490,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6974,16 +6523,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7010,16 +6556,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7046,16 +6589,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7082,16 +6622,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7118,16 +6655,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7154,16 +6688,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7188,18 +6719,21 @@
         <v>-18722638.50937619</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7224,18 +6758,21 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1.692</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7260,18 +6797,21 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1.712</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7296,18 +6836,21 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1.712</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7332,18 +6875,21 @@
         <v>-19883583.84347619</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1.712</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7368,18 +6914,21 @@
         <v>-19883583.84347619</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1.696</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7404,18 +6953,21 @@
         <v>-19887607.27127619</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1.696</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7440,18 +6992,21 @@
         <v>-19884685.13967619</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1.692</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7476,18 +7031,21 @@
         <v>-19733580.59487619</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1.711</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7512,18 +7070,21 @@
         <v>-19732412.37007619</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1.712</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7548,18 +7109,21 @@
         <v>-19732996.48227619</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1.713</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7584,24 +7148,21 @@
         <v>-19732996.48227619</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
         <v>1.712</v>
       </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7626,24 +7187,21 @@
         <v>-19732704.59667619</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
         <v>1.712</v>
       </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7668,24 +7226,21 @@
         <v>-19718565.48447619</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
         <v>1.713</v>
       </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7710,22 +7265,21 @@
         <v>-19719146.20457619</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1.723</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7752,20 +7306,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7790,22 +7341,21 @@
         <v>-19695190.57277619</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1.723</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7832,20 +7382,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7870,22 +7417,21 @@
         <v>-19614071.57277619</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1.729</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7912,20 +7458,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7952,20 +7495,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7992,20 +7532,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8030,22 +7567,21 @@
         <v>-19511503.38037619</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8070,22 +7606,21 @@
         <v>-19511503.38037619</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1.736</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8110,22 +7645,21 @@
         <v>-19510637.67507619</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1.736</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8150,22 +7684,21 @@
         <v>-19638400.32107619</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1.738</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8190,22 +7723,21 @@
         <v>-19394357.73477619</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1.736</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8230,22 +7762,21 @@
         <v>-19549669.94427619</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1.753</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8270,22 +7801,21 @@
         <v>-19548529.04287619</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1.746</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8310,22 +7840,21 @@
         <v>-19303533.72867619</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1.753</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8350,22 +7879,21 @@
         <v>-19536502.04267619</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1.771</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8390,22 +7918,21 @@
         <v>-20888046.80727619</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1.752</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8430,22 +7957,21 @@
         <v>-20618799.80727619</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8470,22 +7996,21 @@
         <v>-20916096.24727619</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8510,22 +8035,21 @@
         <v>-21887087.22207619</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8550,22 +8074,21 @@
         <v>-21826971.56207619</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1.707</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8590,22 +8113,21 @@
         <v>-21826686.56207619</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8630,22 +8152,21 @@
         <v>-22753781.09837619</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8670,22 +8191,21 @@
         <v>-23064274.83657619</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1.738</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8710,22 +8230,21 @@
         <v>-23063048.28247619</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8750,22 +8269,21 @@
         <v>-23616939.91887619</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1.736</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8790,22 +8308,21 @@
         <v>-23616361.54987619</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1.712</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8830,22 +8347,21 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1.729</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8870,22 +8386,21 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8910,22 +8425,21 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8950,22 +8464,21 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8990,24 +8503,21 @@
         <v>-23655812.2926762</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
         <v>1.73</v>
       </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9032,24 +8542,21 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
         <v>1.715</v>
       </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9074,24 +8581,21 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
         <v>1.73</v>
       </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9116,24 +8620,21 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
         <v>1.73</v>
       </c>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9158,24 +8659,21 @@
         <v>-22967374.1502762</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
         <v>1.73</v>
       </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9200,24 +8698,21 @@
         <v>-23012586.5757762</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
         <v>1.736</v>
       </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9242,24 +8737,21 @@
         <v>-22992586.5757762</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
         <v>1.72</v>
       </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9284,24 +8776,21 @@
         <v>-24406038.3496762</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
         <v>1.73</v>
       </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9326,24 +8815,21 @@
         <v>-24528696.30907619</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
         <v>1.71</v>
       </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9368,24 +8854,21 @@
         <v>-23636253.25887619</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
         <v>1.695</v>
       </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9410,24 +8893,21 @@
         <v>-23636253.25887619</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
         <v>1.71</v>
       </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9452,24 +8932,21 @@
         <v>-23636253.25887619</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
         <v>1.71</v>
       </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9494,24 +8971,21 @@
         <v>-23253246.65887619</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
         <v>1.71</v>
       </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9536,24 +9010,21 @@
         <v>-23261080.95187619</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
         <v>1.729</v>
       </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9578,24 +9049,21 @@
         <v>-23461080.95187619</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
         <v>1.728</v>
       </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9620,24 +9088,21 @@
         <v>-23491929.45167619</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
         <v>1.71</v>
       </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9662,24 +9127,21 @@
         <v>-23237752.45167619</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
         <v>1.699</v>
       </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9704,24 +9166,21 @@
         <v>-22739080.85847619</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
         <v>1.718</v>
       </c>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9746,24 +9205,21 @@
         <v>-22746879.45167619</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
         <v>1.73</v>
       </c>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9788,24 +9244,21 @@
         <v>-22666879.45167619</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
         <v>1.7</v>
       </c>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9830,26 +9283,23 @@
         <v>-22525807.89167625</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
         <v>1.71</v>
       </c>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-23171798.282</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-23918041.534</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,15 @@
         <v>-23684795.684</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1.67</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,15 +587,17 @@
         <v>-23355571.5094</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1.68</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1.67</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -640,15 +628,17 @@
         <v>-22861574.3662</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1.7</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.67</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -679,17 +669,15 @@
         <v>-22319598.6455</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1.72</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,15 +706,15 @@
         <v>-20847144.27007582</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1.72</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -757,15 +745,15 @@
         <v>-19882359.08529999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1.72</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -800,11 +788,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -837,11 +821,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,11 +854,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,11 +887,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -948,11 +920,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,11 +953,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1022,11 +986,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1059,11 +1019,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1052,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1133,11 +1085,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1170,11 +1118,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1207,11 +1151,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1184,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1281,11 +1217,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1318,11 +1250,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1355,11 +1283,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1392,11 +1316,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1429,11 +1349,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1466,11 +1382,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1503,11 +1415,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,16 +1444,14 @@
         <v>-5840691.965871909</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1637,7 +1543,7 @@
         <v>-6187103.789671909</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1670,7 +1576,7 @@
         <v>-6187103.789671909</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1703,7 +1609,7 @@
         <v>-7307142.134071909</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2297,7 +2203,7 @@
         <v>-2136813.478371907</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2363,7 +2269,7 @@
         <v>-2410054.443471908</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2396,7 +2302,7 @@
         <v>-2417043.963471908</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2429,7 +2335,7 @@
         <v>-2464033.483471908</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2462,7 +2368,7 @@
         <v>-2464033.483471908</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2495,7 +2401,7 @@
         <v>-2513651.013471907</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2528,7 +2434,7 @@
         <v>-2473651.013471907</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2561,7 +2467,7 @@
         <v>-2246185.786471908</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2594,7 +2500,7 @@
         <v>-2256403.286471908</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2627,7 +2533,7 @@
         <v>-2199543.576471908</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2660,7 +2566,7 @@
         <v>-2305819.616471908</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2693,7 +2599,7 @@
         <v>-602460.0842719076</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2726,7 +2632,7 @@
         <v>-889173.9929719076</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2759,7 +2665,7 @@
         <v>-886758.6629719076</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2792,7 +2698,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2825,7 +2731,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2858,7 +2764,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2891,7 +2797,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2924,7 +2830,7 @@
         <v>-1917977.889171908</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2957,7 +2863,7 @@
         <v>-1788483.021771908</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2990,7 +2896,7 @@
         <v>-1828483.021771908</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3023,7 +2929,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3056,7 +2962,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3089,7 +2995,7 @@
         <v>-1976339.911371908</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3122,7 +3028,7 @@
         <v>-2675694.288971907</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3155,7 +3061,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3188,7 +3094,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3221,7 +3127,7 @@
         <v>-3144840.324471907</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3254,7 +3160,7 @@
         <v>-3591907.477571907</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -6686,11 +6592,17 @@
         <v>-18664419.45167619</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.703</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6719,7 +6631,7 @@
         <v>-18722638.50937619</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>1.7</v>
@@ -6727,7 +6639,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -6758,7 +6670,7 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>1.692</v>
@@ -6797,7 +6709,7 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>1.712</v>
@@ -6836,7 +6748,7 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>1.712</v>
@@ -6875,11 +6787,9 @@
         <v>-19883583.84347619</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6914,7 +6824,7 @@
         <v>-19883583.84347619</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>1.696</v>
@@ -6953,7 +6863,7 @@
         <v>-19887607.27127619</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>1.696</v>
@@ -6992,7 +6902,7 @@
         <v>-19884685.13967619</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>1.692</v>
@@ -7031,7 +6941,7 @@
         <v>-19733580.59487619</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>1.711</v>
@@ -7070,7 +6980,7 @@
         <v>-19732412.37007619</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>1.712</v>
@@ -7109,7 +7019,7 @@
         <v>-19732996.48227619</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>1.713</v>
@@ -7148,7 +7058,7 @@
         <v>-19732996.48227619</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>1.712</v>
@@ -7187,7 +7097,7 @@
         <v>-19732704.59667619</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>1.712</v>
@@ -7226,7 +7136,7 @@
         <v>-19718565.48447619</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>1.713</v>
@@ -7265,7 +7175,7 @@
         <v>-19719146.20457619</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>1.723</v>
@@ -7304,9 +7214,11 @@
         <v>-19717694.57277619</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1.722</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7341,11 +7253,9 @@
         <v>-19695190.57277619</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1.723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7417,11 +7327,9 @@
         <v>-19614071.57277619</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1.729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7567,7 +7475,7 @@
         <v>-19511503.38037619</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>1.735</v>
@@ -7606,11 +7514,9 @@
         <v>-19511503.38037619</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1.736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7645,11 +7551,9 @@
         <v>-19510637.67507619</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1.736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7684,11 +7588,9 @@
         <v>-19638400.32107619</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1.738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7723,11 +7625,9 @@
         <v>-19394357.73477619</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1.736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -7762,11 +7662,9 @@
         <v>-19549669.94427619</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1.753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7801,11 +7699,9 @@
         <v>-19548529.04287619</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.746</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7840,11 +7736,9 @@
         <v>-19303533.72867619</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1.753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7879,11 +7773,9 @@
         <v>-19536502.04267619</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7918,11 +7810,9 @@
         <v>-20888046.80727619</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -7957,11 +7847,9 @@
         <v>-20618799.80727619</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -7996,11 +7884,9 @@
         <v>-20916096.24727619</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8035,11 +7921,9 @@
         <v>-21887087.22207619</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8074,7 +7958,7 @@
         <v>-21826971.56207619</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>1.707</v>
@@ -8113,7 +7997,7 @@
         <v>-21826686.56207619</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>1.72</v>
@@ -8152,11 +8036,9 @@
         <v>-22753781.09837619</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8191,7 +8073,7 @@
         <v>-23064274.83657619</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>1.738</v>
@@ -8230,7 +8112,7 @@
         <v>-23063048.28247619</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>1.73</v>
@@ -8269,7 +8151,7 @@
         <v>-23616939.91887619</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>1.736</v>
@@ -8308,7 +8190,7 @@
         <v>-23616361.54987619</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>1.712</v>
@@ -8347,7 +8229,7 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>1.729</v>
@@ -8386,7 +8268,7 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>1.73</v>
@@ -8425,7 +8307,7 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>1.73</v>
@@ -8464,7 +8346,7 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>1.73</v>
@@ -8503,7 +8385,7 @@
         <v>-23655812.2926762</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>1.73</v>
@@ -8542,7 +8424,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>1.715</v>
@@ -8581,7 +8463,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>1.73</v>
@@ -8620,7 +8502,7 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>1.73</v>
@@ -8659,7 +8541,7 @@
         <v>-22967374.1502762</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>1.73</v>
@@ -8698,7 +8580,7 @@
         <v>-23012586.5757762</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>1.736</v>
@@ -8737,7 +8619,7 @@
         <v>-22992586.5757762</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>1.72</v>
@@ -8776,7 +8658,7 @@
         <v>-24406038.3496762</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>1.73</v>
@@ -8815,7 +8697,7 @@
         <v>-24528696.30907619</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>1.71</v>
@@ -8854,7 +8736,7 @@
         <v>-23636253.25887619</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>1.695</v>
@@ -8893,7 +8775,7 @@
         <v>-23636253.25887619</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>1.71</v>
@@ -8932,7 +8814,7 @@
         <v>-23636253.25887619</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>1.71</v>
@@ -8971,7 +8853,7 @@
         <v>-23253246.65887619</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>1.71</v>
@@ -9010,7 +8892,7 @@
         <v>-23261080.95187619</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>1.729</v>
@@ -9049,7 +8931,7 @@
         <v>-23461080.95187619</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>1.728</v>
@@ -9088,7 +8970,7 @@
         <v>-23491929.45167619</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>1.71</v>
@@ -9127,7 +9009,7 @@
         <v>-23237752.45167619</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>1.699</v>
@@ -9166,7 +9048,7 @@
         <v>-22739080.85847619</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>1.718</v>
@@ -9205,7 +9087,7 @@
         <v>-22746879.45167619</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>1.73</v>
@@ -9244,7 +9126,7 @@
         <v>-22666879.45167619</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>1.7</v>
@@ -9283,7 +9165,7 @@
         <v>-22525807.89167625</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>1.71</v>
@@ -9300,6 +9182,6 @@
       <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-23684795.684</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-23355571.5094</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>-22861574.3662</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,14 +649,10 @@
         <v>-22319598.6455</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -709,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -748,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1840,7 +1804,7 @@
         <v>-7726998.079971909</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1873,7 +1837,7 @@
         <v>-5160652.946971908</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2203,7 +2167,7 @@
         <v>-2136813.478371907</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2269,7 +2233,7 @@
         <v>-2410054.443471908</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2302,7 +2266,7 @@
         <v>-2417043.963471908</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2299,7 @@
         <v>-2464033.483471908</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2368,7 +2332,7 @@
         <v>-2464033.483471908</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2401,7 +2365,7 @@
         <v>-2513651.013471907</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2434,7 +2398,7 @@
         <v>-2473651.013471907</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2467,7 +2431,7 @@
         <v>-2246185.786471908</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2500,7 +2464,7 @@
         <v>-2256403.286471908</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2533,7 +2497,7 @@
         <v>-2199543.576471908</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2566,7 +2530,7 @@
         <v>-2305819.616471908</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2599,7 +2563,7 @@
         <v>-602460.0842719076</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2632,7 +2596,7 @@
         <v>-889173.9929719076</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2665,7 +2629,7 @@
         <v>-886758.6629719076</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2698,7 +2662,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2731,7 +2695,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2764,7 +2728,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2797,7 +2761,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2830,7 +2794,7 @@
         <v>-1917977.889171908</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2863,7 +2827,7 @@
         <v>-1788483.021771908</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2896,7 +2860,7 @@
         <v>-1828483.021771908</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2929,7 +2893,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2962,7 +2926,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2995,7 +2959,7 @@
         <v>-1976339.911371908</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3028,7 +2992,7 @@
         <v>-2675694.288971907</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3061,7 +3025,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3094,7 +3058,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3127,7 +3091,7 @@
         <v>-3144840.324471907</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3160,7 +3124,7 @@
         <v>-3591907.477571907</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -6592,17 +6556,11 @@
         <v>-18664419.45167619</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.703</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6631,17 +6589,11 @@
         <v>-18722638.50937619</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6670,17 +6622,11 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1.692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6709,17 +6655,11 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6748,17 +6688,11 @@
         <v>-18722346.45327619</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6824,17 +6754,11 @@
         <v>-19883583.84347619</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1.696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6863,17 +6787,11 @@
         <v>-19887607.27127619</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6902,17 +6820,11 @@
         <v>-19884685.13967619</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1.692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6941,17 +6853,11 @@
         <v>-19733580.59487619</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1.711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6980,17 +6886,11 @@
         <v>-19732412.37007619</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7019,17 +6919,11 @@
         <v>-19732996.48227619</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7058,17 +6952,11 @@
         <v>-19732996.48227619</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7097,17 +6985,11 @@
         <v>-19732704.59667619</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7136,17 +7018,11 @@
         <v>-19718565.48447619</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7175,17 +7051,11 @@
         <v>-19719146.20457619</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1.723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7214,17 +7084,11 @@
         <v>-19717694.57277619</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1.722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7257,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7294,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7331,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7368,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7442,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7475,17 +7315,11 @@
         <v>-19511503.38037619</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1.735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7518,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7555,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7592,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7629,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7666,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7740,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7814,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7851,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7958,17 +7744,11 @@
         <v>-21826971.56207619</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1.707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7997,17 +7777,11 @@
         <v>-21826686.56207619</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8073,17 +7843,11 @@
         <v>-23064274.83657619</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1.738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8112,17 +7876,11 @@
         <v>-23063048.28247619</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8151,17 +7909,11 @@
         <v>-23616939.91887619</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8190,17 +7942,11 @@
         <v>-23616361.54987619</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8229,17 +7975,11 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1.729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8268,17 +8008,11 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8307,17 +8041,11 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8346,17 +8074,11 @@
         <v>-23550565.43037619</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8385,17 +8107,11 @@
         <v>-23655812.2926762</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8424,17 +8140,11 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1.715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8463,17 +8173,11 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8502,17 +8206,11 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +8247,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -9182,6 +8880,6 @@
       <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -1804,7 +1804,7 @@
         <v>-7726998.079971909</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5160652.946971908</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2199543.576471908</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-602460.0842719076</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-889173.9929719076</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-886758.6629719076</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2036758.662971908</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2004619.586771908</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1917977.889171908</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1788483.021771908</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1828483.021771908</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1986324.931371908</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1976339.911371908</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2675694.288971907</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3145310.744371907</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3144840.324471907</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3591907.477571907</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3100678.028371907</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3100678.028371907</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2970132.283171907</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3047235.357271907</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-5125775.585371907</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -8173,10 +8173,14 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8206,11 +8210,19 @@
         <v>-22969374.1502762</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8244,10 +8256,12 @@
       <c r="I238" t="n">
         <v>1.73</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8283,7 +8297,9 @@
       <c r="I239" t="n">
         <v>1.736</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8322,7 +8338,9 @@
       <c r="I240" t="n">
         <v>1.72</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,7 +8379,9 @@
       <c r="I241" t="n">
         <v>1.73</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,7 +8420,9 @@
       <c r="I242" t="n">
         <v>1.71</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8439,7 +8461,9 @@
       <c r="I243" t="n">
         <v>1.695</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,7 +8502,9 @@
       <c r="I244" t="n">
         <v>1.71</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,7 +8543,9 @@
       <c r="I245" t="n">
         <v>1.71</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,7 +8584,9 @@
       <c r="I246" t="n">
         <v>1.71</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,7 +8625,9 @@
       <c r="I247" t="n">
         <v>1.729</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,7 +8666,9 @@
       <c r="I248" t="n">
         <v>1.728</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,7 +8707,9 @@
       <c r="I249" t="n">
         <v>1.71</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8712,7 +8748,9 @@
       <c r="I250" t="n">
         <v>1.699</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8751,7 +8789,9 @@
       <c r="I251" t="n">
         <v>1.718</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,7 +8830,9 @@
       <c r="I252" t="n">
         <v>1.73</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,7 +8871,9 @@
       <c r="I253" t="n">
         <v>1.7</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8868,7 +8912,9 @@
       <c r="I254" t="n">
         <v>1.71</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-14 BackTest MXC.xlsx
+++ b/BackTest/2020-01-14 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>40000</v>
       </c>
       <c r="G2" t="n">
-        <v>-24931375.6256</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>1759577.3436</v>
       </c>
       <c r="G3" t="n">
-        <v>-23171798.282</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.668</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>746243.252</v>
       </c>
       <c r="G4" t="n">
-        <v>-23918041.534</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>233245.85</v>
       </c>
       <c r="G5" t="n">
-        <v>-23684795.684</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>329224.1746</v>
       </c>
       <c r="G6" t="n">
-        <v>-23355571.5094</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>493997.1432</v>
       </c>
       <c r="G7" t="n">
-        <v>-22861574.3662</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>541975.7206999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-22319598.6455</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>1472454.375424176</v>
       </c>
       <c r="G9" t="n">
-        <v>-20847144.27007582</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.789</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,19 @@
         <v>964785.1847758242</v>
       </c>
       <c r="G10" t="n">
-        <v>-19882359.08529999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +759,19 @@
         <v>3938005.8215</v>
       </c>
       <c r="G11" t="n">
-        <v>-15944353.2638</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +793,19 @@
         <v>6925690.653325668</v>
       </c>
       <c r="G12" t="n">
-        <v>-9018662.610474328</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +827,19 @@
         <v>2534740.661042329</v>
       </c>
       <c r="G13" t="n">
-        <v>-11553403.27151666</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +861,19 @@
         <v>2811633.6059</v>
       </c>
       <c r="G14" t="n">
-        <v>-8741769.665616658</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +895,19 @@
         <v>3494186.5859</v>
       </c>
       <c r="G15" t="n">
-        <v>-5247583.079716658</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +929,19 @@
         <v>4196119.090248821</v>
       </c>
       <c r="G16" t="n">
-        <v>-1051463.989467837</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +963,19 @@
         <v>5614552.322482125</v>
       </c>
       <c r="G17" t="n">
-        <v>4563088.333014288</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +997,19 @@
         <v>1090810.724257322</v>
       </c>
       <c r="G18" t="n">
-        <v>3472277.608756966</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1031,19 @@
         <v>1464738.015171127</v>
       </c>
       <c r="G19" t="n">
-        <v>4937015.623928092</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1065,19 @@
         <v>2231161.1752</v>
       </c>
       <c r="G20" t="n">
-        <v>2705854.448728092</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1099,19 @@
         <v>2920150.5805</v>
       </c>
       <c r="G21" t="n">
-        <v>2705854.448728092</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1133,17 @@
         <v>3233283.7065</v>
       </c>
       <c r="G22" t="n">
-        <v>-527429.2577719074</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1165,15 @@
         <v>4476510.31</v>
       </c>
       <c r="G23" t="n">
-        <v>-5003939.567771907</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1195,15 @@
         <v>1623805.8632</v>
       </c>
       <c r="G24" t="n">
-        <v>-6627745.430971907</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1225,15 @@
         <v>369749.2702</v>
       </c>
       <c r="G25" t="n">
-        <v>-6997494.701171908</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1255,15 @@
         <v>1435003.1123</v>
       </c>
       <c r="G26" t="n">
-        <v>-8432497.813471908</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1285,15 @@
         <v>1480916.7698</v>
       </c>
       <c r="G27" t="n">
-        <v>-6951581.043671908</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1315,15 @@
         <v>215889.4822</v>
       </c>
       <c r="G28" t="n">
-        <v>-7167470.525871908</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1345,15 @@
         <v>545369.2161</v>
       </c>
       <c r="G29" t="n">
-        <v>-6622101.309771908</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1375,15 @@
         <v>958320.4049</v>
       </c>
       <c r="G30" t="n">
-        <v>-5663780.904871909</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1405,15 @@
         <v>176911.061</v>
       </c>
       <c r="G31" t="n">
-        <v>-5840691.965871909</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1435,15 @@
         <v>455612.7059</v>
       </c>
       <c r="G32" t="n">
-        <v>-6296304.671771909</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1465,15 @@
         <v>30498.1426</v>
       </c>
       <c r="G33" t="n">
-        <v>-6265806.529171909</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1495,15 @@
         <v>78702.7395</v>
       </c>
       <c r="G34" t="n">
-        <v>-6187103.789671909</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1525,15 @@
         <v>353981.7281</v>
       </c>
       <c r="G35" t="n">
-        <v>-6187103.789671909</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1555,15 @@
         <v>1120038.3444</v>
       </c>
       <c r="G36" t="n">
-        <v>-7307142.134071909</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1585,15 @@
         <v>415123.1943</v>
       </c>
       <c r="G37" t="n">
-        <v>-7307142.134071909</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1615,15 @@
         <v>277458.9648</v>
       </c>
       <c r="G38" t="n">
-        <v>-7029683.169271909</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1645,15 @@
         <v>275502.602</v>
       </c>
       <c r="G39" t="n">
-        <v>-7029683.169271909</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1675,15 @@
         <v>211058.8419</v>
       </c>
       <c r="G40" t="n">
-        <v>-7029683.169271909</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1705,15 @@
         <v>552314.9107</v>
       </c>
       <c r="G41" t="n">
-        <v>-7581998.079971909</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1735,15 @@
         <v>89000</v>
       </c>
       <c r="G42" t="n">
-        <v>-7581998.079971909</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1765,15 @@
         <v>145000</v>
       </c>
       <c r="G43" t="n">
-        <v>-7726998.079971909</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1795,15 @@
         <v>2566345.133</v>
       </c>
       <c r="G44" t="n">
-        <v>-5160652.946971908</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1825,15 @@
         <v>4492017.2618</v>
       </c>
       <c r="G45" t="n">
-        <v>-668635.6851719078</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1855,15 @@
         <v>292547.1742</v>
       </c>
       <c r="G46" t="n">
-        <v>-961182.8593719078</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1885,15 @@
         <v>345393</v>
       </c>
       <c r="G47" t="n">
-        <v>-1306575.859371908</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1915,15 @@
         <v>1157190.1558</v>
       </c>
       <c r="G48" t="n">
-        <v>-2463766.015171908</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1945,15 @@
         <v>600</v>
       </c>
       <c r="G49" t="n">
-        <v>-2463166.015171908</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1975,15 @@
         <v>364921.3172</v>
       </c>
       <c r="G50" t="n">
-        <v>-2098244.697971908</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2005,15 @@
         <v>524267.0958</v>
       </c>
       <c r="G51" t="n">
-        <v>-1573977.602171908</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2035,15 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>-1572977.602171908</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2065,15 @@
         <v>1220045.2333</v>
       </c>
       <c r="G53" t="n">
-        <v>-2793022.835471908</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2095,15 @@
         <v>656209.3571</v>
       </c>
       <c r="G54" t="n">
-        <v>-2136813.478371907</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2125,15 @@
         <v>213240.9651</v>
       </c>
       <c r="G55" t="n">
-        <v>-2350054.443471908</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2155,15 @@
         <v>60000</v>
       </c>
       <c r="G56" t="n">
-        <v>-2410054.443471908</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2185,15 @@
         <v>6989.52</v>
       </c>
       <c r="G57" t="n">
-        <v>-2417043.963471908</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2215,15 @@
         <v>46989.52</v>
       </c>
       <c r="G58" t="n">
-        <v>-2464033.483471908</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2245,15 @@
         <v>35599.12</v>
       </c>
       <c r="G59" t="n">
-        <v>-2464033.483471908</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2275,15 @@
         <v>49617.53</v>
       </c>
       <c r="G60" t="n">
-        <v>-2513651.013471907</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2305,15 @@
         <v>40000</v>
       </c>
       <c r="G61" t="n">
-        <v>-2473651.013471907</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2335,15 @@
         <v>227465.227</v>
       </c>
       <c r="G62" t="n">
-        <v>-2246185.786471908</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2365,15 @@
         <v>10217.5</v>
       </c>
       <c r="G63" t="n">
-        <v>-2256403.286471908</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2395,15 @@
         <v>56859.71</v>
       </c>
       <c r="G64" t="n">
-        <v>-2199543.576471908</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2425,15 @@
         <v>106276.04</v>
       </c>
       <c r="G65" t="n">
-        <v>-2305819.616471908</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2455,15 @@
         <v>1703359.5322</v>
       </c>
       <c r="G66" t="n">
-        <v>-602460.0842719076</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2485,15 @@
         <v>286713.9087</v>
       </c>
       <c r="G67" t="n">
-        <v>-889173.9929719076</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2515,15 @@
         <v>2415.33</v>
       </c>
       <c r="G68" t="n">
-        <v>-886758.6629719076</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2545,15 @@
         <v>1150000</v>
       </c>
       <c r="G69" t="n">
-        <v>-2036758.662971908</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2575,15 @@
         <v>19970.04</v>
       </c>
       <c r="G70" t="n">
-        <v>-2036758.662971908</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2605,15 @@
         <v>32139.0762</v>
       </c>
       <c r="G71" t="n">
-        <v>-2004619.586771908</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2635,15 @@
         <v>166379.4</v>
       </c>
       <c r="G72" t="n">
-        <v>-2004619.586771908</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2665,15 @@
         <v>86641.6976</v>
       </c>
       <c r="G73" t="n">
-        <v>-1917977.889171908</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2695,15 @@
         <v>129494.8674</v>
       </c>
       <c r="G74" t="n">
-        <v>-1788483.021771908</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2725,15 @@
         <v>40000</v>
       </c>
       <c r="G75" t="n">
-        <v>-1828483.021771908</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2755,15 @@
         <v>157841.9096</v>
       </c>
       <c r="G76" t="n">
-        <v>-1986324.931371908</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2785,15 @@
         <v>2973145.4419</v>
       </c>
       <c r="G77" t="n">
-        <v>-1986324.931371908</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2815,15 @@
         <v>9985.02</v>
       </c>
       <c r="G78" t="n">
-        <v>-1976339.911371908</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2845,15 @@
         <v>699354.3776</v>
       </c>
       <c r="G79" t="n">
-        <v>-2675694.288971907</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2875,15 @@
         <v>469616.4554</v>
       </c>
       <c r="G80" t="n">
-        <v>-3145310.744371907</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2905,15 @@
         <v>1415800.6998</v>
       </c>
       <c r="G81" t="n">
-        <v>-3145310.744371907</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2935,15 @@
         <v>470.4199</v>
       </c>
       <c r="G82" t="n">
-        <v>-3144840.324471907</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2965,15 @@
         <v>447067.1531</v>
       </c>
       <c r="G83" t="n">
-        <v>-3591907.477571907</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2995,15 @@
         <v>491229.4492</v>
       </c>
       <c r="G84" t="n">
-        <v>-3100678.028371907</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3025,15 @@
         <v>1202243.525</v>
       </c>
       <c r="G85" t="n">
-        <v>-3100678.028371907</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3055,15 @@
         <v>130545.7452</v>
       </c>
       <c r="G86" t="n">
-        <v>-2970132.283171907</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3085,15 @@
         <v>77103.0741</v>
       </c>
       <c r="G87" t="n">
-        <v>-3047235.357271907</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3115,15 @@
         <v>2078540.2281</v>
       </c>
       <c r="G88" t="n">
-        <v>-5125775.585371907</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3145,15 @@
         <v>774111.0759000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-5125775.585371907</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3175,15 @@
         <v>1129619.088</v>
       </c>
       <c r="G90" t="n">
-        <v>-6255394.673371907</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3205,15 @@
         <v>1135680.53</v>
       </c>
       <c r="G91" t="n">
-        <v>-7391075.203371908</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3235,15 @@
         <v>596255.6233</v>
       </c>
       <c r="G92" t="n">
-        <v>-7987330.826671908</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3265,15 @@
         <v>945040.578</v>
       </c>
       <c r="G93" t="n">
-        <v>-7042290.248671908</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3295,15 @@
         <v>60000</v>
       </c>
       <c r="G94" t="n">
-        <v>-7102290.248671908</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3325,15 @@
         <v>1431759.0652</v>
       </c>
       <c r="G95" t="n">
-        <v>-8534049.313871909</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3355,15 @@
         <v>929583.5542</v>
       </c>
       <c r="G96" t="n">
-        <v>-7604465.759671909</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3385,15 @@
         <v>243000</v>
       </c>
       <c r="G97" t="n">
-        <v>-7604465.759671909</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3415,15 @@
         <v>63535.2572</v>
       </c>
       <c r="G98" t="n">
-        <v>-7540930.502471909</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3445,15 @@
         <v>1011870.5006</v>
       </c>
       <c r="G99" t="n">
-        <v>-8552801.00307191</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3475,15 @@
         <v>421288.5610215552</v>
       </c>
       <c r="G100" t="n">
-        <v>-8131512.442050355</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3505,15 @@
         <v>228284.872</v>
       </c>
       <c r="G101" t="n">
-        <v>-8359797.314050355</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3535,15 @@
         <v>137732.3183</v>
       </c>
       <c r="G102" t="n">
-        <v>-8497529.632350355</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3565,15 @@
         <v>60000</v>
       </c>
       <c r="G103" t="n">
-        <v>-8437529.632350355</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3595,15 @@
         <v>290</v>
       </c>
       <c r="G104" t="n">
-        <v>-8437239.632350355</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3625,15 @@
         <v>14537.28197844483</v>
       </c>
       <c r="G105" t="n">
-        <v>-8437239.632350355</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3655,15 @@
         <v>112262.5732</v>
       </c>
       <c r="G106" t="n">
-        <v>-8324977.059150355</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3685,15 @@
         <v>166743.3792666667</v>
       </c>
       <c r="G107" t="n">
-        <v>-8158233.679883689</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3715,15 @@
         <v>354719.8794333333</v>
       </c>
       <c r="G108" t="n">
-        <v>-8512953.559317023</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3745,15 @@
         <v>474665.2838</v>
       </c>
       <c r="G109" t="n">
-        <v>-8038288.275517022</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3775,15 @@
         <v>1998999.1663</v>
       </c>
       <c r="G110" t="n">
-        <v>-10037287.44181702</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3805,15 @@
         <v>300</v>
       </c>
       <c r="G111" t="n">
-        <v>-10036987.44181702</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3835,15 @@
         <v>158897.9286</v>
       </c>
       <c r="G112" t="n">
-        <v>-10195885.37041702</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3865,15 @@
         <v>80316.0885</v>
       </c>
       <c r="G113" t="n">
-        <v>-10115569.28191702</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3895,15 @@
         <v>848435.1259</v>
       </c>
       <c r="G114" t="n">
-        <v>-10964004.40781702</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3925,15 @@
         <v>159311.8223</v>
       </c>
       <c r="G115" t="n">
-        <v>-10804692.58551702</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3955,15 @@
         <v>257777.3529</v>
       </c>
       <c r="G116" t="n">
-        <v>-11062469.93841702</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3985,15 @@
         <v>301</v>
       </c>
       <c r="G117" t="n">
-        <v>-11062168.93841702</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4015,15 @@
         <v>938878.6756215552</v>
       </c>
       <c r="G118" t="n">
-        <v>-12001047.61403858</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4045,15 @@
         <v>17598</v>
       </c>
       <c r="G119" t="n">
-        <v>-11983449.61403858</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4075,15 @@
         <v>1674.5339</v>
       </c>
       <c r="G120" t="n">
-        <v>-11983449.61403858</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4105,15 @@
         <v>678195.5741</v>
       </c>
       <c r="G121" t="n">
-        <v>-12661645.18813858</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4135,15 @@
         <v>1167.8472</v>
       </c>
       <c r="G122" t="n">
-        <v>-12660477.34093858</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4165,15 @@
         <v>41582.1217</v>
       </c>
       <c r="G123" t="n">
-        <v>-12660477.34093858</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4195,15 @@
         <v>1674.5339</v>
       </c>
       <c r="G124" t="n">
-        <v>-12660477.34093858</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4225,15 @@
         <v>600877.613</v>
       </c>
       <c r="G125" t="n">
-        <v>-12059599.72793858</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4255,15 @@
         <v>414839.7519</v>
       </c>
       <c r="G126" t="n">
-        <v>-12474439.47983858</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4285,15 @@
         <v>590402.1836</v>
       </c>
       <c r="G127" t="n">
-        <v>-12474439.47983858</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4315,15 @@
         <v>296</v>
       </c>
       <c r="G128" t="n">
-        <v>-12474735.47983858</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4345,15 @@
         <v>59598</v>
       </c>
       <c r="G129" t="n">
-        <v>-12415137.47983858</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4375,15 @@
         <v>757252.3342589479</v>
       </c>
       <c r="G130" t="n">
-        <v>-11657885.14557963</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4405,15 @@
         <v>121746.57</v>
       </c>
       <c r="G131" t="n">
-        <v>-11779631.71557963</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4435,15 @@
         <v>340280</v>
       </c>
       <c r="G132" t="n">
-        <v>-12119911.71557963</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4465,15 @@
         <v>33346.0045</v>
       </c>
       <c r="G133" t="n">
-        <v>-12153257.72007963</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4495,15 @@
         <v>143537.4463</v>
       </c>
       <c r="G134" t="n">
-        <v>-12009720.27377963</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4525,15 @@
         <v>290</v>
       </c>
       <c r="G135" t="n">
-        <v>-12010010.27377963</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4555,15 @@
         <v>406609.7779</v>
       </c>
       <c r="G136" t="n">
-        <v>-12416620.05167963</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4585,15 @@
         <v>64259.0039</v>
       </c>
       <c r="G137" t="n">
-        <v>-12352361.04777963</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4615,15 @@
         <v>5408</v>
       </c>
       <c r="G138" t="n">
-        <v>-12346953.04777963</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4645,15 @@
         <v>758103.3071</v>
       </c>
       <c r="G139" t="n">
-        <v>-11588849.74067963</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4675,15 @@
         <v>14027.13689655172</v>
       </c>
       <c r="G140" t="n">
-        <v>-11602876.87757618</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4705,15 @@
         <v>11895.7248</v>
       </c>
       <c r="G141" t="n">
-        <v>-11590981.15277618</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4735,15 @@
         <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>-11591481.15277618</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4765,15 @@
         <v>981409.3463</v>
       </c>
       <c r="G143" t="n">
-        <v>-12572890.49907618</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4795,15 @@
         <v>290</v>
       </c>
       <c r="G144" t="n">
-        <v>-12572600.49907618</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4825,15 @@
         <v>313521.7101</v>
       </c>
       <c r="G145" t="n">
-        <v>-12886122.20917618</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4855,15 @@
         <v>608607.5954</v>
       </c>
       <c r="G146" t="n">
-        <v>-13494729.80457618</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4885,15 @@
         <v>413453.7983</v>
       </c>
       <c r="G147" t="n">
-        <v>-13908183.60287618</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4915,15 @@
         <v>291</v>
       </c>
       <c r="G148" t="n">
-        <v>-13907892.60287618</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4945,15 @@
         <v>4990.5338</v>
       </c>
       <c r="G149" t="n">
-        <v>-13907892.60287618</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4975,15 @@
         <v>290</v>
       </c>
       <c r="G150" t="n">
-        <v>-13907602.60287618</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5005,15 @@
         <v>82487.24980000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-13907602.60287618</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5035,15 @@
         <v>33862.7481</v>
       </c>
       <c r="G152" t="n">
-        <v>-13907602.60287618</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5065,15 @@
         <v>512937.9657</v>
       </c>
       <c r="G153" t="n">
-        <v>-14420540.56857619</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5095,15 @@
         <v>240480.7022</v>
       </c>
       <c r="G154" t="n">
-        <v>-14180059.86637619</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5125,15 @@
         <v>10000</v>
       </c>
       <c r="G155" t="n">
-        <v>-14180059.86637619</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5155,15 @@
         <v>965739.9836</v>
       </c>
       <c r="G156" t="n">
-        <v>-15145799.84997619</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5185,15 @@
         <v>997812.189</v>
       </c>
       <c r="G157" t="n">
-        <v>-14147987.66097619</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5215,15 @@
         <v>290</v>
       </c>
       <c r="G158" t="n">
-        <v>-14148277.66097619</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5245,15 @@
         <v>219258.8936</v>
       </c>
       <c r="G159" t="n">
-        <v>-14367536.55457619</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5275,15 @@
         <v>219512.0723</v>
       </c>
       <c r="G160" t="n">
-        <v>-14367536.55457619</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5305,15 @@
         <v>1999561.4453</v>
       </c>
       <c r="G161" t="n">
-        <v>-16367097.99987619</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5335,15 @@
         <v>290</v>
       </c>
       <c r="G162" t="n">
-        <v>-16366807.99987619</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5365,15 @@
         <v>1542.4151</v>
       </c>
       <c r="G163" t="n">
-        <v>-16368350.41497619</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5395,15 @@
         <v>13942.8929</v>
       </c>
       <c r="G164" t="n">
-        <v>-16354407.52207619</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5425,15 @@
         <v>48990.2</v>
       </c>
       <c r="G165" t="n">
-        <v>-16305417.32207619</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5455,15 @@
         <v>216105.4196</v>
       </c>
       <c r="G166" t="n">
-        <v>-16089311.90247619</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5485,15 @@
         <v>271335.641</v>
       </c>
       <c r="G167" t="n">
-        <v>-16360647.54347619</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5515,15 @@
         <v>220454.3911</v>
       </c>
       <c r="G168" t="n">
-        <v>-16140193.15237619</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5545,15 @@
         <v>14300</v>
       </c>
       <c r="G169" t="n">
-        <v>-16125893.15237619</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5575,15 @@
         <v>16835</v>
       </c>
       <c r="G170" t="n">
-        <v>-16125893.15237619</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5605,15 @@
         <v>37344.1455</v>
       </c>
       <c r="G171" t="n">
-        <v>-16125893.15237619</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5635,15 @@
         <v>290</v>
       </c>
       <c r="G172" t="n">
-        <v>-16125603.15237619</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5665,15 @@
         <v>267042.997</v>
       </c>
       <c r="G173" t="n">
-        <v>-16392646.14937619</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5695,15 @@
         <v>290</v>
       </c>
       <c r="G174" t="n">
-        <v>-16392356.14937619</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5725,15 @@
         <v>41223.4981</v>
       </c>
       <c r="G175" t="n">
-        <v>-16392356.14937619</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5755,15 @@
         <v>14300</v>
       </c>
       <c r="G176" t="n">
-        <v>-16378056.14937619</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5785,15 @@
         <v>290</v>
       </c>
       <c r="G177" t="n">
-        <v>-16378056.14937619</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5815,15 @@
         <v>8511.4557</v>
       </c>
       <c r="G178" t="n">
-        <v>-16386567.60507619</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5845,15 @@
         <v>366934.4775</v>
       </c>
       <c r="G179" t="n">
-        <v>-16386567.60507619</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5875,15 @@
         <v>187523.5109</v>
       </c>
       <c r="G180" t="n">
-        <v>-16386567.60507619</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5905,15 @@
         <v>5181.3474</v>
       </c>
       <c r="G181" t="n">
-        <v>-16386567.60507619</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5935,15 @@
         <v>5757.0524</v>
       </c>
       <c r="G182" t="n">
-        <v>-16386567.60507619</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5965,15 @@
         <v>302630.3165</v>
       </c>
       <c r="G183" t="n">
-        <v>-16689197.92157619</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5995,15 @@
         <v>2270579.6282</v>
       </c>
       <c r="G184" t="n">
-        <v>-18959777.54977619</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6025,15 @@
         <v>439551.6241</v>
       </c>
       <c r="G185" t="n">
-        <v>-18520225.92567619</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6055,15 @@
         <v>11743.981</v>
       </c>
       <c r="G186" t="n">
-        <v>-18531969.90667619</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6085,15 @@
         <v>132449.545</v>
       </c>
       <c r="G187" t="n">
-        <v>-18664419.45167619</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6115,15 @@
         <v>58219.0577</v>
       </c>
       <c r="G188" t="n">
-        <v>-18722638.50937619</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6145,15 @@
         <v>292.0561</v>
       </c>
       <c r="G189" t="n">
-        <v>-18722346.45327619</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6175,15 @@
         <v>584.1122</v>
       </c>
       <c r="G190" t="n">
-        <v>-18722346.45327619</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6205,15 @@
         <v>1168.2244</v>
       </c>
       <c r="G191" t="n">
-        <v>-18722346.45327619</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6235,15 @@
         <v>1161237.3902</v>
       </c>
       <c r="G192" t="n">
-        <v>-19883583.84347619</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6265,15 @@
         <v>135783.3365</v>
       </c>
       <c r="G193" t="n">
-        <v>-19883583.84347619</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6295,15 @@
         <v>4023.4278</v>
       </c>
       <c r="G194" t="n">
-        <v>-19887607.27127619</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6325,15 @@
         <v>2922.1316</v>
       </c>
       <c r="G195" t="n">
-        <v>-19884685.13967619</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6355,15 @@
         <v>151104.5448</v>
       </c>
       <c r="G196" t="n">
-        <v>-19733580.59487619</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6385,15 @@
         <v>1168.2248</v>
       </c>
       <c r="G197" t="n">
-        <v>-19732412.37007619</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6415,15 @@
         <v>584.1122</v>
       </c>
       <c r="G198" t="n">
-        <v>-19732996.48227619</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6445,15 @@
         <v>2628.3344</v>
       </c>
       <c r="G199" t="n">
-        <v>-19732996.48227619</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6475,15 @@
         <v>291.8856</v>
       </c>
       <c r="G200" t="n">
-        <v>-19732704.59667619</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6505,15 @@
         <v>14139.1122</v>
       </c>
       <c r="G201" t="n">
-        <v>-19718565.48447619</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6535,15 @@
         <v>580.7201</v>
       </c>
       <c r="G202" t="n">
-        <v>-19719146.20457619</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6565,15 @@
         <v>1451.6318</v>
       </c>
       <c r="G203" t="n">
-        <v>-19717694.57277619</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6595,15 @@
         <v>22504</v>
       </c>
       <c r="G204" t="n">
-        <v>-19695190.57277619</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6625,15 @@
         <v>39118</v>
       </c>
       <c r="G205" t="n">
-        <v>-19695190.57277619</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6655,15 @@
         <v>81119</v>
       </c>
       <c r="G206" t="n">
-        <v>-19614071.57277619</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6685,15 @@
         <v>60290</v>
       </c>
       <c r="G207" t="n">
-        <v>-19553781.57277619</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6715,15 @@
         <v>4790.2448</v>
       </c>
       <c r="G208" t="n">
-        <v>-19553781.57277619</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6745,15 @@
         <v>20576.3689</v>
       </c>
       <c r="G209" t="n">
-        <v>-19553781.57277619</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6775,15 @@
         <v>42278.1924</v>
       </c>
       <c r="G210" t="n">
-        <v>-19511503.38037619</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6805,15 @@
         <v>76261.8912</v>
       </c>
       <c r="G211" t="n">
-        <v>-19511503.38037619</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6835,15 @@
         <v>865.7053</v>
       </c>
       <c r="G212" t="n">
-        <v>-19510637.67507619</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6865,15 @@
         <v>127762.646</v>
       </c>
       <c r="G213" t="n">
-        <v>-19638400.32107619</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6895,15 @@
         <v>244042.5863</v>
       </c>
       <c r="G214" t="n">
-        <v>-19394357.73477619</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6925,15 @@
         <v>155312.2095</v>
       </c>
       <c r="G215" t="n">
-        <v>-19549669.94427619</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6955,15 @@
         <v>1140.9014</v>
       </c>
       <c r="G216" t="n">
-        <v>-19548529.04287619</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6985,15 @@
         <v>244995.3142</v>
       </c>
       <c r="G217" t="n">
-        <v>-19303533.72867619</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7015,15 @@
         <v>232968.314</v>
       </c>
       <c r="G218" t="n">
-        <v>-19536502.04267619</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7045,15 @@
         <v>1351544.7646</v>
       </c>
       <c r="G219" t="n">
-        <v>-20888046.80727619</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7075,15 @@
         <v>269247</v>
       </c>
       <c r="G220" t="n">
-        <v>-20618799.80727619</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7105,15 @@
         <v>297296.44</v>
       </c>
       <c r="G221" t="n">
-        <v>-20916096.24727619</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7135,15 @@
         <v>970990.9748</v>
       </c>
       <c r="G222" t="n">
-        <v>-21887087.22207619</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7165,15 @@
         <v>60115.66</v>
       </c>
       <c r="G223" t="n">
-        <v>-21826971.56207619</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7195,15 @@
         <v>285</v>
       </c>
       <c r="G224" t="n">
-        <v>-21826686.56207619</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7225,15 @@
         <v>927094.5363</v>
       </c>
       <c r="G225" t="n">
-        <v>-22753781.09837619</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7255,15 @@
         <v>310493.7382</v>
       </c>
       <c r="G226" t="n">
-        <v>-23064274.83657619</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7285,15 @@
         <v>1226.5541</v>
       </c>
       <c r="G227" t="n">
-        <v>-23063048.28247619</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7315,15 @@
         <v>553891.6364</v>
       </c>
       <c r="G228" t="n">
-        <v>-23616939.91887619</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7345,15 @@
         <v>578.369</v>
       </c>
       <c r="G229" t="n">
-        <v>-23616361.54987619</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7375,15 @@
         <v>65796.1195</v>
       </c>
       <c r="G230" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7405,15 @@
         <v>94817.7071</v>
       </c>
       <c r="G231" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7435,15 @@
         <v>18723.5499</v>
       </c>
       <c r="G232" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7465,15 @@
         <v>160648</v>
       </c>
       <c r="G233" t="n">
-        <v>-23550565.43037619</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7495,15 @@
         <v>105246.8623</v>
       </c>
       <c r="G234" t="n">
-        <v>-23655812.2926762</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7525,15 @@
         <v>686438.1424</v>
       </c>
       <c r="G235" t="n">
-        <v>-22969374.1502762</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,22 +7555,15 @@
         <v>1161</v>
       </c>
       <c r="G236" t="n">
-        <v>-22969374.1502762</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8207,26 +7585,15 @@
         <v>30000</v>
       </c>
       <c r="G237" t="n">
-        <v>-22969374.1502762</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8248,26 +7615,15 @@
         <v>2000</v>
       </c>
       <c r="G238" t="n">
-        <v>-22967374.1502762</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8289,26 +7645,15 @@
         <v>45212.4255</v>
       </c>
       <c r="G239" t="n">
-        <v>-23012586.5757762</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="J239" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8330,26 +7675,15 @@
         <v>20000</v>
       </c>
       <c r="G240" t="n">
-        <v>-22992586.5757762</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8371,26 +7705,15 @@
         <v>1413451.7739</v>
       </c>
       <c r="G241" t="n">
-        <v>-24406038.3496762</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8412,26 +7735,15 @@
         <v>122657.9594</v>
       </c>
       <c r="G242" t="n">
-        <v>-24528696.30907619</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8453,26 +7765,15 @@
         <v>892443.0502000001</v>
       </c>
       <c r="G243" t="n">
-        <v>-23636253.25887619</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8494,26 +7795,15 @@
         <v>2225.8855</v>
       </c>
       <c r="G244" t="n">
-        <v>-23636253.25887619</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8535,26 +7825,15 @@
         <v>251095.1376</v>
       </c>
       <c r="G245" t="n">
-        <v>-23636253.25887619</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J245" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8576,26 +7855,15 @@
         <v>383006.6</v>
       </c>
       <c r="G246" t="n">
-        <v>-23253246.65887619</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8617,26 +7885,15 @@
         <v>7834.293</v>
       </c>
       <c r="G247" t="n">
-        <v>-23261080.95187619</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="J247" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8658,26 +7915,15 @@
         <v>200000</v>
       </c>
       <c r="G248" t="n">
-        <v>-23461080.95187619</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="J248" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8699,26 +7945,15 @@
         <v>30848.4998</v>
       </c>
       <c r="G249" t="n">
-        <v>-23491929.45167619</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8740,26 +7975,15 @@
         <v>254177</v>
       </c>
       <c r="G250" t="n">
-        <v>-23237752.45167619</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8781,26 +8005,15 @@
         <v>498671.5932</v>
       </c>
       <c r="G251" t="n">
-        <v>-22739080.85847619</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.718</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8822,26 +8035,15 @@
         <v>7798.5932</v>
       </c>
       <c r="G252" t="n">
-        <v>-22746879.45167619</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8863,26 +8065,15 @@
         <v>80000</v>
       </c>
       <c r="G253" t="n">
-        <v>-22666879.45167619</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8904,26 +8095,15 @@
         <v>141071.5599999422</v>
       </c>
       <c r="G254" t="n">
-        <v>-22525807.89167625</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
